--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,1026 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8090.699999999998</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1706.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2270.500000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2241.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1872.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7628.400000000003</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3330.300000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4482.099999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4280.100000000002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3626.600000000003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7911.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4936.200000000004</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6705.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6542.000000000003</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5447.500000000004</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7979.100000000002</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6552.500000000007</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9036.200000000003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8817.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7204.200000000006</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7834.400000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8251.000000000007</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11313.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11033.90000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8846.400000000011</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7702.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9834.300000000007</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13532</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13270.90000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10510.00000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8084.499999999997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11456.20000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15827.20000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15599.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12349.20000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7968.199999999994</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13133.80000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18084.00000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17897</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14085.10000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6342.999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14666.60000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20279.30000000002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18653.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15943.30000000002</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7446.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15870.30000000002</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22528.70000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20933.20000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17657.10000000002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6601.400000000002</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16862.00000000002</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24051.10000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23221.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19456.10000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7883.500000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18540.60000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26349.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25382.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21201.50000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7876.900000000004</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20136.30000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>28572.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27651.69999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22990.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8144.500000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21838.19999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30991</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29979.99999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24686.39999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8274.099999999993</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23574.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>33387.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32283.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26523.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8140.399999999994</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25289.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>35644.89999999997</v>
+      </c>
+      <c r="E17" t="n">
+        <v>34616.40000000002</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28359.20000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8035.100000000004</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26964.29999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37901.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36953.20000000003</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30125.90000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8177.999999999997</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28575.59999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>40317.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>39323.90000000005</v>
+      </c>
+      <c r="F19" t="n">
+        <v>31905.90000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8269.699999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30332.39999999998</v>
+      </c>
+      <c r="D20" t="n">
+        <v>42672.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>41631.80000000008</v>
+      </c>
+      <c r="F20" t="n">
+        <v>33755.79999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8177.600000000002</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32070.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45005.30000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>43928.80000000009</v>
+      </c>
+      <c r="F21" t="n">
+        <v>35565.60000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8147.199999999998</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33747.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>47331.40000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>46237.60000000011</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37401.60000000003</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8263.700000000004</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35455.50000000004</v>
+      </c>
+      <c r="D23" t="n">
+        <v>49696.40000000003</v>
+      </c>
+      <c r="E23" t="n">
+        <v>48574.80000000013</v>
+      </c>
+      <c r="F23" t="n">
+        <v>39254.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8214.200000000003</v>
+      </c>
+      <c r="C24" t="n">
+        <v>37190.90000000005</v>
+      </c>
+      <c r="D24" t="n">
+        <v>52024.60000000002</v>
+      </c>
+      <c r="E24" t="n">
+        <v>50902.20000000016</v>
+      </c>
+      <c r="F24" t="n">
+        <v>41077.90000000002</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8272.900000000003</v>
+      </c>
+      <c r="C25" t="n">
+        <v>38945.90000000007</v>
+      </c>
+      <c r="D25" t="n">
+        <v>54400.90000000002</v>
+      </c>
+      <c r="E25" t="n">
+        <v>53226.00000000014</v>
+      </c>
+      <c r="F25" t="n">
+        <v>42895.70000000003</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8223.200000000003</v>
+      </c>
+      <c r="C26" t="n">
+        <v>40644.90000000005</v>
+      </c>
+      <c r="D26" t="n">
+        <v>56712.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>55571.50000000016</v>
+      </c>
+      <c r="F26" t="n">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8170.799999999996</v>
+      </c>
+      <c r="C27" t="n">
+        <v>42453.20000000003</v>
+      </c>
+      <c r="D27" t="n">
+        <v>59012.69999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>57927.70000000016</v>
+      </c>
+      <c r="F27" t="n">
+        <v>46468.89999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8060.699999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>44118.10000000003</v>
+      </c>
+      <c r="D28" t="n">
+        <v>61398.69999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>60284.80000000017</v>
+      </c>
+      <c r="F28" t="n">
+        <v>48121.59999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8103.099999999996</v>
+      </c>
+      <c r="C29" t="n">
+        <v>45795.00000000006</v>
+      </c>
+      <c r="D29" t="n">
+        <v>63640.19999999998</v>
+      </c>
+      <c r="E29" t="n">
+        <v>62628.40000000019</v>
+      </c>
+      <c r="F29" t="n">
+        <v>49962.69999999998</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8176.499999999995</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47517.70000000005</v>
+      </c>
+      <c r="D30" t="n">
+        <v>66012.29999999993</v>
+      </c>
+      <c r="E30" t="n">
+        <v>64890.80000000021</v>
+      </c>
+      <c r="F30" t="n">
+        <v>51781.99999999998</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7389.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>49261.50000000004</v>
+      </c>
+      <c r="D31" t="n">
+        <v>68054.0999999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>66660.20000000022</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53616.49999999997</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8236.699999999995</v>
+      </c>
+      <c r="C32" t="n">
+        <v>51018.30000000008</v>
+      </c>
+      <c r="D32" t="n">
+        <v>70347.59999999992</v>
+      </c>
+      <c r="E32" t="n">
+        <v>68933.60000000021</v>
+      </c>
+      <c r="F32" t="n">
+        <v>55529.49999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8253.900000000009</v>
+      </c>
+      <c r="C33" t="n">
+        <v>52761.30000000006</v>
+      </c>
+      <c r="D33" t="n">
+        <v>72616.2999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>71231.20000000032</v>
+      </c>
+      <c r="F33" t="n">
+        <v>57474.10000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8409.300000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>54594.30000000005</v>
+      </c>
+      <c r="D34" t="n">
+        <v>74961.29999999978</v>
+      </c>
+      <c r="E34" t="n">
+        <v>73559.50000000029</v>
+      </c>
+      <c r="F34" t="n">
+        <v>59377.10000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8215.400000000012</v>
+      </c>
+      <c r="C35" t="n">
+        <v>56391.60000000003</v>
+      </c>
+      <c r="D35" t="n">
+        <v>77287.39999999973</v>
+      </c>
+      <c r="E35" t="n">
+        <v>75883.10000000038</v>
+      </c>
+      <c r="F35" t="n">
+        <v>61145.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8185.700000000007</v>
+      </c>
+      <c r="C36" t="n">
+        <v>58109.20000000003</v>
+      </c>
+      <c r="D36" t="n">
+        <v>79543.19999999972</v>
+      </c>
+      <c r="E36" t="n">
+        <v>78209.50000000038</v>
+      </c>
+      <c r="F36" t="n">
+        <v>63031.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8226.100000000002</v>
+      </c>
+      <c r="C37" t="n">
+        <v>59891.60000000007</v>
+      </c>
+      <c r="D37" t="n">
+        <v>81825.19999999972</v>
+      </c>
+      <c r="E37" t="n">
+        <v>80562.10000000036</v>
+      </c>
+      <c r="F37" t="n">
+        <v>64840.49999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8181.499999999994</v>
+      </c>
+      <c r="C38" t="n">
+        <v>61615.60000000009</v>
+      </c>
+      <c r="D38" t="n">
+        <v>84089.79999999973</v>
+      </c>
+      <c r="E38" t="n">
+        <v>82889.20000000038</v>
+      </c>
+      <c r="F38" t="n">
+        <v>66706.29999999996</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8315.799999999999</v>
+      </c>
+      <c r="C39" t="n">
+        <v>63363.20000000008</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86404.99999999975</v>
+      </c>
+      <c r="E39" t="n">
+        <v>85258.30000000035</v>
+      </c>
+      <c r="F39" t="n">
+        <v>68590.19999999995</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8177.600000000004</v>
+      </c>
+      <c r="C40" t="n">
+        <v>65129.60000000008</v>
+      </c>
+      <c r="D40" t="n">
+        <v>88691.79999999977</v>
+      </c>
+      <c r="E40" t="n">
+        <v>87600.20000000042</v>
+      </c>
+      <c r="F40" t="n">
+        <v>70372.69999999994</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8380.299999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>66891.30000000005</v>
+      </c>
+      <c r="D41" t="n">
+        <v>91023.99999999978</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89976.90000000043</v>
+      </c>
+      <c r="F41" t="n">
+        <v>72282.39999999992</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8410.599999999997</v>
+      </c>
+      <c r="C42" t="n">
+        <v>68723.20000000004</v>
+      </c>
+      <c r="D42" t="n">
+        <v>93345.39999999976</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92338.9000000004</v>
+      </c>
+      <c r="F42" t="n">
+        <v>74177.69999999991</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8297.799999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>70477.60000000014</v>
+      </c>
+      <c r="D43" t="n">
+        <v>95660.09999999967</v>
+      </c>
+      <c r="E43" t="n">
+        <v>94702.90000000039</v>
+      </c>
+      <c r="F43" t="n">
+        <v>76042.39999999991</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8226.800000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>72242.7000000002</v>
+      </c>
+      <c r="D44" t="n">
+        <v>97968.19999999963</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97021.40000000036</v>
+      </c>
+      <c r="F44" t="n">
+        <v>77877.49999999993</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8306.200000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>74020.30000000019</v>
+      </c>
+      <c r="D45" t="n">
+        <v>100293.6999999996</v>
+      </c>
+      <c r="E45" t="n">
+        <v>99345.4000000004</v>
+      </c>
+      <c r="F45" t="n">
+        <v>79756.59999999989</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8506.400000000007</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75789.60000000019</v>
+      </c>
+      <c r="D46" t="n">
+        <v>102692.8999999996</v>
+      </c>
+      <c r="E46" t="n">
+        <v>101766.1000000005</v>
+      </c>
+      <c r="F46" t="n">
+        <v>81673.79999999992</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8325.300000000007</v>
+      </c>
+      <c r="C47" t="n">
+        <v>77579.40000000023</v>
+      </c>
+      <c r="D47" t="n">
+        <v>104973.4999999996</v>
+      </c>
+      <c r="E47" t="n">
+        <v>104160.4000000004</v>
+      </c>
+      <c r="F47" t="n">
+        <v>83534.40000000005</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8521.900000000005</v>
+      </c>
+      <c r="C48" t="n">
+        <v>79395.80000000019</v>
+      </c>
+      <c r="D48" t="n">
+        <v>107396.7999999996</v>
+      </c>
+      <c r="E48" t="n">
+        <v>106504.4000000004</v>
+      </c>
+      <c r="F48" t="n">
+        <v>85472.60000000014</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8327.900000000005</v>
+      </c>
+      <c r="C49" t="n">
+        <v>81223.30000000016</v>
+      </c>
+      <c r="D49" t="n">
+        <v>109736.6999999996</v>
+      </c>
+      <c r="E49" t="n">
+        <v>108838.3000000005</v>
+      </c>
+      <c r="F49" t="n">
+        <v>87299.20000000019</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8538.999999999987</v>
+      </c>
+      <c r="C50" t="n">
+        <v>82970.00000000017</v>
+      </c>
+      <c r="D50" t="n">
+        <v>112175.1999999997</v>
+      </c>
+      <c r="E50" t="n">
+        <v>111244.7000000004</v>
+      </c>
+      <c r="F50" t="n">
+        <v>89246.60000000014</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8519.399999999992</v>
+      </c>
+      <c r="C51" t="n">
+        <v>84738.80000000019</v>
+      </c>
+      <c r="D51" t="n">
+        <v>114566.0999999997</v>
+      </c>
+      <c r="E51" t="n">
+        <v>113678.6000000004</v>
+      </c>
+      <c r="F51" t="n">
+        <v>91172.40000000002</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8548.599999999999</v>
+      </c>
+      <c r="C52" t="n">
+        <v>86496.60000000024</v>
+      </c>
+      <c r="D52" t="n">
+        <v>116951.9999999997</v>
+      </c>
+      <c r="E52" t="n">
+        <v>116088.2000000003</v>
+      </c>
+      <c r="F52" t="n">
+        <v>93167.70000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -470,19 +470,19 @@
         <v>1966</v>
       </c>
       <c r="B2" t="n">
-        <v>8090.699999999998</v>
+        <v>22.16630136986301</v>
       </c>
       <c r="C2" t="n">
-        <v>1706.2</v>
+        <v>18.95777777777778</v>
       </c>
       <c r="D2" t="n">
-        <v>2270.500000000001</v>
+        <v>24.95054945054946</v>
       </c>
       <c r="E2" t="n">
-        <v>2241.4</v>
+        <v>24.36304347826087</v>
       </c>
       <c r="F2" t="n">
-        <v>1872.6</v>
+        <v>20.35434782608696</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>1967</v>
       </c>
       <c r="B3" t="n">
-        <v>7628.400000000003</v>
+        <v>21.48845070422536</v>
       </c>
       <c r="C3" t="n">
-        <v>3330.300000000001</v>
+        <v>18.2561975308642</v>
       </c>
       <c r="D3" t="n">
-        <v>4482.099999999999</v>
+        <v>24.57747856539067</v>
       </c>
       <c r="E3" t="n">
-        <v>4280.100000000002</v>
+        <v>25.15930540827147</v>
       </c>
       <c r="F3" t="n">
-        <v>3626.600000000003</v>
+        <v>19.28646030245746</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>1968</v>
       </c>
       <c r="B4" t="n">
-        <v>7911.8</v>
+        <v>21.73571428571429</v>
       </c>
       <c r="C4" t="n">
-        <v>4936.200000000004</v>
+        <v>17.84787030253696</v>
       </c>
       <c r="D4" t="n">
-        <v>6705.2</v>
+        <v>24.69975251170758</v>
       </c>
       <c r="E4" t="n">
-        <v>6542.000000000003</v>
+        <v>25.4117700600919</v>
       </c>
       <c r="F4" t="n">
-        <v>5447.500000000004</v>
+        <v>20.00202674241801</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>1969</v>
       </c>
       <c r="B5" t="n">
-        <v>7979.100000000002</v>
+        <v>21.9206043956044</v>
       </c>
       <c r="C5" t="n">
-        <v>6552.500000000007</v>
+        <v>18.15719855891708</v>
       </c>
       <c r="D5" t="n">
-        <v>9036.200000000003</v>
+        <v>25.88681046716161</v>
       </c>
       <c r="E5" t="n">
-        <v>8817.1</v>
+        <v>25.00556271804448</v>
       </c>
       <c r="F5" t="n">
-        <v>7204.200000000006</v>
+        <v>19.52419809607052</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>1970</v>
       </c>
       <c r="B6" t="n">
-        <v>7834.400000000001</v>
+        <v>22.0687323943662</v>
       </c>
       <c r="C6" t="n">
-        <v>8251.000000000007</v>
+        <v>19.07396887287685</v>
       </c>
       <c r="D6" t="n">
-        <v>11313.1</v>
+        <v>25.30534956557321</v>
       </c>
       <c r="E6" t="n">
-        <v>11033.90000000001</v>
+        <v>24.90895069686716</v>
       </c>
       <c r="F6" t="n">
-        <v>8846.400000000011</v>
+        <v>19.78243092971512</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>1971</v>
       </c>
       <c r="B7" t="n">
-        <v>7702.8</v>
+        <v>21.10356164383562</v>
       </c>
       <c r="C7" t="n">
-        <v>9834.300000000007</v>
+        <v>17.80415520969863</v>
       </c>
       <c r="D7" t="n">
-        <v>13532</v>
+        <v>24.66159724797333</v>
       </c>
       <c r="E7" t="n">
-        <v>13270.90000000001</v>
+        <v>24.58596685540073</v>
       </c>
       <c r="F7" t="n">
-        <v>10510.00000000001</v>
+        <v>18.29763511880126</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>1972</v>
       </c>
       <c r="B8" t="n">
-        <v>8084.499999999997</v>
+        <v>22.08879781420764</v>
       </c>
       <c r="C8" t="n">
-        <v>11456.20000000001</v>
+        <v>18.01872698032635</v>
       </c>
       <c r="D8" t="n">
-        <v>15827.20000000001</v>
+        <v>25.49298458514258</v>
       </c>
       <c r="E8" t="n">
-        <v>15599.1</v>
+        <v>25.57376050929782</v>
       </c>
       <c r="F8" t="n">
-        <v>12349.20000000001</v>
+        <v>20.19019168607392</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>1973</v>
       </c>
       <c r="B9" t="n">
-        <v>7968.199999999994</v>
+        <v>21.89065934065933</v>
       </c>
       <c r="C9" t="n">
-        <v>13133.80000000001</v>
+        <v>19.0518958087677</v>
       </c>
       <c r="D9" t="n">
-        <v>18084.00000000001</v>
+        <v>25.08014268774882</v>
       </c>
       <c r="E9" t="n">
-        <v>17897</v>
+        <v>25.25514957075324</v>
       </c>
       <c r="F9" t="n">
-        <v>14085.10000000001</v>
+        <v>19.08793686615298</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>1974</v>
       </c>
       <c r="B10" t="n">
-        <v>6342.999999999999</v>
+        <v>21.00331125827814</v>
       </c>
       <c r="C10" t="n">
-        <v>14666.60000000001</v>
+        <v>17.24279884231964</v>
       </c>
       <c r="D10" t="n">
-        <v>20279.30000000002</v>
+        <v>24.67089047430833</v>
       </c>
       <c r="E10" t="n">
-        <v>18653.7</v>
+        <v>26.06517165235844</v>
       </c>
       <c r="F10" t="n">
-        <v>15943.30000000002</v>
+        <v>20.40530366158861</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>1975</v>
       </c>
       <c r="B11" t="n">
-        <v>7446.4</v>
+        <v>22.4289156626506</v>
       </c>
       <c r="C11" t="n">
-        <v>15870.30000000002</v>
+        <v>20.69394574309016</v>
       </c>
       <c r="D11" t="n">
-        <v>22528.70000000001</v>
+        <v>25.26745433860342</v>
       </c>
       <c r="E11" t="n">
-        <v>20933.20000000001</v>
+        <v>25.33588100716877</v>
       </c>
       <c r="F11" t="n">
-        <v>17657.10000000002</v>
+        <v>18.85005764849553</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>1976</v>
       </c>
       <c r="B12" t="n">
-        <v>6601.400000000002</v>
+        <v>21.64393442622952</v>
       </c>
       <c r="C12" t="n">
-        <v>16862.00000000002</v>
+        <v>16.8732324290515</v>
       </c>
       <c r="D12" t="n">
-        <v>24051.10000000001</v>
+        <v>25.37159761210825</v>
       </c>
       <c r="E12" t="n">
-        <v>23221.5</v>
+        <v>25.14821609790402</v>
       </c>
       <c r="F12" t="n">
-        <v>19456.10000000001</v>
+        <v>19.75923975704886</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>1977</v>
       </c>
       <c r="B13" t="n">
-        <v>7883.500000000001</v>
+        <v>21.89861111111111</v>
       </c>
       <c r="C13" t="n">
-        <v>18540.60000000001</v>
+        <v>18.8385914714339</v>
       </c>
       <c r="D13" t="n">
-        <v>26349.7</v>
+        <v>25.53814942430888</v>
       </c>
       <c r="E13" t="n">
-        <v>25382.4</v>
+        <v>25.12699098963108</v>
       </c>
       <c r="F13" t="n">
-        <v>21201.50000000001</v>
+        <v>19.1865134756201</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>1978</v>
       </c>
       <c r="B14" t="n">
-        <v>7876.900000000004</v>
+        <v>21.69944903581268</v>
       </c>
       <c r="C14" t="n">
-        <v>20136.30000000001</v>
+        <v>18.14088305024082</v>
       </c>
       <c r="D14" t="n">
-        <v>28572.8</v>
+        <v>24.71030933433306</v>
       </c>
       <c r="E14" t="n">
-        <v>27651.69999999999</v>
+        <v>25.21348341746847</v>
       </c>
       <c r="F14" t="n">
-        <v>22990.3</v>
+        <v>19.65202732038717</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>1979</v>
       </c>
       <c r="B15" t="n">
-        <v>8144.500000000001</v>
+        <v>22.31369863013699</v>
       </c>
       <c r="C15" t="n">
-        <v>21838.19999999999</v>
+        <v>19.1115653672249</v>
       </c>
       <c r="D15" t="n">
-        <v>30991</v>
+        <v>26.84516823444322</v>
       </c>
       <c r="E15" t="n">
-        <v>29979.99999999999</v>
+        <v>25.58166829801596</v>
       </c>
       <c r="F15" t="n">
-        <v>24686.39999999999</v>
+        <v>18.6494785578303</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>1980</v>
       </c>
       <c r="B16" t="n">
-        <v>8274.099999999993</v>
+        <v>22.60683060109288</v>
       </c>
       <c r="C16" t="n">
-        <v>23574.8</v>
+        <v>19.29353368535412</v>
       </c>
       <c r="D16" t="n">
-        <v>33387.8</v>
+        <v>26.63346338719168</v>
       </c>
       <c r="E16" t="n">
-        <v>32283.7</v>
+        <v>25.31827900323932</v>
       </c>
       <c r="F16" t="n">
-        <v>26523.4</v>
+        <v>20.17010302780251</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>1981</v>
       </c>
       <c r="B17" t="n">
-        <v>8140.399999999994</v>
+        <v>22.30246575342464</v>
       </c>
       <c r="C17" t="n">
-        <v>25289.6</v>
+        <v>19.26770592983727</v>
       </c>
       <c r="D17" t="n">
-        <v>35644.89999999997</v>
+        <v>25.09597212513398</v>
       </c>
       <c r="E17" t="n">
-        <v>34616.40000000002</v>
+        <v>25.63063346742652</v>
       </c>
       <c r="F17" t="n">
-        <v>28359.20000000001</v>
+        <v>20.17358807638916</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>1982</v>
       </c>
       <c r="B18" t="n">
-        <v>8035.100000000004</v>
+        <v>22.01397260273974</v>
       </c>
       <c r="C18" t="n">
-        <v>26964.29999999999</v>
+        <v>18.82186339922041</v>
       </c>
       <c r="D18" t="n">
-        <v>37901.8</v>
+        <v>25.07687881456192</v>
       </c>
       <c r="E18" t="n">
-        <v>36953.20000000003</v>
+        <v>25.67859384203725</v>
       </c>
       <c r="F18" t="n">
-        <v>30125.90000000001</v>
+        <v>19.42253900083031</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>1983</v>
       </c>
       <c r="B19" t="n">
-        <v>8177.999999999997</v>
+        <v>22.59116022099447</v>
       </c>
       <c r="C19" t="n">
-        <v>28575.59999999999</v>
+        <v>18.73703291263472</v>
       </c>
       <c r="D19" t="n">
-        <v>40317.8</v>
+        <v>26.82502064631388</v>
       </c>
       <c r="E19" t="n">
-        <v>39323.90000000005</v>
+        <v>26.04759341132649</v>
       </c>
       <c r="F19" t="n">
-        <v>31905.90000000001</v>
+        <v>19.55894064131338</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>1984</v>
       </c>
       <c r="B20" t="n">
-        <v>8269.699999999999</v>
+        <v>22.59480874316939</v>
       </c>
       <c r="C20" t="n">
-        <v>30332.39999999998</v>
+        <v>19.51139596607291</v>
       </c>
       <c r="D20" t="n">
-        <v>42672.9</v>
+        <v>26.17500022688257</v>
       </c>
       <c r="E20" t="n">
-        <v>41631.80000000008</v>
+        <v>25.36899558055791</v>
       </c>
       <c r="F20" t="n">
-        <v>33755.79999999999</v>
+        <v>20.32020587653601</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>1985</v>
       </c>
       <c r="B21" t="n">
-        <v>8177.600000000002</v>
+        <v>22.40438356164384</v>
       </c>
       <c r="C21" t="n">
-        <v>32070.8</v>
+        <v>19.53234884406749</v>
       </c>
       <c r="D21" t="n">
-        <v>45005.30000000001</v>
+        <v>25.91840659589981</v>
       </c>
       <c r="E21" t="n">
-        <v>43928.80000000009</v>
+        <v>25.2431412563104</v>
       </c>
       <c r="F21" t="n">
-        <v>35565.60000000001</v>
+        <v>19.89261093344061</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>1986</v>
       </c>
       <c r="B22" t="n">
-        <v>8147.199999999998</v>
+        <v>22.32109589041095</v>
       </c>
       <c r="C22" t="n">
-        <v>33747.1</v>
+        <v>18.84258165382298</v>
       </c>
       <c r="D22" t="n">
-        <v>47331.40000000001</v>
+        <v>25.84635611643847</v>
       </c>
       <c r="E22" t="n">
-        <v>46237.60000000011</v>
+        <v>25.37003414409033</v>
       </c>
       <c r="F22" t="n">
-        <v>37401.60000000003</v>
+        <v>20.17274577101566</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>1987</v>
       </c>
       <c r="B23" t="n">
-        <v>8263.700000000004</v>
+        <v>22.8279005524862</v>
       </c>
       <c r="C23" t="n">
-        <v>35455.50000000004</v>
+        <v>19.62775660970252</v>
       </c>
       <c r="D23" t="n">
-        <v>49696.40000000003</v>
+        <v>26.56495951240486</v>
       </c>
       <c r="E23" t="n">
-        <v>48574.80000000013</v>
+        <v>25.68010906678359</v>
       </c>
       <c r="F23" t="n">
-        <v>39254.7</v>
+        <v>20.36166028011973</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>1988</v>
       </c>
       <c r="B24" t="n">
-        <v>8214.200000000003</v>
+        <v>22.62865013774105</v>
       </c>
       <c r="C24" t="n">
-        <v>37190.90000000005</v>
+        <v>19.94349723420116</v>
       </c>
       <c r="D24" t="n">
-        <v>52024.60000000002</v>
+        <v>25.87653801661984</v>
       </c>
       <c r="E24" t="n">
-        <v>50902.20000000016</v>
+        <v>25.57695770724765</v>
       </c>
       <c r="F24" t="n">
-        <v>41077.90000000002</v>
+        <v>20.03871369869696</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>1989</v>
       </c>
       <c r="B25" t="n">
-        <v>8272.900000000003</v>
+        <v>22.72774725274726</v>
       </c>
       <c r="C25" t="n">
-        <v>38945.90000000007</v>
+        <v>19.72159441371335</v>
       </c>
       <c r="D25" t="n">
-        <v>54400.90000000002</v>
+        <v>26.39754437380901</v>
       </c>
       <c r="E25" t="n">
-        <v>53226.00000000014</v>
+        <v>25.81732920557414</v>
       </c>
       <c r="F25" t="n">
-        <v>42895.70000000003</v>
+        <v>19.97650775759453</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>1990</v>
       </c>
       <c r="B26" t="n">
-        <v>8223.200000000003</v>
+        <v>22.65344352617081</v>
       </c>
       <c r="C26" t="n">
-        <v>40644.90000000005</v>
+        <v>19.53092720924674</v>
       </c>
       <c r="D26" t="n">
-        <v>56712.3</v>
+        <v>25.6900829052067</v>
       </c>
       <c r="E26" t="n">
-        <v>55571.50000000016</v>
+        <v>25.77518836093014</v>
       </c>
       <c r="F26" t="n">
-        <v>44763</v>
+        <v>20.51387508432169</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         <v>1991</v>
       </c>
       <c r="B27" t="n">
-        <v>8170.799999999996</v>
+        <v>22.82346368715083</v>
       </c>
       <c r="C27" t="n">
-        <v>42453.20000000003</v>
+        <v>20.30923252454718</v>
       </c>
       <c r="D27" t="n">
-        <v>59012.69999999999</v>
+        <v>25.5614294824748</v>
       </c>
       <c r="E27" t="n">
-        <v>57927.70000000016</v>
+        <v>25.89103465609707</v>
       </c>
       <c r="F27" t="n">
-        <v>46468.89999999999</v>
+        <v>20.31075147158025</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +990,19 @@
         <v>1992</v>
       </c>
       <c r="B28" t="n">
-        <v>8060.699999999999</v>
+        <v>22.20578512396694</v>
       </c>
       <c r="C28" t="n">
-        <v>44118.10000000003</v>
+        <v>18.72454702805053</v>
       </c>
       <c r="D28" t="n">
-        <v>61398.69999999999</v>
+        <v>26.50067504925797</v>
       </c>
       <c r="E28" t="n">
-        <v>60284.80000000017</v>
+        <v>25.90207646365323</v>
       </c>
       <c r="F28" t="n">
-        <v>48121.59999999999</v>
+        <v>18.58900834968424</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1010,19 @@
         <v>1993</v>
       </c>
       <c r="B29" t="n">
-        <v>8103.099999999996</v>
+        <v>22.5086111111111</v>
       </c>
       <c r="C29" t="n">
-        <v>45795.00000000006</v>
+        <v>19.26846076168239</v>
       </c>
       <c r="D29" t="n">
-        <v>63640.19999999998</v>
+        <v>25.77273494374157</v>
       </c>
       <c r="E29" t="n">
-        <v>62628.40000000019</v>
+        <v>25.75545735286581</v>
       </c>
       <c r="F29" t="n">
-        <v>49962.69999999998</v>
+        <v>20.21401096032265</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1030,19 @@
         <v>1994</v>
       </c>
       <c r="B30" t="n">
-        <v>8176.499999999995</v>
+        <v>22.9033613445378</v>
       </c>
       <c r="C30" t="n">
-        <v>47517.70000000005</v>
+        <v>20.02262598576647</v>
       </c>
       <c r="D30" t="n">
-        <v>66012.29999999993</v>
+        <v>26.6430303882638</v>
       </c>
       <c r="E30" t="n">
-        <v>64890.80000000021</v>
+        <v>26.00176656082802</v>
       </c>
       <c r="F30" t="n">
-        <v>51781.99999999998</v>
+        <v>19.9947175104383</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1050,19 @@
         <v>1995</v>
       </c>
       <c r="B31" t="n">
-        <v>7389.5</v>
+        <v>22.66717791411043</v>
       </c>
       <c r="C31" t="n">
-        <v>49261.50000000004</v>
+        <v>19.81823175264907</v>
       </c>
       <c r="D31" t="n">
-        <v>68054.0999999999</v>
+        <v>26.51850038959314</v>
       </c>
       <c r="E31" t="n">
-        <v>66660.20000000022</v>
+        <v>25.64859666515468</v>
       </c>
       <c r="F31" t="n">
-        <v>53616.49999999997</v>
+        <v>20.83701929787009</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1070,19 @@
         <v>1996</v>
       </c>
       <c r="B32" t="n">
-        <v>8236.699999999995</v>
+        <v>22.69063360881541</v>
       </c>
       <c r="C32" t="n">
-        <v>51018.30000000008</v>
+        <v>19.52327727200713</v>
       </c>
       <c r="D32" t="n">
-        <v>70347.59999999992</v>
+        <v>25.77798333766215</v>
       </c>
       <c r="E32" t="n">
-        <v>68933.60000000021</v>
+        <v>25.54498440739061</v>
       </c>
       <c r="F32" t="n">
-        <v>55529.49999999999</v>
+        <v>21.01996760106381</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1090,19 @@
         <v>1997</v>
       </c>
       <c r="B33" t="n">
-        <v>8253.900000000009</v>
+        <v>22.80082872928179</v>
       </c>
       <c r="C33" t="n">
-        <v>52761.30000000006</v>
+        <v>19.58359196968896</v>
       </c>
       <c r="D33" t="n">
-        <v>72616.2999999999</v>
+        <v>25.78065149817597</v>
       </c>
       <c r="E33" t="n">
-        <v>71231.20000000032</v>
+        <v>25.52906576271857</v>
       </c>
       <c r="F33" t="n">
-        <v>57474.10000000001</v>
+        <v>21.36543443044634</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1110,19 @@
         <v>1998</v>
       </c>
       <c r="B34" t="n">
-        <v>8409.300000000001</v>
+        <v>23.03917808219179</v>
       </c>
       <c r="C34" t="n">
-        <v>54594.30000000005</v>
+        <v>20.58426213299655</v>
       </c>
       <c r="D34" t="n">
-        <v>74961.29999999978</v>
+        <v>26.0525346318481</v>
       </c>
       <c r="E34" t="n">
-        <v>73559.50000000029</v>
+        <v>25.58509854089911</v>
       </c>
       <c r="F34" t="n">
-        <v>59377.10000000001</v>
+        <v>20.91701559163527</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1130,19 @@
         <v>1999</v>
       </c>
       <c r="B35" t="n">
-        <v>8215.400000000012</v>
+        <v>22.56978021978025</v>
       </c>
       <c r="C35" t="n">
-        <v>56391.60000000003</v>
+        <v>20.42566586666289</v>
       </c>
       <c r="D35" t="n">
-        <v>77287.39999999973</v>
+        <v>25.84783005089944</v>
       </c>
       <c r="E35" t="n">
-        <v>75883.10000000038</v>
+        <v>25.53462063631412</v>
       </c>
       <c r="F35" t="n">
-        <v>61145.5</v>
+        <v>19.44909799556125</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1150,19 @@
         <v>2000</v>
       </c>
       <c r="B36" t="n">
-        <v>8185.700000000007</v>
+        <v>22.36530054644811</v>
       </c>
       <c r="C36" t="n">
-        <v>58109.20000000003</v>
+        <v>19.0991831413919</v>
       </c>
       <c r="D36" t="n">
-        <v>79543.19999999972</v>
+        <v>25.07305307748242</v>
       </c>
       <c r="E36" t="n">
-        <v>78209.50000000038</v>
+        <v>25.5645067460469</v>
       </c>
       <c r="F36" t="n">
-        <v>63031.4</v>
+        <v>20.71031628256044</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1170,19 @@
         <v>2001</v>
       </c>
       <c r="B37" t="n">
-        <v>8226.100000000002</v>
+        <v>22.53726027397261</v>
       </c>
       <c r="C37" t="n">
-        <v>59891.60000000007</v>
+        <v>20.01665759045991</v>
       </c>
       <c r="D37" t="n">
-        <v>81825.19999999972</v>
+        <v>25.35245113271958</v>
       </c>
       <c r="E37" t="n">
-        <v>80562.10000000036</v>
+        <v>25.84961420376139</v>
       </c>
       <c r="F37" t="n">
-        <v>64840.49999999999</v>
+        <v>19.8892425682887</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1190,19 @@
         <v>2002</v>
       </c>
       <c r="B38" t="n">
-        <v>8181.499999999994</v>
+        <v>22.41506849315067</v>
       </c>
       <c r="C38" t="n">
-        <v>61615.60000000009</v>
+        <v>19.37796286211621</v>
       </c>
       <c r="D38" t="n">
-        <v>84089.79999999973</v>
+        <v>25.16431264981011</v>
       </c>
       <c r="E38" t="n">
-        <v>82889.20000000038</v>
+        <v>25.5755392848235</v>
       </c>
       <c r="F38" t="n">
-        <v>66706.29999999996</v>
+        <v>20.49662220182923</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         <v>2003</v>
       </c>
       <c r="B39" t="n">
-        <v>8315.799999999999</v>
+        <v>22.78301369863014</v>
       </c>
       <c r="C39" t="n">
-        <v>63363.20000000008</v>
+        <v>19.63308847624574</v>
       </c>
       <c r="D39" t="n">
-        <v>86404.99999999975</v>
+        <v>25.71828914999791</v>
       </c>
       <c r="E39" t="n">
-        <v>85258.30000000035</v>
+        <v>26.02908194874809</v>
       </c>
       <c r="F39" t="n">
-        <v>68590.19999999995</v>
+        <v>20.69996328480249</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1230,19 @@
         <v>2004</v>
       </c>
       <c r="B40" t="n">
-        <v>8177.600000000004</v>
+        <v>22.34316939890711</v>
       </c>
       <c r="C40" t="n">
-        <v>65129.60000000008</v>
+        <v>19.6267372360027</v>
       </c>
       <c r="D40" t="n">
-        <v>88691.79999999977</v>
+        <v>25.41228889175822</v>
       </c>
       <c r="E40" t="n">
-        <v>87600.20000000042</v>
+        <v>25.73835958639942</v>
       </c>
       <c r="F40" t="n">
-        <v>70372.69999999994</v>
+        <v>19.59999960092177</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1250,19 @@
         <v>2005</v>
       </c>
       <c r="B41" t="n">
-        <v>8380.299999999999</v>
+        <v>22.95972602739726</v>
       </c>
       <c r="C41" t="n">
-        <v>66891.30000000005</v>
+        <v>19.79251930262226</v>
       </c>
       <c r="D41" t="n">
-        <v>91023.99999999978</v>
+        <v>25.90782735045889</v>
       </c>
       <c r="E41" t="n">
-        <v>89976.90000000043</v>
+        <v>26.11346043028695</v>
       </c>
       <c r="F41" t="n">
-        <v>72282.39999999992</v>
+        <v>20.97065216957523</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1270,19 @@
         <v>2006</v>
       </c>
       <c r="B42" t="n">
-        <v>8410.599999999997</v>
+        <v>23.04273972602739</v>
       </c>
       <c r="C42" t="n">
-        <v>68723.20000000004</v>
+        <v>20.57436132558469</v>
       </c>
       <c r="D42" t="n">
-        <v>93345.39999999976</v>
+        <v>25.7945915093457</v>
       </c>
       <c r="E42" t="n">
-        <v>92338.9000000004</v>
+        <v>25.95775500467704</v>
       </c>
       <c r="F42" t="n">
-        <v>74177.69999999991</v>
+        <v>20.82902882793016</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1290,19 @@
         <v>2007</v>
       </c>
       <c r="B43" t="n">
-        <v>8297.799999999999</v>
+        <v>22.73369863013698</v>
       </c>
       <c r="C43" t="n">
-        <v>70477.60000000014</v>
+        <v>19.72193734806204</v>
       </c>
       <c r="D43" t="n">
-        <v>95660.09999999967</v>
+        <v>25.719720785817</v>
       </c>
       <c r="E43" t="n">
-        <v>94702.90000000039</v>
+        <v>25.97780168483344</v>
       </c>
       <c r="F43" t="n">
-        <v>76042.39999999991</v>
+        <v>20.49488074812968</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1310,19 @@
         <v>2008</v>
       </c>
       <c r="B44" t="n">
-        <v>8226.800000000001</v>
+        <v>22.4775956284153</v>
       </c>
       <c r="C44" t="n">
-        <v>72242.7000000002</v>
+        <v>19.61342788294573</v>
       </c>
       <c r="D44" t="n">
-        <v>97968.19999999963</v>
+        <v>25.64637055808591</v>
       </c>
       <c r="E44" t="n">
-        <v>97021.40000000036</v>
+        <v>25.48345436613949</v>
       </c>
       <c r="F44" t="n">
-        <v>77877.49999999993</v>
+        <v>20.16950957334924</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
         <v>2009</v>
       </c>
       <c r="B45" t="n">
-        <v>8306.200000000001</v>
+        <v>22.88209366391185</v>
       </c>
       <c r="C45" t="n">
-        <v>74020.30000000019</v>
+        <v>19.96903808758829</v>
       </c>
       <c r="D45" t="n">
-        <v>100293.6999999996</v>
+        <v>25.83677330283611</v>
       </c>
       <c r="E45" t="n">
-        <v>99345.4000000004</v>
+        <v>26.10537171517932</v>
       </c>
       <c r="F45" t="n">
-        <v>79756.59999999989</v>
+        <v>20.64423379971032</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1350,19 @@
         <v>2010</v>
       </c>
       <c r="B46" t="n">
-        <v>8506.400000000007</v>
+        <v>23.36923076923079</v>
       </c>
       <c r="C46" t="n">
-        <v>75789.60000000019</v>
+        <v>19.8807670898621</v>
       </c>
       <c r="D46" t="n">
-        <v>102692.8999999996</v>
+        <v>26.64875575058062</v>
       </c>
       <c r="E46" t="n">
-        <v>101766.1000000005</v>
+        <v>26.5957105621215</v>
       </c>
       <c r="F46" t="n">
-        <v>81673.79999999992</v>
+        <v>21.2949915802166</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1370,19 @@
         <v>2011</v>
       </c>
       <c r="B47" t="n">
-        <v>8325.300000000007</v>
+        <v>22.87170329670332</v>
       </c>
       <c r="C47" t="n">
-        <v>77579.40000000023</v>
+        <v>20.10756407877625</v>
       </c>
       <c r="D47" t="n">
-        <v>104973.4999999996</v>
+        <v>25.63609728611756</v>
       </c>
       <c r="E47" t="n">
-        <v>104160.4000000004</v>
+        <v>26.31408381045784</v>
       </c>
       <c r="F47" t="n">
-        <v>83534.40000000005</v>
+        <v>20.45538034326322</v>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1390,19 @@
         <v>2012</v>
       </c>
       <c r="B48" t="n">
-        <v>8521.900000000005</v>
+        <v>23.28387978142078</v>
       </c>
       <c r="C48" t="n">
-        <v>79395.80000000019</v>
+        <v>20.18140180306348</v>
       </c>
       <c r="D48" t="n">
-        <v>107396.7999999996</v>
+        <v>26.91138568446282</v>
       </c>
       <c r="E48" t="n">
-        <v>106504.4000000004</v>
+        <v>25.76428351967888</v>
       </c>
       <c r="F48" t="n">
-        <v>85472.60000000014</v>
+        <v>21.28973239503547</v>
       </c>
     </row>
     <row r="49">
@@ -1410,19 +1410,19 @@
         <v>2013</v>
       </c>
       <c r="B49" t="n">
-        <v>8327.900000000005</v>
+        <v>22.81616438356166</v>
       </c>
       <c r="C49" t="n">
-        <v>81223.30000000016</v>
+        <v>20.52979335336738</v>
       </c>
       <c r="D49" t="n">
-        <v>109736.6999999996</v>
+        <v>26.00891632620289</v>
       </c>
       <c r="E49" t="n">
-        <v>108838.3000000005</v>
+        <v>25.64852482086608</v>
       </c>
       <c r="F49" t="n">
-        <v>87299.20000000019</v>
+        <v>20.0857579608156</v>
       </c>
     </row>
     <row r="50">
@@ -1430,19 +1430,19 @@
         <v>2014</v>
       </c>
       <c r="B50" t="n">
-        <v>8538.999999999987</v>
+        <v>23.45879120879117</v>
       </c>
       <c r="C50" t="n">
-        <v>82970.00000000017</v>
+        <v>19.8565145320603</v>
       </c>
       <c r="D50" t="n">
-        <v>112175.1999999997</v>
+        <v>27.0825155640242</v>
       </c>
       <c r="E50" t="n">
-        <v>111244.7000000004</v>
+        <v>26.43531005240073</v>
       </c>
       <c r="F50" t="n">
-        <v>89246.60000000014</v>
+        <v>21.38571476044365</v>
       </c>
     </row>
     <row r="51">
@@ -1450,19 +1450,19 @@
         <v>2015</v>
       </c>
       <c r="B51" t="n">
-        <v>8519.399999999992</v>
+        <v>23.3408219178082</v>
       </c>
       <c r="C51" t="n">
-        <v>84738.80000000019</v>
+        <v>19.87396127257845</v>
       </c>
       <c r="D51" t="n">
-        <v>114566.0999999997</v>
+        <v>26.57123643476949</v>
       </c>
       <c r="E51" t="n">
-        <v>113678.6000000004</v>
+        <v>26.74277510926523</v>
       </c>
       <c r="F51" t="n">
-        <v>91172.40000000002</v>
+        <v>21.16506211696135</v>
       </c>
     </row>
     <row r="52">
@@ -1470,19 +1470,19 @@
         <v>2016</v>
       </c>
       <c r="B52" t="n">
-        <v>8548.599999999999</v>
+        <v>23.35683060109289</v>
       </c>
       <c r="C52" t="n">
-        <v>86496.60000000024</v>
+        <v>19.53487869530306</v>
       </c>
       <c r="D52" t="n">
-        <v>116951.9999999997</v>
+        <v>26.51067292785461</v>
       </c>
       <c r="E52" t="n">
-        <v>116088.2000000003</v>
+        <v>26.48198668597029</v>
       </c>
       <c r="F52" t="n">
-        <v>93167.70000000004</v>
+        <v>21.91809850127133</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,31 @@
           <t>S4</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RHmean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>s1_RH</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>s2_RH</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>s3_RH</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>s4_RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +509,21 @@
       <c r="F2" t="n">
         <v>20.35434782608696</v>
       </c>
+      <c r="G2" t="n">
+        <v>82.86301369863014</v>
+      </c>
+      <c r="H2" t="n">
+        <v>77.54444444444445</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75.73626373626374</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88.81521739130434</v>
+      </c>
+      <c r="K2" t="n">
+        <v>89.16304347826087</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -504,6 +544,21 @@
       <c r="F3" t="n">
         <v>19.28646030245746</v>
       </c>
+      <c r="G3" t="n">
+        <v>83.89577464788732</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80.00604938271606</v>
+      </c>
+      <c r="I3" t="n">
+        <v>79.74435454655234</v>
+      </c>
+      <c r="J3" t="n">
+        <v>89.21725874867444</v>
+      </c>
+      <c r="K3" t="n">
+        <v>90.66481568998108</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +579,21 @@
       <c r="F4" t="n">
         <v>20.00202674241801</v>
       </c>
+      <c r="G4" t="n">
+        <v>83.85439560439561</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80.97808845475512</v>
+      </c>
+      <c r="I4" t="n">
+        <v>78.95323466534673</v>
+      </c>
+      <c r="J4" t="n">
+        <v>88.86908065276306</v>
+      </c>
+      <c r="K4" t="n">
+        <v>90.33331321402153</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +614,21 @@
       <c r="F5" t="n">
         <v>19.52419809607052</v>
       </c>
+      <c r="G5" t="n">
+        <v>80.48626373626374</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74.59975653838617</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74.29618939192689</v>
+      </c>
+      <c r="J5" t="n">
+        <v>88.92249000709525</v>
+      </c>
+      <c r="K5" t="n">
+        <v>87.69597047487936</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -564,6 +649,21 @@
       <c r="F6" t="n">
         <v>19.78243092971512</v>
       </c>
+      <c r="G6" t="n">
+        <v>82.10704225352113</v>
+      </c>
+      <c r="H6" t="n">
+        <v>73.32888618375985</v>
+      </c>
+      <c r="I6" t="n">
+        <v>78.50874933397722</v>
+      </c>
+      <c r="J6" t="n">
+        <v>90.76580544452328</v>
+      </c>
+      <c r="K6" t="n">
+        <v>90.00828536279617</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,6 +684,21 @@
       <c r="F7" t="n">
         <v>18.29763511880126</v>
       </c>
+      <c r="G7" t="n">
+        <v>84.04657534246576</v>
+      </c>
+      <c r="H7" t="n">
+        <v>81.35920984648622</v>
+      </c>
+      <c r="I7" t="n">
+        <v>81.0825137289448</v>
+      </c>
+      <c r="J7" t="n">
+        <v>89.867019624397</v>
+      </c>
+      <c r="K7" t="n">
+        <v>87.40226397133475</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -604,6 +719,21 @@
       <c r="F8" t="n">
         <v>20.19019168607392</v>
       </c>
+      <c r="G8" t="n">
+        <v>81.21311475409836</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78.55339791040095</v>
+      </c>
+      <c r="I8" t="n">
+        <v>74.03387377724115</v>
+      </c>
+      <c r="J8" t="n">
+        <v>85.07464151765649</v>
+      </c>
+      <c r="K8" t="n">
+        <v>90.77611156490582</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,6 +754,21 @@
       <c r="F9" t="n">
         <v>19.08793686615298</v>
       </c>
+      <c r="G9" t="n">
+        <v>84.57142857142857</v>
+      </c>
+      <c r="H9" t="n">
+        <v>80.78149885292585</v>
+      </c>
+      <c r="I9" t="n">
+        <v>83.92344916238727</v>
+      </c>
+      <c r="J9" t="n">
+        <v>88.67472436432236</v>
+      </c>
+      <c r="K9" t="n">
+        <v>88.34539251700986</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +789,21 @@
       <c r="F10" t="n">
         <v>20.40530366158861</v>
       </c>
+      <c r="G10" t="n">
+        <v>81.6158940397351</v>
+      </c>
+      <c r="H10" t="n">
+        <v>76.39757220947696</v>
+      </c>
+      <c r="I10" t="n">
+        <v>81.64359387958208</v>
+      </c>
+      <c r="J10" t="n">
+        <v>88.45582414547741</v>
+      </c>
+      <c r="K10" t="n">
+        <v>88.1776673099675</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -664,6 +824,21 @@
       <c r="F11" t="n">
         <v>18.85005764849553</v>
       </c>
+      <c r="G11" t="n">
+        <v>81.04518072289157</v>
+      </c>
+      <c r="H11" t="n">
+        <v>72.17623003744876</v>
+      </c>
+      <c r="I11" t="n">
+        <v>79.6404843764398</v>
+      </c>
+      <c r="J11" t="n">
+        <v>86.53248158401624</v>
+      </c>
+      <c r="K11" t="n">
+        <v>86.31714855771703</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -684,6 +859,21 @@
       <c r="F12" t="n">
         <v>19.75923975704886</v>
       </c>
+      <c r="G12" t="n">
+        <v>84.35081967213115</v>
+      </c>
+      <c r="H12" t="n">
+        <v>79.13627050062414</v>
+      </c>
+      <c r="I12" t="n">
+        <v>84.28918826846622</v>
+      </c>
+      <c r="J12" t="n">
+        <v>87.19057045200017</v>
+      </c>
+      <c r="K12" t="n">
+        <v>88.48170813649692</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -704,6 +894,21 @@
       <c r="F13" t="n">
         <v>19.1865134756201</v>
       </c>
+      <c r="G13" t="n">
+        <v>82.24444444444444</v>
+      </c>
+      <c r="H13" t="n">
+        <v>77.59040300556249</v>
+      </c>
+      <c r="I13" t="n">
+        <v>76.8383427282249</v>
+      </c>
+      <c r="J13" t="n">
+        <v>88.56540885577012</v>
+      </c>
+      <c r="K13" t="n">
+        <v>89.85306204496192</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -724,6 +929,21 @@
       <c r="F14" t="n">
         <v>19.65202732038717</v>
       </c>
+      <c r="G14" t="n">
+        <v>83.88154269972452</v>
+      </c>
+      <c r="H14" t="n">
+        <v>80.98416183152318</v>
+      </c>
+      <c r="I14" t="n">
+        <v>81.82239937063984</v>
+      </c>
+      <c r="J14" t="n">
+        <v>88.59961987753594</v>
+      </c>
+      <c r="K14" t="n">
+        <v>87.67231589179306</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -744,6 +964,21 @@
       <c r="F15" t="n">
         <v>18.6494785578303</v>
       </c>
+      <c r="G15" t="n">
+        <v>78.78356164383561</v>
+      </c>
+      <c r="H15" t="n">
+        <v>72.65537957590581</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71.4925538392378</v>
+      </c>
+      <c r="J15" t="n">
+        <v>87.06086543345147</v>
+      </c>
+      <c r="K15" t="n">
+        <v>87.39861212925862</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -764,6 +999,21 @@
       <c r="F16" t="n">
         <v>20.17010302780251</v>
       </c>
+      <c r="G16" t="n">
+        <v>78.15300546448087</v>
+      </c>
+      <c r="H16" t="n">
+        <v>69.53467450083414</v>
+      </c>
+      <c r="I16" t="n">
+        <v>70.19222586636525</v>
+      </c>
+      <c r="J16" t="n">
+        <v>88.6093572329723</v>
+      </c>
+      <c r="K16" t="n">
+        <v>87.55868056662237</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -784,6 +1034,21 @@
       <c r="F17" t="n">
         <v>20.17358807638916</v>
       </c>
+      <c r="G17" t="n">
+        <v>81.47671232876712</v>
+      </c>
+      <c r="H17" t="n">
+        <v>74.0614963833426</v>
+      </c>
+      <c r="I17" t="n">
+        <v>78.45266182270731</v>
+      </c>
+      <c r="J17" t="n">
+        <v>86.62618866557578</v>
+      </c>
+      <c r="K17" t="n">
+        <v>90.00607261485459</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -804,6 +1069,21 @@
       <c r="F18" t="n">
         <v>19.42253900083031</v>
       </c>
+      <c r="G18" t="n">
+        <v>81.67671232876712</v>
+      </c>
+      <c r="H18" t="n">
+        <v>77.66734995981493</v>
+      </c>
+      <c r="I18" t="n">
+        <v>78.20277650354623</v>
+      </c>
+      <c r="J18" t="n">
+        <v>86.28941509419104</v>
+      </c>
+      <c r="K18" t="n">
+        <v>88.00006600668321</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -824,6 +1104,21 @@
       <c r="F19" t="n">
         <v>19.55894064131338</v>
       </c>
+      <c r="G19" t="n">
+        <v>77.353591160221</v>
+      </c>
+      <c r="H19" t="n">
+        <v>72.95019942482546</v>
+      </c>
+      <c r="I19" t="n">
+        <v>67.68354699454447</v>
+      </c>
+      <c r="J19" t="n">
+        <v>85.20966755537164</v>
+      </c>
+      <c r="K19" t="n">
+        <v>86.81521810876829</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -844,6 +1139,21 @@
       <c r="F20" t="n">
         <v>20.32020587653601</v>
       </c>
+      <c r="G20" t="n">
+        <v>78.82786885245902</v>
+      </c>
+      <c r="H20" t="n">
+        <v>72.87857362005303</v>
+      </c>
+      <c r="I20" t="n">
+        <v>73.29322579114884</v>
+      </c>
+      <c r="J20" t="n">
+        <v>86.53488769081925</v>
+      </c>
+      <c r="K20" t="n">
+        <v>85.87842628379096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -864,6 +1174,21 @@
       <c r="F21" t="n">
         <v>19.89261093344061</v>
       </c>
+      <c r="G21" t="n">
+        <v>78.57534246575342</v>
+      </c>
+      <c r="H21" t="n">
+        <v>70.33198415133393</v>
+      </c>
+      <c r="I21" t="n">
+        <v>75.25596951418845</v>
+      </c>
+      <c r="J21" t="n">
+        <v>85.65798790968282</v>
+      </c>
+      <c r="K21" t="n">
+        <v>86.3030263726499</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -884,6 +1209,21 @@
       <c r="F22" t="n">
         <v>20.17274577101566</v>
       </c>
+      <c r="G22" t="n">
+        <v>77.91506849315068</v>
+      </c>
+      <c r="H22" t="n">
+        <v>69.62591093501482</v>
+      </c>
+      <c r="I22" t="n">
+        <v>75.62918647817789</v>
+      </c>
+      <c r="J22" t="n">
+        <v>84.88758682510525</v>
+      </c>
+      <c r="K22" t="n">
+        <v>84.76416333013751</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -904,6 +1244,21 @@
       <c r="F23" t="n">
         <v>20.36166028011973</v>
       </c>
+      <c r="G23" t="n">
+        <v>77.93093922651934</v>
+      </c>
+      <c r="H23" t="n">
+        <v>73.33665807880699</v>
+      </c>
+      <c r="I23" t="n">
+        <v>70.75143540531309</v>
+      </c>
+      <c r="J23" t="n">
+        <v>85.77051724809897</v>
+      </c>
+      <c r="K23" t="n">
+        <v>84.93221916663192</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -924,6 +1279,21 @@
       <c r="F24" t="n">
         <v>20.03871369869696</v>
       </c>
+      <c r="G24" t="n">
+        <v>77.76584022038567</v>
+      </c>
+      <c r="H24" t="n">
+        <v>69.26518929635007</v>
+      </c>
+      <c r="I24" t="n">
+        <v>75.8983674220364</v>
+      </c>
+      <c r="J24" t="n">
+        <v>85.63880997008803</v>
+      </c>
+      <c r="K24" t="n">
+        <v>83.29274151268079</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -944,6 +1314,21 @@
       <c r="F25" t="n">
         <v>19.97650775759453</v>
       </c>
+      <c r="G25" t="n">
+        <v>75.87362637362638</v>
+      </c>
+      <c r="H25" t="n">
+        <v>68.74739099218166</v>
+      </c>
+      <c r="I25" t="n">
+        <v>69.52635568595645</v>
+      </c>
+      <c r="J25" t="n">
+        <v>83.87515175791306</v>
+      </c>
+      <c r="K25" t="n">
+        <v>84.62274719035523</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -964,6 +1349,21 @@
       <c r="F26" t="n">
         <v>20.51387508432169</v>
       </c>
+      <c r="G26" t="n">
+        <v>77.64462809917356</v>
+      </c>
+      <c r="H26" t="n">
+        <v>72.5653112612748</v>
+      </c>
+      <c r="I26" t="n">
+        <v>72.20358632621929</v>
+      </c>
+      <c r="J26" t="n">
+        <v>83.98777338867296</v>
+      </c>
+      <c r="K26" t="n">
+        <v>84.87633420859082</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -984,6 +1384,21 @@
       <c r="F27" t="n">
         <v>20.31075147158025</v>
       </c>
+      <c r="G27" t="n">
+        <v>79.9608938547486</v>
+      </c>
+      <c r="H27" t="n">
+        <v>69.58405901401416</v>
+      </c>
+      <c r="I27" t="n">
+        <v>79.40883061896945</v>
+      </c>
+      <c r="J27" t="n">
+        <v>87.02160623248558</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.58678040245401</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1004,6 +1419,21 @@
       <c r="F28" t="n">
         <v>18.58900834968424</v>
       </c>
+      <c r="G28" t="n">
+        <v>78.79889807162535</v>
+      </c>
+      <c r="H28" t="n">
+        <v>74.62871176682238</v>
+      </c>
+      <c r="I28" t="n">
+        <v>71.22427286394472</v>
+      </c>
+      <c r="J28" t="n">
+        <v>85.16327832861397</v>
+      </c>
+      <c r="K28" t="n">
+        <v>87.71763089336059</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1024,6 +1454,21 @@
       <c r="F29" t="n">
         <v>20.21401096032265</v>
       </c>
+      <c r="G29" t="n">
+        <v>78.70833333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>72.74578081553207</v>
+      </c>
+      <c r="I29" t="n">
+        <v>74.5025485552721</v>
+      </c>
+      <c r="J29" t="n">
+        <v>86.18655737313711</v>
+      </c>
+      <c r="K29" t="n">
+        <v>84.42084381405826</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1044,6 +1489,21 @@
       <c r="F30" t="n">
         <v>19.9947175104383</v>
       </c>
+      <c r="G30" t="n">
+        <v>79.14285714285714</v>
+      </c>
+      <c r="H30" t="n">
+        <v>71.75569863006359</v>
+      </c>
+      <c r="I30" t="n">
+        <v>75.6500283172808</v>
+      </c>
+      <c r="J30" t="n">
+        <v>85.74075633378565</v>
+      </c>
+      <c r="K30" t="n">
+        <v>86.68935699797889</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1064,6 +1524,21 @@
       <c r="F31" t="n">
         <v>20.83701929787009</v>
       </c>
+      <c r="G31" t="n">
+        <v>79.27914110429448</v>
+      </c>
+      <c r="H31" t="n">
+        <v>74.24444605202318</v>
+      </c>
+      <c r="I31" t="n">
+        <v>76.57243626047796</v>
+      </c>
+      <c r="J31" t="n">
+        <v>86.43915366191122</v>
+      </c>
+      <c r="K31" t="n">
+        <v>84.6481950224492</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1084,6 +1559,21 @@
       <c r="F32" t="n">
         <v>21.01996760106381</v>
       </c>
+      <c r="G32" t="n">
+        <v>78.48760330578513</v>
+      </c>
+      <c r="H32" t="n">
+        <v>72.20048841815411</v>
+      </c>
+      <c r="I32" t="n">
+        <v>74.55080484733864</v>
+      </c>
+      <c r="J32" t="n">
+        <v>85.80487948513235</v>
+      </c>
+      <c r="K32" t="n">
+        <v>84.89834994589619</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1104,6 +1594,21 @@
       <c r="F33" t="n">
         <v>21.36543443044634</v>
       </c>
+      <c r="G33" t="n">
+        <v>77.03867403314918</v>
+      </c>
+      <c r="H33" t="n">
+        <v>68.89111653797949</v>
+      </c>
+      <c r="I33" t="n">
+        <v>71.41068320053189</v>
+      </c>
+      <c r="J33" t="n">
+        <v>85.59126241192453</v>
+      </c>
+      <c r="K33" t="n">
+        <v>85.44454728202061</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1124,6 +1629,21 @@
       <c r="F34" t="n">
         <v>20.91701559163527</v>
       </c>
+      <c r="G34" t="n">
+        <v>78.71232876712328</v>
+      </c>
+      <c r="H34" t="n">
+        <v>67.09879018375533</v>
+      </c>
+      <c r="I34" t="n">
+        <v>78.12539212308276</v>
+      </c>
+      <c r="J34" t="n">
+        <v>86.93033980882527</v>
+      </c>
+      <c r="K34" t="n">
+        <v>85.82004942697849</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1144,6 +1664,21 @@
       <c r="F35" t="n">
         <v>19.44909799556125</v>
       </c>
+      <c r="G35" t="n">
+        <v>81.10164835164835</v>
+      </c>
+      <c r="H35" t="n">
+        <v>74.39436842903096</v>
+      </c>
+      <c r="I35" t="n">
+        <v>79.52885046289101</v>
+      </c>
+      <c r="J35" t="n">
+        <v>87.59706891096549</v>
+      </c>
+      <c r="K35" t="n">
+        <v>86.10673966768455</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1164,6 +1699,21 @@
       <c r="F36" t="n">
         <v>20.71031628256044</v>
       </c>
+      <c r="G36" t="n">
+        <v>80.29234972677595</v>
+      </c>
+      <c r="H36" t="n">
+        <v>72.88345459812122</v>
+      </c>
+      <c r="I36" t="n">
+        <v>81.11570165343836</v>
+      </c>
+      <c r="J36" t="n">
+        <v>85.81083770555396</v>
+      </c>
+      <c r="K36" t="n">
+        <v>84.8489863007357</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1184,6 +1734,21 @@
       <c r="F37" t="n">
         <v>19.8892425682887</v>
       </c>
+      <c r="G37" t="n">
+        <v>81.30958904109589</v>
+      </c>
+      <c r="H37" t="n">
+        <v>74.18759393997912</v>
+      </c>
+      <c r="I37" t="n">
+        <v>79.80346924893888</v>
+      </c>
+      <c r="J37" t="n">
+        <v>86.45446562723428</v>
+      </c>
+      <c r="K37" t="n">
+        <v>88.15053245979061</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1204,6 +1769,21 @@
       <c r="F38" t="n">
         <v>20.49662220182923</v>
       </c>
+      <c r="G38" t="n">
+        <v>81.45205479452055</v>
+      </c>
+      <c r="H38" t="n">
+        <v>76.15763993266644</v>
+      </c>
+      <c r="I38" t="n">
+        <v>80.04179636537296</v>
+      </c>
+      <c r="J38" t="n">
+        <v>86.01580940899167</v>
+      </c>
+      <c r="K38" t="n">
+        <v>87.03424491804121</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1224,6 +1804,21 @@
       <c r="F39" t="n">
         <v>20.69996328480249</v>
       </c>
+      <c r="G39" t="n">
+        <v>79.72054794520548</v>
+      </c>
+      <c r="H39" t="n">
+        <v>77.60175155480739</v>
+      </c>
+      <c r="I39" t="n">
+        <v>77.80265710291619</v>
+      </c>
+      <c r="J39" t="n">
+        <v>83.93495445009773</v>
+      </c>
+      <c r="K39" t="n">
+        <v>83.05472005345696</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1244,6 +1839,21 @@
       <c r="F40" t="n">
         <v>19.59999960092177</v>
       </c>
+      <c r="G40" t="n">
+        <v>78.20765027322405</v>
+      </c>
+      <c r="H40" t="n">
+        <v>70.13848078631656</v>
+      </c>
+      <c r="I40" t="n">
+        <v>77.49233689124084</v>
+      </c>
+      <c r="J40" t="n">
+        <v>83.45581472228368</v>
+      </c>
+      <c r="K40" t="n">
+        <v>85.15276869623322</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1264,6 +1874,21 @@
       <c r="F41" t="n">
         <v>20.97065216957523</v>
       </c>
+      <c r="G41" t="n">
+        <v>78.30410958904109</v>
+      </c>
+      <c r="H41" t="n">
+        <v>69.2904275642924</v>
+      </c>
+      <c r="I41" t="n">
+        <v>76.86255315265099</v>
+      </c>
+      <c r="J41" t="n">
+        <v>84.3853892904596</v>
+      </c>
+      <c r="K41" t="n">
+        <v>85.90383444235036</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1284,6 +1909,21 @@
       <c r="F42" t="n">
         <v>20.82902882793016</v>
       </c>
+      <c r="G42" t="n">
+        <v>78.7972602739726</v>
+      </c>
+      <c r="H42" t="n">
+        <v>73.75878252849213</v>
+      </c>
+      <c r="I42" t="n">
+        <v>77.08640168299615</v>
+      </c>
+      <c r="J42" t="n">
+        <v>84.50418901402674</v>
+      </c>
+      <c r="K42" t="n">
+        <v>83.15112863524293</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1304,6 +1944,21 @@
       <c r="F43" t="n">
         <v>20.49488074812968</v>
       </c>
+      <c r="G43" t="n">
+        <v>75.64109589041095</v>
+      </c>
+      <c r="H43" t="n">
+        <v>67.05287536142768</v>
+      </c>
+      <c r="I43" t="n">
+        <v>75.24270771080216</v>
+      </c>
+      <c r="J43" t="n">
+        <v>81.98374118493507</v>
+      </c>
+      <c r="K43" t="n">
+        <v>81.55599052864395</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1324,6 +1979,21 @@
       <c r="F44" t="n">
         <v>20.16950957334924</v>
       </c>
+      <c r="G44" t="n">
+        <v>77.48087431693989</v>
+      </c>
+      <c r="H44" t="n">
+        <v>72.48409753144425</v>
+      </c>
+      <c r="I44" t="n">
+        <v>74.80486491989893</v>
+      </c>
+      <c r="J44" t="n">
+        <v>83.99982327374929</v>
+      </c>
+      <c r="K44" t="n">
+        <v>81.87560859270266</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1344,6 +2014,21 @@
       <c r="F45" t="n">
         <v>20.64423379971032</v>
       </c>
+      <c r="G45" t="n">
+        <v>73.28650137741047</v>
+      </c>
+      <c r="H45" t="n">
+        <v>65.9276010836827</v>
+      </c>
+      <c r="I45" t="n">
+        <v>72.95389961450438</v>
+      </c>
+      <c r="J45" t="n">
+        <v>80.1111091474861</v>
+      </c>
+      <c r="K45" t="n">
+        <v>77.54212618035547</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1364,6 +2049,21 @@
       <c r="F46" t="n">
         <v>21.2949915802166</v>
       </c>
+      <c r="G46" t="n">
+        <v>76.00824175824175</v>
+      </c>
+      <c r="H46" t="n">
+        <v>64.15475112315204</v>
+      </c>
+      <c r="I46" t="n">
+        <v>71.65883406169785</v>
+      </c>
+      <c r="J46" t="n">
+        <v>85.8164250994292</v>
+      </c>
+      <c r="K46" t="n">
+        <v>85.42353984813577</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1384,6 +2084,21 @@
       <c r="F47" t="n">
         <v>20.45538034326322</v>
       </c>
+      <c r="G47" t="n">
+        <v>81.09890109890109</v>
+      </c>
+      <c r="H47" t="n">
+        <v>73.26838612359057</v>
+      </c>
+      <c r="I47" t="n">
+        <v>82.06287593401886</v>
+      </c>
+      <c r="J47" t="n">
+        <v>86.25887418586335</v>
+      </c>
+      <c r="K47" t="n">
+        <v>85.99373412878408</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1404,6 +2119,21 @@
       <c r="F48" t="n">
         <v>21.28973239503547</v>
       </c>
+      <c r="G48" t="n">
+        <v>72.70218579234972</v>
+      </c>
+      <c r="H48" t="n">
+        <v>68.93701523212738</v>
+      </c>
+      <c r="I48" t="n">
+        <v>64.95673490037383</v>
+      </c>
+      <c r="J48" t="n">
+        <v>79.58977037158547</v>
+      </c>
+      <c r="K48" t="n">
+        <v>80.76080145792157</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1424,6 +2154,21 @@
       <c r="F49" t="n">
         <v>20.0857579608156</v>
       </c>
+      <c r="G49" t="n">
+        <v>73.64109589041095</v>
+      </c>
+      <c r="H49" t="n">
+        <v>69.4437446136903</v>
+      </c>
+      <c r="I49" t="n">
+        <v>68.81271137253158</v>
+      </c>
+      <c r="J49" t="n">
+        <v>79.90858446056072</v>
+      </c>
+      <c r="K49" t="n">
+        <v>79.45392175497742</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1444,6 +2189,21 @@
       <c r="F50" t="n">
         <v>21.38571476044365</v>
       </c>
+      <c r="G50" t="n">
+        <v>73.79120879120879</v>
+      </c>
+      <c r="H50" t="n">
+        <v>64.00498589453585</v>
+      </c>
+      <c r="I50" t="n">
+        <v>70.83310671837947</v>
+      </c>
+      <c r="J50" t="n">
+        <v>82.18378896152784</v>
+      </c>
+      <c r="K50" t="n">
+        <v>81.0266730625541</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1464,6 +2224,21 @@
       <c r="F51" t="n">
         <v>21.16506211696135</v>
       </c>
+      <c r="G51" t="n">
+        <v>74.55342465753425</v>
+      </c>
+      <c r="H51" t="n">
+        <v>69.46672206549485</v>
+      </c>
+      <c r="I51" t="n">
+        <v>70.19596820569647</v>
+      </c>
+      <c r="J51" t="n">
+        <v>79.458519445234</v>
+      </c>
+      <c r="K51" t="n">
+        <v>82.17420296807123</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1483,6 +2258,21 @@
       </c>
       <c r="F52" t="n">
         <v>21.91809850127133</v>
+      </c>
+      <c r="G52" t="n">
+        <v>76.52732240437159</v>
+      </c>
+      <c r="H52" t="n">
+        <v>70.52161233039006</v>
+      </c>
+      <c r="I52" t="n">
+        <v>72.32083481544721</v>
+      </c>
+      <c r="J52" t="n">
+        <v>83.04846216788297</v>
+      </c>
+      <c r="K52" t="n">
+        <v>83.38232829313121</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,1786 +492,1751 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B2" t="n">
-        <v>22.16630136986301</v>
+        <v>21.48845070422536</v>
       </c>
       <c r="C2" t="n">
-        <v>18.95777777777778</v>
+        <v>18.04555555555556</v>
       </c>
       <c r="D2" t="n">
-        <v>24.95054945054946</v>
+        <v>24.30329670329671</v>
       </c>
       <c r="E2" t="n">
-        <v>24.36304347826087</v>
+        <v>24.86219512195122</v>
       </c>
       <c r="F2" t="n">
-        <v>20.35434782608696</v>
+        <v>19.06521739130434</v>
       </c>
       <c r="G2" t="n">
-        <v>82.86301369863014</v>
+        <v>83.89577464788732</v>
       </c>
       <c r="H2" t="n">
-        <v>77.54444444444445</v>
+        <v>79.14444444444445</v>
       </c>
       <c r="I2" t="n">
-        <v>75.73626373626374</v>
+        <v>78.91208791208791</v>
       </c>
       <c r="J2" t="n">
-        <v>88.81521739130434</v>
+        <v>88.13414634146342</v>
       </c>
       <c r="K2" t="n">
-        <v>89.16304347826087</v>
+        <v>89.69565217391305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B3" t="n">
-        <v>21.48845070422536</v>
+        <v>21.73571428571429</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2561975308642</v>
+        <v>17.84555555555555</v>
       </c>
       <c r="D3" t="n">
-        <v>24.57747856539067</v>
+        <v>24.69673952421205</v>
       </c>
       <c r="E3" t="n">
-        <v>25.15930540827147</v>
+        <v>25.40846883468835</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28646030245746</v>
+        <v>19.99962192816635</v>
       </c>
       <c r="G3" t="n">
-        <v>83.89577464788732</v>
+        <v>83.85439560439561</v>
       </c>
       <c r="H3" t="n">
-        <v>80.00604938271606</v>
+        <v>80.96862026862027</v>
       </c>
       <c r="I3" t="n">
-        <v>79.74435454655234</v>
+        <v>78.9440888781548</v>
       </c>
       <c r="J3" t="n">
-        <v>89.21725874867444</v>
+        <v>88.8570460704607</v>
       </c>
       <c r="K3" t="n">
-        <v>90.66481568998108</v>
+        <v>90.3227788279773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B4" t="n">
-        <v>21.73571428571429</v>
+        <v>21.9206043956044</v>
       </c>
       <c r="C4" t="n">
-        <v>17.84787030253696</v>
+        <v>18.15717283950617</v>
       </c>
       <c r="D4" t="n">
-        <v>24.69975251170758</v>
+        <v>25.88677735740891</v>
       </c>
       <c r="E4" t="n">
-        <v>25.4117700600919</v>
+        <v>25.00552683515966</v>
       </c>
       <c r="F4" t="n">
-        <v>20.00202674241801</v>
+        <v>19.52417166954028</v>
       </c>
       <c r="G4" t="n">
-        <v>83.85439560439561</v>
+        <v>80.48626373626374</v>
       </c>
       <c r="H4" t="n">
-        <v>80.97808845475512</v>
+        <v>74.599651336318</v>
       </c>
       <c r="I4" t="n">
-        <v>78.95323466534673</v>
+        <v>74.29608888877092</v>
       </c>
       <c r="J4" t="n">
-        <v>88.86908065276306</v>
+        <v>88.92235919641804</v>
       </c>
       <c r="K4" t="n">
-        <v>90.33331321402153</v>
+        <v>87.69585471239536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B5" t="n">
-        <v>21.9206043956044</v>
+        <v>22.0687323943662</v>
       </c>
       <c r="C5" t="n">
-        <v>18.15719855891708</v>
+        <v>19.07396858710562</v>
       </c>
       <c r="D5" t="n">
-        <v>25.88681046716161</v>
+        <v>25.30534920172977</v>
       </c>
       <c r="E5" t="n">
-        <v>25.00556271804448</v>
+        <v>24.90895029816843</v>
       </c>
       <c r="F5" t="n">
-        <v>19.52419809607052</v>
+        <v>19.78243061511357</v>
       </c>
       <c r="G5" t="n">
-        <v>80.48626373626374</v>
+        <v>82.10704225352113</v>
       </c>
       <c r="H5" t="n">
-        <v>74.59975653838617</v>
+        <v>73.32888501484798</v>
       </c>
       <c r="I5" t="n">
-        <v>74.29618939192689</v>
+        <v>78.50874822954694</v>
       </c>
       <c r="J5" t="n">
-        <v>88.92249000709525</v>
+        <v>90.76580399107131</v>
       </c>
       <c r="K5" t="n">
-        <v>87.69597047487936</v>
+        <v>90.00828398467138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B6" t="n">
-        <v>22.0687323943662</v>
+        <v>21.10356164383562</v>
       </c>
       <c r="C6" t="n">
-        <v>19.07396887287685</v>
+        <v>17.8041552065234</v>
       </c>
       <c r="D6" t="n">
-        <v>25.30534956557321</v>
+        <v>24.66159724397505</v>
       </c>
       <c r="E6" t="n">
-        <v>24.90895069686716</v>
+        <v>24.58596685106705</v>
       </c>
       <c r="F6" t="n">
-        <v>19.78243092971512</v>
+        <v>18.29763511538167</v>
       </c>
       <c r="G6" t="n">
-        <v>82.10704225352113</v>
+        <v>84.04657534246576</v>
       </c>
       <c r="H6" t="n">
-        <v>73.32888618375985</v>
+        <v>81.3592098334983</v>
       </c>
       <c r="I6" t="n">
-        <v>78.50874933397722</v>
+        <v>81.08251371680821</v>
       </c>
       <c r="J6" t="n">
-        <v>90.76580544452328</v>
+        <v>89.8670196085986</v>
       </c>
       <c r="K6" t="n">
-        <v>90.00828536279617</v>
+        <v>87.40226395635511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B7" t="n">
-        <v>21.10356164383562</v>
+        <v>22.08879781420764</v>
       </c>
       <c r="C7" t="n">
-        <v>17.80415520969863</v>
+        <v>18.01872698029146</v>
       </c>
       <c r="D7" t="n">
-        <v>24.66159724797333</v>
+        <v>25.49298458509864</v>
       </c>
       <c r="E7" t="n">
-        <v>24.58596685540073</v>
+        <v>25.57376050925072</v>
       </c>
       <c r="F7" t="n">
-        <v>18.29763511880126</v>
+        <v>20.19019168603675</v>
       </c>
       <c r="G7" t="n">
-        <v>84.04657534246576</v>
+        <v>81.21311475409836</v>
       </c>
       <c r="H7" t="n">
-        <v>81.35920984648622</v>
+        <v>78.55339791025823</v>
       </c>
       <c r="I7" t="n">
-        <v>81.0825137289448</v>
+        <v>74.03387377710779</v>
       </c>
       <c r="J7" t="n">
-        <v>89.867019624397</v>
+        <v>85.07464151748476</v>
       </c>
       <c r="K7" t="n">
-        <v>87.40226397133475</v>
+        <v>90.77611156474299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B8" t="n">
-        <v>22.08879781420764</v>
+        <v>21.89065934065933</v>
       </c>
       <c r="C8" t="n">
-        <v>18.01872698032635</v>
+        <v>19.05189580876731</v>
       </c>
       <c r="D8" t="n">
-        <v>25.49298458514258</v>
+        <v>25.08014268774834</v>
       </c>
       <c r="E8" t="n">
-        <v>25.57376050929782</v>
+        <v>25.25514957075272</v>
       </c>
       <c r="F8" t="n">
-        <v>20.19019168607392</v>
+        <v>19.08793686615258</v>
       </c>
       <c r="G8" t="n">
-        <v>81.21311475409836</v>
+        <v>84.57142857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>78.55339791040095</v>
+        <v>80.78149885292424</v>
       </c>
       <c r="I8" t="n">
-        <v>74.03387377724115</v>
+        <v>83.92344916238581</v>
       </c>
       <c r="J8" t="n">
-        <v>85.07464151765649</v>
+        <v>88.6747243643205</v>
       </c>
       <c r="K8" t="n">
-        <v>90.77611156490582</v>
+        <v>88.34539251700808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B9" t="n">
-        <v>21.89065934065933</v>
+        <v>21.00331125827814</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0518958087677</v>
+        <v>17.24279884231964</v>
       </c>
       <c r="D9" t="n">
-        <v>25.08014268774882</v>
+        <v>24.67089047430832</v>
       </c>
       <c r="E9" t="n">
-        <v>25.25514957075324</v>
+        <v>26.06517165235842</v>
       </c>
       <c r="F9" t="n">
-        <v>19.08793686615298</v>
+        <v>20.40530366158861</v>
       </c>
       <c r="G9" t="n">
-        <v>84.57142857142857</v>
+        <v>81.6158940397351</v>
       </c>
       <c r="H9" t="n">
-        <v>80.78149885292585</v>
+        <v>76.39757220947693</v>
       </c>
       <c r="I9" t="n">
-        <v>83.92344916238727</v>
+        <v>81.64359387958206</v>
       </c>
       <c r="J9" t="n">
-        <v>88.67472436432236</v>
+        <v>88.45582414547735</v>
       </c>
       <c r="K9" t="n">
-        <v>88.34539251700986</v>
+        <v>88.17766730996748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B10" t="n">
-        <v>21.00331125827814</v>
+        <v>22.4289156626506</v>
       </c>
       <c r="C10" t="n">
-        <v>17.24279884231964</v>
+        <v>20.69394574309016</v>
       </c>
       <c r="D10" t="n">
-        <v>24.67089047430833</v>
+        <v>25.26745433860342</v>
       </c>
       <c r="E10" t="n">
-        <v>26.06517165235844</v>
+        <v>25.33588100716877</v>
       </c>
       <c r="F10" t="n">
-        <v>20.40530366158861</v>
+        <v>18.85005764849553</v>
       </c>
       <c r="G10" t="n">
-        <v>81.6158940397351</v>
+        <v>81.04518072289157</v>
       </c>
       <c r="H10" t="n">
-        <v>76.39757220947696</v>
+        <v>72.17623003744876</v>
       </c>
       <c r="I10" t="n">
-        <v>81.64359387958208</v>
+        <v>79.6404843764398</v>
       </c>
       <c r="J10" t="n">
-        <v>88.45582414547741</v>
+        <v>86.53248158401624</v>
       </c>
       <c r="K10" t="n">
-        <v>88.1776673099675</v>
+        <v>86.31714855771703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4289156626506</v>
+        <v>21.64393442622952</v>
       </c>
       <c r="C11" t="n">
-        <v>20.69394574309016</v>
+        <v>16.8732324290515</v>
       </c>
       <c r="D11" t="n">
-        <v>25.26745433860342</v>
+        <v>25.37159761210825</v>
       </c>
       <c r="E11" t="n">
-        <v>25.33588100716877</v>
+        <v>25.14821609790402</v>
       </c>
       <c r="F11" t="n">
-        <v>18.85005764849553</v>
+        <v>19.75923975704886</v>
       </c>
       <c r="G11" t="n">
-        <v>81.04518072289157</v>
+        <v>84.35081967213115</v>
       </c>
       <c r="H11" t="n">
-        <v>72.17623003744876</v>
+        <v>79.13627050062414</v>
       </c>
       <c r="I11" t="n">
-        <v>79.6404843764398</v>
+        <v>84.28918826846622</v>
       </c>
       <c r="J11" t="n">
-        <v>86.53248158401624</v>
+        <v>87.19057045200017</v>
       </c>
       <c r="K11" t="n">
-        <v>86.31714855771703</v>
+        <v>88.48170813649692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B12" t="n">
-        <v>21.64393442622952</v>
+        <v>21.89861111111111</v>
       </c>
       <c r="C12" t="n">
-        <v>16.8732324290515</v>
+        <v>18.8385914714339</v>
       </c>
       <c r="D12" t="n">
-        <v>25.37159761210825</v>
+        <v>25.53814942430888</v>
       </c>
       <c r="E12" t="n">
-        <v>25.14821609790402</v>
+        <v>25.12699098963108</v>
       </c>
       <c r="F12" t="n">
-        <v>19.75923975704886</v>
+        <v>19.1865134756201</v>
       </c>
       <c r="G12" t="n">
-        <v>84.35081967213115</v>
+        <v>82.24444444444444</v>
       </c>
       <c r="H12" t="n">
-        <v>79.13627050062414</v>
+        <v>77.59040300556249</v>
       </c>
       <c r="I12" t="n">
-        <v>84.28918826846622</v>
+        <v>76.8383427282249</v>
       </c>
       <c r="J12" t="n">
-        <v>87.19057045200017</v>
+        <v>88.56540885577012</v>
       </c>
       <c r="K12" t="n">
-        <v>88.48170813649692</v>
+        <v>89.85306204496192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B13" t="n">
-        <v>21.89861111111111</v>
+        <v>21.69944903581268</v>
       </c>
       <c r="C13" t="n">
-        <v>18.8385914714339</v>
+        <v>18.14088305024082</v>
       </c>
       <c r="D13" t="n">
-        <v>25.53814942430888</v>
+        <v>24.71030933433306</v>
       </c>
       <c r="E13" t="n">
-        <v>25.12699098963108</v>
+        <v>25.21348341746847</v>
       </c>
       <c r="F13" t="n">
-        <v>19.1865134756201</v>
+        <v>19.65202732038717</v>
       </c>
       <c r="G13" t="n">
-        <v>82.24444444444444</v>
+        <v>83.88154269972452</v>
       </c>
       <c r="H13" t="n">
-        <v>77.59040300556249</v>
+        <v>80.98416183152318</v>
       </c>
       <c r="I13" t="n">
-        <v>76.8383427282249</v>
+        <v>81.82239937063984</v>
       </c>
       <c r="J13" t="n">
-        <v>88.56540885577012</v>
+        <v>88.59961987753594</v>
       </c>
       <c r="K13" t="n">
-        <v>89.85306204496192</v>
+        <v>87.67231589179306</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B14" t="n">
-        <v>21.69944903581268</v>
+        <v>22.31369863013699</v>
       </c>
       <c r="C14" t="n">
-        <v>18.14088305024082</v>
+        <v>19.1115653672249</v>
       </c>
       <c r="D14" t="n">
-        <v>24.71030933433306</v>
+        <v>26.84516823444322</v>
       </c>
       <c r="E14" t="n">
-        <v>25.21348341746847</v>
+        <v>25.58166829801596</v>
       </c>
       <c r="F14" t="n">
-        <v>19.65202732038717</v>
+        <v>18.6494785578303</v>
       </c>
       <c r="G14" t="n">
-        <v>83.88154269972452</v>
+        <v>78.78356164383561</v>
       </c>
       <c r="H14" t="n">
-        <v>80.98416183152318</v>
+        <v>72.65537957590581</v>
       </c>
       <c r="I14" t="n">
-        <v>81.82239937063984</v>
+        <v>71.4925538392378</v>
       </c>
       <c r="J14" t="n">
-        <v>88.59961987753594</v>
+        <v>87.06086543345147</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67231589179306</v>
+        <v>87.39861212925862</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B15" t="n">
-        <v>22.31369863013699</v>
+        <v>22.60683060109288</v>
       </c>
       <c r="C15" t="n">
-        <v>19.1115653672249</v>
+        <v>19.29353368535412</v>
       </c>
       <c r="D15" t="n">
-        <v>26.84516823444322</v>
+        <v>26.63346338719168</v>
       </c>
       <c r="E15" t="n">
-        <v>25.58166829801596</v>
+        <v>25.31827900323932</v>
       </c>
       <c r="F15" t="n">
-        <v>18.6494785578303</v>
+        <v>20.17010302780251</v>
       </c>
       <c r="G15" t="n">
-        <v>78.78356164383561</v>
+        <v>78.15300546448087</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65537957590581</v>
+        <v>69.53467450083414</v>
       </c>
       <c r="I15" t="n">
-        <v>71.4925538392378</v>
+        <v>70.19222586636525</v>
       </c>
       <c r="J15" t="n">
-        <v>87.06086543345147</v>
+        <v>88.6093572329723</v>
       </c>
       <c r="K15" t="n">
-        <v>87.39861212925862</v>
+        <v>87.55868056662237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B16" t="n">
-        <v>22.60683060109288</v>
+        <v>22.30246575342464</v>
       </c>
       <c r="C16" t="n">
-        <v>19.29353368535412</v>
+        <v>19.26770592983727</v>
       </c>
       <c r="D16" t="n">
-        <v>26.63346338719168</v>
+        <v>25.09597212513398</v>
       </c>
       <c r="E16" t="n">
-        <v>25.31827900323932</v>
+        <v>25.63063346742652</v>
       </c>
       <c r="F16" t="n">
-        <v>20.17010302780251</v>
+        <v>20.17358807638916</v>
       </c>
       <c r="G16" t="n">
-        <v>78.15300546448087</v>
+        <v>81.47671232876712</v>
       </c>
       <c r="H16" t="n">
-        <v>69.53467450083414</v>
+        <v>74.0614963833426</v>
       </c>
       <c r="I16" t="n">
-        <v>70.19222586636525</v>
+        <v>78.45266182270731</v>
       </c>
       <c r="J16" t="n">
-        <v>88.6093572329723</v>
+        <v>86.62618866557578</v>
       </c>
       <c r="K16" t="n">
-        <v>87.55868056662237</v>
+        <v>90.00607261485459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B17" t="n">
-        <v>22.30246575342464</v>
+        <v>22.01397260273974</v>
       </c>
       <c r="C17" t="n">
-        <v>19.26770592983727</v>
+        <v>18.82186339922041</v>
       </c>
       <c r="D17" t="n">
-        <v>25.09597212513398</v>
+        <v>25.07687881456192</v>
       </c>
       <c r="E17" t="n">
-        <v>25.63063346742652</v>
+        <v>25.67859384203725</v>
       </c>
       <c r="F17" t="n">
-        <v>20.17358807638916</v>
+        <v>19.42253900083031</v>
       </c>
       <c r="G17" t="n">
-        <v>81.47671232876712</v>
+        <v>81.67671232876712</v>
       </c>
       <c r="H17" t="n">
-        <v>74.0614963833426</v>
+        <v>77.66734995981493</v>
       </c>
       <c r="I17" t="n">
-        <v>78.45266182270731</v>
+        <v>78.20277650354623</v>
       </c>
       <c r="J17" t="n">
-        <v>86.62618866557578</v>
+        <v>86.28941509419104</v>
       </c>
       <c r="K17" t="n">
-        <v>90.00607261485459</v>
+        <v>88.00006600668321</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B18" t="n">
-        <v>22.01397260273974</v>
+        <v>22.59116022099447</v>
       </c>
       <c r="C18" t="n">
-        <v>18.82186339922041</v>
+        <v>18.73703291263472</v>
       </c>
       <c r="D18" t="n">
-        <v>25.07687881456192</v>
+        <v>26.82502064631388</v>
       </c>
       <c r="E18" t="n">
-        <v>25.67859384203725</v>
+        <v>26.04759341132649</v>
       </c>
       <c r="F18" t="n">
-        <v>19.42253900083031</v>
+        <v>19.55894064131338</v>
       </c>
       <c r="G18" t="n">
-        <v>81.67671232876712</v>
+        <v>77.353591160221</v>
       </c>
       <c r="H18" t="n">
-        <v>77.66734995981493</v>
+        <v>72.95019942482546</v>
       </c>
       <c r="I18" t="n">
-        <v>78.20277650354623</v>
+        <v>67.68354699454447</v>
       </c>
       <c r="J18" t="n">
-        <v>86.28941509419104</v>
+        <v>85.20966755537164</v>
       </c>
       <c r="K18" t="n">
-        <v>88.00006600668321</v>
+        <v>86.81521810876829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B19" t="n">
-        <v>22.59116022099447</v>
+        <v>22.59480874316939</v>
       </c>
       <c r="C19" t="n">
-        <v>18.73703291263472</v>
+        <v>19.51139596607291</v>
       </c>
       <c r="D19" t="n">
-        <v>26.82502064631388</v>
+        <v>26.17500022688257</v>
       </c>
       <c r="E19" t="n">
-        <v>26.04759341132649</v>
+        <v>25.36899558055791</v>
       </c>
       <c r="F19" t="n">
-        <v>19.55894064131338</v>
+        <v>20.32020587653601</v>
       </c>
       <c r="G19" t="n">
-        <v>77.353591160221</v>
+        <v>78.82786885245902</v>
       </c>
       <c r="H19" t="n">
-        <v>72.95019942482546</v>
+        <v>72.87857362005303</v>
       </c>
       <c r="I19" t="n">
-        <v>67.68354699454447</v>
+        <v>73.29322579114884</v>
       </c>
       <c r="J19" t="n">
-        <v>85.20966755537164</v>
+        <v>86.53488769081925</v>
       </c>
       <c r="K19" t="n">
-        <v>86.81521810876829</v>
+        <v>85.87842628379096</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B20" t="n">
-        <v>22.59480874316939</v>
+        <v>22.40438356164384</v>
       </c>
       <c r="C20" t="n">
-        <v>19.51139596607291</v>
+        <v>19.53234884406749</v>
       </c>
       <c r="D20" t="n">
-        <v>26.17500022688257</v>
+        <v>25.91840659589981</v>
       </c>
       <c r="E20" t="n">
-        <v>25.36899558055791</v>
+        <v>25.2431412563104</v>
       </c>
       <c r="F20" t="n">
-        <v>20.32020587653601</v>
+        <v>19.89261093344061</v>
       </c>
       <c r="G20" t="n">
-        <v>78.82786885245902</v>
+        <v>78.57534246575342</v>
       </c>
       <c r="H20" t="n">
-        <v>72.87857362005303</v>
+        <v>70.33198415133393</v>
       </c>
       <c r="I20" t="n">
-        <v>73.29322579114884</v>
+        <v>75.25596951418845</v>
       </c>
       <c r="J20" t="n">
-        <v>86.53488769081925</v>
+        <v>85.65798790968282</v>
       </c>
       <c r="K20" t="n">
-        <v>85.87842628379096</v>
+        <v>86.3030263726499</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B21" t="n">
-        <v>22.40438356164384</v>
+        <v>22.32109589041095</v>
       </c>
       <c r="C21" t="n">
-        <v>19.53234884406749</v>
+        <v>18.84258165382298</v>
       </c>
       <c r="D21" t="n">
-        <v>25.91840659589981</v>
+        <v>25.84635611643847</v>
       </c>
       <c r="E21" t="n">
-        <v>25.2431412563104</v>
+        <v>25.37003414409033</v>
       </c>
       <c r="F21" t="n">
-        <v>19.89261093344061</v>
+        <v>20.17274577101566</v>
       </c>
       <c r="G21" t="n">
-        <v>78.57534246575342</v>
+        <v>77.91506849315068</v>
       </c>
       <c r="H21" t="n">
-        <v>70.33198415133393</v>
+        <v>69.62591093501482</v>
       </c>
       <c r="I21" t="n">
-        <v>75.25596951418845</v>
+        <v>75.62918647817789</v>
       </c>
       <c r="J21" t="n">
-        <v>85.65798790968282</v>
+        <v>84.88758682510525</v>
       </c>
       <c r="K21" t="n">
-        <v>86.3030263726499</v>
+        <v>84.76416333013751</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B22" t="n">
-        <v>22.32109589041095</v>
+        <v>22.8279005524862</v>
       </c>
       <c r="C22" t="n">
-        <v>18.84258165382298</v>
+        <v>19.62775660970252</v>
       </c>
       <c r="D22" t="n">
-        <v>25.84635611643847</v>
+        <v>26.56495951240486</v>
       </c>
       <c r="E22" t="n">
-        <v>25.37003414409033</v>
+        <v>25.68010906678359</v>
       </c>
       <c r="F22" t="n">
-        <v>20.17274577101566</v>
+        <v>20.36166028011973</v>
       </c>
       <c r="G22" t="n">
-        <v>77.91506849315068</v>
+        <v>77.93093922651934</v>
       </c>
       <c r="H22" t="n">
-        <v>69.62591093501482</v>
+        <v>73.33665807880699</v>
       </c>
       <c r="I22" t="n">
-        <v>75.62918647817789</v>
+        <v>70.75143540531309</v>
       </c>
       <c r="J22" t="n">
-        <v>84.88758682510525</v>
+        <v>85.77051724809897</v>
       </c>
       <c r="K22" t="n">
-        <v>84.76416333013751</v>
+        <v>84.93221916663192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B23" t="n">
-        <v>22.8279005524862</v>
+        <v>22.62865013774105</v>
       </c>
       <c r="C23" t="n">
-        <v>19.62775660970252</v>
+        <v>19.94349723420116</v>
       </c>
       <c r="D23" t="n">
-        <v>26.56495951240486</v>
+        <v>25.87653801661984</v>
       </c>
       <c r="E23" t="n">
-        <v>25.68010906678359</v>
+        <v>25.57695770724765</v>
       </c>
       <c r="F23" t="n">
-        <v>20.36166028011973</v>
+        <v>20.03871369869696</v>
       </c>
       <c r="G23" t="n">
-        <v>77.93093922651934</v>
+        <v>77.76584022038567</v>
       </c>
       <c r="H23" t="n">
-        <v>73.33665807880699</v>
+        <v>69.26518929635007</v>
       </c>
       <c r="I23" t="n">
-        <v>70.75143540531309</v>
+        <v>75.8983674220364</v>
       </c>
       <c r="J23" t="n">
-        <v>85.77051724809897</v>
+        <v>85.63880997008803</v>
       </c>
       <c r="K23" t="n">
-        <v>84.93221916663192</v>
+        <v>83.29274151268079</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B24" t="n">
-        <v>22.62865013774105</v>
+        <v>22.72774725274726</v>
       </c>
       <c r="C24" t="n">
-        <v>19.94349723420116</v>
+        <v>19.72159441371335</v>
       </c>
       <c r="D24" t="n">
-        <v>25.87653801661984</v>
+        <v>26.39754437380901</v>
       </c>
       <c r="E24" t="n">
-        <v>25.57695770724765</v>
+        <v>25.81732920557414</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03871369869696</v>
+        <v>19.97650775759453</v>
       </c>
       <c r="G24" t="n">
-        <v>77.76584022038567</v>
+        <v>75.87362637362638</v>
       </c>
       <c r="H24" t="n">
-        <v>69.26518929635007</v>
+        <v>68.74739099218166</v>
       </c>
       <c r="I24" t="n">
-        <v>75.8983674220364</v>
+        <v>69.52635568595645</v>
       </c>
       <c r="J24" t="n">
-        <v>85.63880997008803</v>
+        <v>83.87515175791306</v>
       </c>
       <c r="K24" t="n">
-        <v>83.29274151268079</v>
+        <v>84.62274719035523</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B25" t="n">
-        <v>22.72774725274726</v>
+        <v>22.65344352617081</v>
       </c>
       <c r="C25" t="n">
-        <v>19.72159441371335</v>
+        <v>19.53092720924674</v>
       </c>
       <c r="D25" t="n">
-        <v>26.39754437380901</v>
+        <v>25.6900829052067</v>
       </c>
       <c r="E25" t="n">
-        <v>25.81732920557414</v>
+        <v>25.77518836093014</v>
       </c>
       <c r="F25" t="n">
-        <v>19.97650775759453</v>
+        <v>20.51387508432169</v>
       </c>
       <c r="G25" t="n">
-        <v>75.87362637362638</v>
+        <v>77.64462809917356</v>
       </c>
       <c r="H25" t="n">
-        <v>68.74739099218166</v>
+        <v>72.5653112612748</v>
       </c>
       <c r="I25" t="n">
-        <v>69.52635568595645</v>
+        <v>72.20358632621929</v>
       </c>
       <c r="J25" t="n">
-        <v>83.87515175791306</v>
+        <v>83.98777338867296</v>
       </c>
       <c r="K25" t="n">
-        <v>84.62274719035523</v>
+        <v>84.87633420859082</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B26" t="n">
-        <v>22.65344352617081</v>
+        <v>22.82346368715083</v>
       </c>
       <c r="C26" t="n">
-        <v>19.53092720924674</v>
+        <v>20.30923252454718</v>
       </c>
       <c r="D26" t="n">
-        <v>25.6900829052067</v>
+        <v>25.5614294824748</v>
       </c>
       <c r="E26" t="n">
-        <v>25.77518836093014</v>
+        <v>25.89103465609707</v>
       </c>
       <c r="F26" t="n">
-        <v>20.51387508432169</v>
+        <v>20.31075147158025</v>
       </c>
       <c r="G26" t="n">
-        <v>77.64462809917356</v>
+        <v>79.9608938547486</v>
       </c>
       <c r="H26" t="n">
-        <v>72.5653112612748</v>
+        <v>69.58405901401416</v>
       </c>
       <c r="I26" t="n">
-        <v>72.20358632621929</v>
+        <v>79.40883061896945</v>
       </c>
       <c r="J26" t="n">
-        <v>83.98777338867296</v>
+        <v>87.02160623248558</v>
       </c>
       <c r="K26" t="n">
-        <v>84.87633420859082</v>
+        <v>87.58678040245401</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B27" t="n">
-        <v>22.82346368715083</v>
+        <v>22.20578512396694</v>
       </c>
       <c r="C27" t="n">
-        <v>20.30923252454718</v>
+        <v>18.72454702805053</v>
       </c>
       <c r="D27" t="n">
-        <v>25.5614294824748</v>
+        <v>26.50067504925797</v>
       </c>
       <c r="E27" t="n">
-        <v>25.89103465609707</v>
+        <v>25.90207646365323</v>
       </c>
       <c r="F27" t="n">
-        <v>20.31075147158025</v>
+        <v>18.58900834968424</v>
       </c>
       <c r="G27" t="n">
-        <v>79.9608938547486</v>
+        <v>78.79889807162535</v>
       </c>
       <c r="H27" t="n">
-        <v>69.58405901401416</v>
+        <v>74.62871176682238</v>
       </c>
       <c r="I27" t="n">
-        <v>79.40883061896945</v>
+        <v>71.22427286394472</v>
       </c>
       <c r="J27" t="n">
-        <v>87.02160623248558</v>
+        <v>85.16327832861397</v>
       </c>
       <c r="K27" t="n">
-        <v>87.58678040245401</v>
+        <v>87.71763089336059</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B28" t="n">
-        <v>22.20578512396694</v>
+        <v>22.5086111111111</v>
       </c>
       <c r="C28" t="n">
-        <v>18.72454702805053</v>
+        <v>19.26846076168239</v>
       </c>
       <c r="D28" t="n">
-        <v>26.50067504925797</v>
+        <v>25.77273494374157</v>
       </c>
       <c r="E28" t="n">
-        <v>25.90207646365323</v>
+        <v>25.75545735286581</v>
       </c>
       <c r="F28" t="n">
-        <v>18.58900834968424</v>
+        <v>20.21401096032265</v>
       </c>
       <c r="G28" t="n">
-        <v>78.79889807162535</v>
+        <v>78.70833333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>74.62871176682238</v>
+        <v>72.74578081553207</v>
       </c>
       <c r="I28" t="n">
-        <v>71.22427286394472</v>
+        <v>74.5025485552721</v>
       </c>
       <c r="J28" t="n">
-        <v>85.16327832861397</v>
+        <v>86.18655737313711</v>
       </c>
       <c r="K28" t="n">
-        <v>87.71763089336059</v>
+        <v>84.42084381405826</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B29" t="n">
-        <v>22.5086111111111</v>
+        <v>22.9033613445378</v>
       </c>
       <c r="C29" t="n">
-        <v>19.26846076168239</v>
+        <v>20.02262598576647</v>
       </c>
       <c r="D29" t="n">
-        <v>25.77273494374157</v>
+        <v>26.6430303882638</v>
       </c>
       <c r="E29" t="n">
-        <v>25.75545735286581</v>
+        <v>26.00176656082802</v>
       </c>
       <c r="F29" t="n">
-        <v>20.21401096032265</v>
+        <v>19.9947175104383</v>
       </c>
       <c r="G29" t="n">
-        <v>78.70833333333333</v>
+        <v>79.14285714285714</v>
       </c>
       <c r="H29" t="n">
-        <v>72.74578081553207</v>
+        <v>71.75569863006359</v>
       </c>
       <c r="I29" t="n">
-        <v>74.5025485552721</v>
+        <v>75.6500283172808</v>
       </c>
       <c r="J29" t="n">
-        <v>86.18655737313711</v>
+        <v>85.74075633378565</v>
       </c>
       <c r="K29" t="n">
-        <v>84.42084381405826</v>
+        <v>86.68935699797889</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B30" t="n">
-        <v>22.9033613445378</v>
+        <v>22.66717791411043</v>
       </c>
       <c r="C30" t="n">
-        <v>20.02262598576647</v>
+        <v>19.81823175264907</v>
       </c>
       <c r="D30" t="n">
-        <v>26.6430303882638</v>
+        <v>26.51850038959314</v>
       </c>
       <c r="E30" t="n">
-        <v>26.00176656082802</v>
+        <v>25.64859666515468</v>
       </c>
       <c r="F30" t="n">
-        <v>19.9947175104383</v>
+        <v>20.83701929787009</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14285714285714</v>
+        <v>79.27914110429448</v>
       </c>
       <c r="H30" t="n">
-        <v>71.75569863006359</v>
+        <v>74.24444605202318</v>
       </c>
       <c r="I30" t="n">
-        <v>75.6500283172808</v>
+        <v>76.57243626047796</v>
       </c>
       <c r="J30" t="n">
-        <v>85.74075633378565</v>
+        <v>86.43915366191122</v>
       </c>
       <c r="K30" t="n">
-        <v>86.68935699797889</v>
+        <v>84.6481950224492</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B31" t="n">
-        <v>22.66717791411043</v>
+        <v>22.69063360881541</v>
       </c>
       <c r="C31" t="n">
-        <v>19.81823175264907</v>
+        <v>19.52327727200713</v>
       </c>
       <c r="D31" t="n">
-        <v>26.51850038959314</v>
+        <v>25.77798333766215</v>
       </c>
       <c r="E31" t="n">
-        <v>25.64859666515468</v>
+        <v>25.54498440739061</v>
       </c>
       <c r="F31" t="n">
-        <v>20.83701929787009</v>
+        <v>21.01996760106381</v>
       </c>
       <c r="G31" t="n">
-        <v>79.27914110429448</v>
+        <v>78.48760330578513</v>
       </c>
       <c r="H31" t="n">
-        <v>74.24444605202318</v>
+        <v>72.20048841815411</v>
       </c>
       <c r="I31" t="n">
-        <v>76.57243626047796</v>
+        <v>74.55080484733864</v>
       </c>
       <c r="J31" t="n">
-        <v>86.43915366191122</v>
+        <v>85.80487948513235</v>
       </c>
       <c r="K31" t="n">
-        <v>84.6481950224492</v>
+        <v>84.89834994589619</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B32" t="n">
-        <v>22.69063360881541</v>
+        <v>22.80082872928179</v>
       </c>
       <c r="C32" t="n">
-        <v>19.52327727200713</v>
+        <v>19.58359196968896</v>
       </c>
       <c r="D32" t="n">
-        <v>25.77798333766215</v>
+        <v>25.78065149817597</v>
       </c>
       <c r="E32" t="n">
-        <v>25.54498440739061</v>
+        <v>25.52906576271857</v>
       </c>
       <c r="F32" t="n">
-        <v>21.01996760106381</v>
+        <v>21.36543443044634</v>
       </c>
       <c r="G32" t="n">
-        <v>78.48760330578513</v>
+        <v>77.03867403314918</v>
       </c>
       <c r="H32" t="n">
-        <v>72.20048841815411</v>
+        <v>68.89111653797949</v>
       </c>
       <c r="I32" t="n">
-        <v>74.55080484733864</v>
+        <v>71.41068320053189</v>
       </c>
       <c r="J32" t="n">
-        <v>85.80487948513235</v>
+        <v>85.59126241192453</v>
       </c>
       <c r="K32" t="n">
-        <v>84.89834994589619</v>
+        <v>85.44454728202061</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B33" t="n">
-        <v>22.80082872928179</v>
+        <v>23.03917808219179</v>
       </c>
       <c r="C33" t="n">
-        <v>19.58359196968896</v>
+        <v>20.58426213299655</v>
       </c>
       <c r="D33" t="n">
-        <v>25.78065149817597</v>
+        <v>26.0525346318481</v>
       </c>
       <c r="E33" t="n">
-        <v>25.52906576271857</v>
+        <v>25.58509854089911</v>
       </c>
       <c r="F33" t="n">
-        <v>21.36543443044634</v>
+        <v>20.91701559163527</v>
       </c>
       <c r="G33" t="n">
-        <v>77.03867403314918</v>
+        <v>78.71232876712328</v>
       </c>
       <c r="H33" t="n">
-        <v>68.89111653797949</v>
+        <v>67.09879018375533</v>
       </c>
       <c r="I33" t="n">
-        <v>71.41068320053189</v>
+        <v>78.12539212308276</v>
       </c>
       <c r="J33" t="n">
-        <v>85.59126241192453</v>
+        <v>86.93033980882527</v>
       </c>
       <c r="K33" t="n">
-        <v>85.44454728202061</v>
+        <v>85.82004942697849</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B34" t="n">
-        <v>23.03917808219179</v>
+        <v>22.56978021978025</v>
       </c>
       <c r="C34" t="n">
-        <v>20.58426213299655</v>
+        <v>20.42566586666289</v>
       </c>
       <c r="D34" t="n">
-        <v>26.0525346318481</v>
+        <v>25.84783005089944</v>
       </c>
       <c r="E34" t="n">
-        <v>25.58509854089911</v>
+        <v>25.53462063631412</v>
       </c>
       <c r="F34" t="n">
-        <v>20.91701559163527</v>
+        <v>19.44909799556125</v>
       </c>
       <c r="G34" t="n">
-        <v>78.71232876712328</v>
+        <v>81.10164835164835</v>
       </c>
       <c r="H34" t="n">
-        <v>67.09879018375533</v>
+        <v>74.39436842903096</v>
       </c>
       <c r="I34" t="n">
-        <v>78.12539212308276</v>
+        <v>79.52885046289101</v>
       </c>
       <c r="J34" t="n">
-        <v>86.93033980882527</v>
+        <v>87.59706891096549</v>
       </c>
       <c r="K34" t="n">
-        <v>85.82004942697849</v>
+        <v>86.10673966768455</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B35" t="n">
-        <v>22.56978021978025</v>
+        <v>22.36530054644811</v>
       </c>
       <c r="C35" t="n">
-        <v>20.42566586666289</v>
+        <v>19.0991831413919</v>
       </c>
       <c r="D35" t="n">
-        <v>25.84783005089944</v>
+        <v>25.07305307748242</v>
       </c>
       <c r="E35" t="n">
-        <v>25.53462063631412</v>
+        <v>25.5645067460469</v>
       </c>
       <c r="F35" t="n">
-        <v>19.44909799556125</v>
+        <v>20.71031628256044</v>
       </c>
       <c r="G35" t="n">
-        <v>81.10164835164835</v>
+        <v>80.29234972677595</v>
       </c>
       <c r="H35" t="n">
-        <v>74.39436842903096</v>
+        <v>72.88345459812122</v>
       </c>
       <c r="I35" t="n">
-        <v>79.52885046289101</v>
+        <v>81.11570165343836</v>
       </c>
       <c r="J35" t="n">
-        <v>87.59706891096549</v>
+        <v>85.81083770555396</v>
       </c>
       <c r="K35" t="n">
-        <v>86.10673966768455</v>
+        <v>84.8489863007357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B36" t="n">
-        <v>22.36530054644811</v>
+        <v>22.53726027397261</v>
       </c>
       <c r="C36" t="n">
-        <v>19.0991831413919</v>
+        <v>20.01665759045991</v>
       </c>
       <c r="D36" t="n">
-        <v>25.07305307748242</v>
+        <v>25.35245113271958</v>
       </c>
       <c r="E36" t="n">
-        <v>25.5645067460469</v>
+        <v>25.84961420376139</v>
       </c>
       <c r="F36" t="n">
-        <v>20.71031628256044</v>
+        <v>19.8892425682887</v>
       </c>
       <c r="G36" t="n">
-        <v>80.29234972677595</v>
+        <v>81.30958904109589</v>
       </c>
       <c r="H36" t="n">
-        <v>72.88345459812122</v>
+        <v>74.18759393997912</v>
       </c>
       <c r="I36" t="n">
-        <v>81.11570165343836</v>
+        <v>79.80346924893888</v>
       </c>
       <c r="J36" t="n">
-        <v>85.81083770555396</v>
+        <v>86.45446562723428</v>
       </c>
       <c r="K36" t="n">
-        <v>84.8489863007357</v>
+        <v>88.15053245979061</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B37" t="n">
-        <v>22.53726027397261</v>
+        <v>22.41506849315067</v>
       </c>
       <c r="C37" t="n">
-        <v>20.01665759045991</v>
+        <v>19.37796286211621</v>
       </c>
       <c r="D37" t="n">
-        <v>25.35245113271958</v>
+        <v>25.16431264981011</v>
       </c>
       <c r="E37" t="n">
-        <v>25.84961420376139</v>
+        <v>25.5755392848235</v>
       </c>
       <c r="F37" t="n">
-        <v>19.8892425682887</v>
+        <v>20.49662220182923</v>
       </c>
       <c r="G37" t="n">
-        <v>81.30958904109589</v>
+        <v>81.45205479452055</v>
       </c>
       <c r="H37" t="n">
-        <v>74.18759393997912</v>
+        <v>76.15763993266644</v>
       </c>
       <c r="I37" t="n">
-        <v>79.80346924893888</v>
+        <v>80.04179636537296</v>
       </c>
       <c r="J37" t="n">
-        <v>86.45446562723428</v>
+        <v>86.01580940899167</v>
       </c>
       <c r="K37" t="n">
-        <v>88.15053245979061</v>
+        <v>87.03424491804121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B38" t="n">
-        <v>22.41506849315067</v>
+        <v>22.78301369863014</v>
       </c>
       <c r="C38" t="n">
-        <v>19.37796286211621</v>
+        <v>19.63308847624574</v>
       </c>
       <c r="D38" t="n">
-        <v>25.16431264981011</v>
+        <v>25.71828914999791</v>
       </c>
       <c r="E38" t="n">
-        <v>25.5755392848235</v>
+        <v>26.02908194874809</v>
       </c>
       <c r="F38" t="n">
-        <v>20.49662220182923</v>
+        <v>20.69996328480249</v>
       </c>
       <c r="G38" t="n">
-        <v>81.45205479452055</v>
+        <v>79.72054794520548</v>
       </c>
       <c r="H38" t="n">
-        <v>76.15763993266644</v>
+        <v>77.60175155480739</v>
       </c>
       <c r="I38" t="n">
-        <v>80.04179636537296</v>
+        <v>77.80265710291619</v>
       </c>
       <c r="J38" t="n">
-        <v>86.01580940899167</v>
+        <v>83.93495445009773</v>
       </c>
       <c r="K38" t="n">
-        <v>87.03424491804121</v>
+        <v>83.05472005345696</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B39" t="n">
-        <v>22.78301369863014</v>
+        <v>22.34316939890711</v>
       </c>
       <c r="C39" t="n">
-        <v>19.63308847624574</v>
+        <v>19.6267372360027</v>
       </c>
       <c r="D39" t="n">
-        <v>25.71828914999791</v>
+        <v>25.41228889175822</v>
       </c>
       <c r="E39" t="n">
-        <v>26.02908194874809</v>
+        <v>25.73835958639942</v>
       </c>
       <c r="F39" t="n">
-        <v>20.69996328480249</v>
+        <v>19.59999960092177</v>
       </c>
       <c r="G39" t="n">
-        <v>79.72054794520548</v>
+        <v>78.20765027322405</v>
       </c>
       <c r="H39" t="n">
-        <v>77.60175155480739</v>
+        <v>70.13848078631656</v>
       </c>
       <c r="I39" t="n">
-        <v>77.80265710291619</v>
+        <v>77.49233689124084</v>
       </c>
       <c r="J39" t="n">
-        <v>83.93495445009773</v>
+        <v>83.45581472228368</v>
       </c>
       <c r="K39" t="n">
-        <v>83.05472005345696</v>
+        <v>85.15276869623322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B40" t="n">
-        <v>22.34316939890711</v>
+        <v>22.95972602739726</v>
       </c>
       <c r="C40" t="n">
-        <v>19.6267372360027</v>
+        <v>19.79251930262226</v>
       </c>
       <c r="D40" t="n">
-        <v>25.41228889175822</v>
+        <v>25.90782735045889</v>
       </c>
       <c r="E40" t="n">
-        <v>25.73835958639942</v>
+        <v>26.11346043028695</v>
       </c>
       <c r="F40" t="n">
-        <v>19.59999960092177</v>
+        <v>20.97065216957523</v>
       </c>
       <c r="G40" t="n">
-        <v>78.20765027322405</v>
+        <v>78.30410958904109</v>
       </c>
       <c r="H40" t="n">
-        <v>70.13848078631656</v>
+        <v>69.2904275642924</v>
       </c>
       <c r="I40" t="n">
-        <v>77.49233689124084</v>
+        <v>76.86255315265099</v>
       </c>
       <c r="J40" t="n">
-        <v>83.45581472228368</v>
+        <v>84.3853892904596</v>
       </c>
       <c r="K40" t="n">
-        <v>85.15276869623322</v>
+        <v>85.90383444235036</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B41" t="n">
-        <v>22.95972602739726</v>
+        <v>23.04273972602739</v>
       </c>
       <c r="C41" t="n">
-        <v>19.79251930262226</v>
+        <v>20.57436132558469</v>
       </c>
       <c r="D41" t="n">
-        <v>25.90782735045889</v>
+        <v>25.7945915093457</v>
       </c>
       <c r="E41" t="n">
-        <v>26.11346043028695</v>
+        <v>25.95775500467704</v>
       </c>
       <c r="F41" t="n">
-        <v>20.97065216957523</v>
+        <v>20.82902882793016</v>
       </c>
       <c r="G41" t="n">
-        <v>78.30410958904109</v>
+        <v>78.7972602739726</v>
       </c>
       <c r="H41" t="n">
-        <v>69.2904275642924</v>
+        <v>73.75878252849213</v>
       </c>
       <c r="I41" t="n">
-        <v>76.86255315265099</v>
+        <v>77.08640168299615</v>
       </c>
       <c r="J41" t="n">
-        <v>84.3853892904596</v>
+        <v>84.50418901402674</v>
       </c>
       <c r="K41" t="n">
-        <v>85.90383444235036</v>
+        <v>83.15112863524293</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B42" t="n">
-        <v>23.04273972602739</v>
+        <v>22.73369863013698</v>
       </c>
       <c r="C42" t="n">
-        <v>20.57436132558469</v>
+        <v>19.72193734806204</v>
       </c>
       <c r="D42" t="n">
-        <v>25.7945915093457</v>
+        <v>25.719720785817</v>
       </c>
       <c r="E42" t="n">
-        <v>25.95775500467704</v>
+        <v>25.97780168483344</v>
       </c>
       <c r="F42" t="n">
-        <v>20.82902882793016</v>
+        <v>20.49488074812968</v>
       </c>
       <c r="G42" t="n">
-        <v>78.7972602739726</v>
+        <v>75.64109589041095</v>
       </c>
       <c r="H42" t="n">
-        <v>73.75878252849213</v>
+        <v>67.05287536142768</v>
       </c>
       <c r="I42" t="n">
-        <v>77.08640168299615</v>
+        <v>75.24270771080216</v>
       </c>
       <c r="J42" t="n">
-        <v>84.50418901402674</v>
+        <v>81.98374118493507</v>
       </c>
       <c r="K42" t="n">
-        <v>83.15112863524293</v>
+        <v>81.55599052864395</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B43" t="n">
-        <v>22.73369863013698</v>
+        <v>22.4775956284153</v>
       </c>
       <c r="C43" t="n">
-        <v>19.72193734806204</v>
+        <v>19.61342788294573</v>
       </c>
       <c r="D43" t="n">
-        <v>25.719720785817</v>
+        <v>25.64637055808591</v>
       </c>
       <c r="E43" t="n">
-        <v>25.97780168483344</v>
+        <v>25.48345436613949</v>
       </c>
       <c r="F43" t="n">
-        <v>20.49488074812968</v>
+        <v>20.16950957334924</v>
       </c>
       <c r="G43" t="n">
-        <v>75.64109589041095</v>
+        <v>77.48087431693989</v>
       </c>
       <c r="H43" t="n">
-        <v>67.05287536142768</v>
+        <v>72.48409753144425</v>
       </c>
       <c r="I43" t="n">
-        <v>75.24270771080216</v>
+        <v>74.80486491989893</v>
       </c>
       <c r="J43" t="n">
-        <v>81.98374118493507</v>
+        <v>83.99982327374929</v>
       </c>
       <c r="K43" t="n">
-        <v>81.55599052864395</v>
+        <v>81.87560859270266</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B44" t="n">
-        <v>22.4775956284153</v>
+        <v>22.88209366391185</v>
       </c>
       <c r="C44" t="n">
-        <v>19.61342788294573</v>
+        <v>19.96903808758829</v>
       </c>
       <c r="D44" t="n">
-        <v>25.64637055808591</v>
+        <v>25.83677330283611</v>
       </c>
       <c r="E44" t="n">
-        <v>25.48345436613949</v>
+        <v>26.10537171517932</v>
       </c>
       <c r="F44" t="n">
-        <v>20.16950957334924</v>
+        <v>20.64423379971032</v>
       </c>
       <c r="G44" t="n">
-        <v>77.48087431693989</v>
+        <v>73.28650137741047</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48409753144425</v>
+        <v>65.9276010836827</v>
       </c>
       <c r="I44" t="n">
-        <v>74.80486491989893</v>
+        <v>72.95389961450438</v>
       </c>
       <c r="J44" t="n">
-        <v>83.99982327374929</v>
+        <v>80.1111091474861</v>
       </c>
       <c r="K44" t="n">
-        <v>81.87560859270266</v>
+        <v>77.54212618035547</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B45" t="n">
-        <v>22.88209366391185</v>
+        <v>23.36923076923079</v>
       </c>
       <c r="C45" t="n">
-        <v>19.96903808758829</v>
+        <v>19.8807670898621</v>
       </c>
       <c r="D45" t="n">
-        <v>25.83677330283611</v>
+        <v>26.64875575058062</v>
       </c>
       <c r="E45" t="n">
-        <v>26.10537171517932</v>
+        <v>26.5957105621215</v>
       </c>
       <c r="F45" t="n">
-        <v>20.64423379971032</v>
+        <v>21.2949915802166</v>
       </c>
       <c r="G45" t="n">
-        <v>73.28650137741047</v>
+        <v>76.00824175824175</v>
       </c>
       <c r="H45" t="n">
-        <v>65.9276010836827</v>
+        <v>64.15475112315204</v>
       </c>
       <c r="I45" t="n">
-        <v>72.95389961450438</v>
+        <v>71.65883406169785</v>
       </c>
       <c r="J45" t="n">
-        <v>80.1111091474861</v>
+        <v>85.8164250994292</v>
       </c>
       <c r="K45" t="n">
-        <v>77.54212618035547</v>
+        <v>85.42353984813577</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B46" t="n">
-        <v>23.36923076923079</v>
+        <v>22.87170329670332</v>
       </c>
       <c r="C46" t="n">
-        <v>19.8807670898621</v>
+        <v>20.10756407877625</v>
       </c>
       <c r="D46" t="n">
-        <v>26.64875575058062</v>
+        <v>25.63609728611756</v>
       </c>
       <c r="E46" t="n">
-        <v>26.5957105621215</v>
+        <v>26.31408381045784</v>
       </c>
       <c r="F46" t="n">
-        <v>21.2949915802166</v>
+        <v>20.45538034326322</v>
       </c>
       <c r="G46" t="n">
-        <v>76.00824175824175</v>
+        <v>81.09890109890109</v>
       </c>
       <c r="H46" t="n">
-        <v>64.15475112315204</v>
+        <v>73.26838612359057</v>
       </c>
       <c r="I46" t="n">
-        <v>71.65883406169785</v>
+        <v>82.06287593401886</v>
       </c>
       <c r="J46" t="n">
-        <v>85.8164250994292</v>
+        <v>86.25887418586335</v>
       </c>
       <c r="K46" t="n">
-        <v>85.42353984813577</v>
+        <v>85.99373412878408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B47" t="n">
-        <v>22.87170329670332</v>
+        <v>23.28387978142078</v>
       </c>
       <c r="C47" t="n">
-        <v>20.10756407877625</v>
+        <v>20.18140180306348</v>
       </c>
       <c r="D47" t="n">
-        <v>25.63609728611756</v>
+        <v>26.91138568446282</v>
       </c>
       <c r="E47" t="n">
-        <v>26.31408381045784</v>
+        <v>25.76428351967888</v>
       </c>
       <c r="F47" t="n">
-        <v>20.45538034326322</v>
+        <v>21.28973239503547</v>
       </c>
       <c r="G47" t="n">
-        <v>81.09890109890109</v>
+        <v>72.70218579234972</v>
       </c>
       <c r="H47" t="n">
-        <v>73.26838612359057</v>
+        <v>68.93701523212738</v>
       </c>
       <c r="I47" t="n">
-        <v>82.06287593401886</v>
+        <v>64.95673490037383</v>
       </c>
       <c r="J47" t="n">
-        <v>86.25887418586335</v>
+        <v>79.58977037158547</v>
       </c>
       <c r="K47" t="n">
-        <v>85.99373412878408</v>
+        <v>80.76080145792157</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B48" t="n">
-        <v>23.28387978142078</v>
+        <v>22.81616438356166</v>
       </c>
       <c r="C48" t="n">
-        <v>20.18140180306348</v>
+        <v>20.52979335336738</v>
       </c>
       <c r="D48" t="n">
-        <v>26.91138568446282</v>
+        <v>26.00891632620289</v>
       </c>
       <c r="E48" t="n">
-        <v>25.76428351967888</v>
+        <v>25.64852482086608</v>
       </c>
       <c r="F48" t="n">
-        <v>21.28973239503547</v>
+        <v>20.0857579608156</v>
       </c>
       <c r="G48" t="n">
-        <v>72.70218579234972</v>
+        <v>73.64109589041095</v>
       </c>
       <c r="H48" t="n">
-        <v>68.93701523212738</v>
+        <v>69.4437446136903</v>
       </c>
       <c r="I48" t="n">
-        <v>64.95673490037383</v>
+        <v>68.81271137253158</v>
       </c>
       <c r="J48" t="n">
-        <v>79.58977037158547</v>
+        <v>79.90858446056072</v>
       </c>
       <c r="K48" t="n">
-        <v>80.76080145792157</v>
+        <v>79.45392175497742</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B49" t="n">
-        <v>22.81616438356166</v>
+        <v>23.45879120879117</v>
       </c>
       <c r="C49" t="n">
-        <v>20.52979335336738</v>
+        <v>19.8565145320603</v>
       </c>
       <c r="D49" t="n">
-        <v>26.00891632620289</v>
+        <v>27.0825155640242</v>
       </c>
       <c r="E49" t="n">
-        <v>25.64852482086608</v>
+        <v>26.43531005240073</v>
       </c>
       <c r="F49" t="n">
-        <v>20.0857579608156</v>
+        <v>21.38571476044365</v>
       </c>
       <c r="G49" t="n">
-        <v>73.64109589041095</v>
+        <v>73.79120879120879</v>
       </c>
       <c r="H49" t="n">
-        <v>69.4437446136903</v>
+        <v>64.00498589453585</v>
       </c>
       <c r="I49" t="n">
-        <v>68.81271137253158</v>
+        <v>70.83310671837947</v>
       </c>
       <c r="J49" t="n">
-        <v>79.90858446056072</v>
+        <v>82.18378896152784</v>
       </c>
       <c r="K49" t="n">
-        <v>79.45392175497742</v>
+        <v>81.0266730625541</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B50" t="n">
-        <v>23.45879120879117</v>
+        <v>23.3408219178082</v>
       </c>
       <c r="C50" t="n">
-        <v>19.8565145320603</v>
+        <v>19.87396127257845</v>
       </c>
       <c r="D50" t="n">
-        <v>27.0825155640242</v>
+        <v>26.57123643476949</v>
       </c>
       <c r="E50" t="n">
-        <v>26.43531005240073</v>
+        <v>26.74277510926523</v>
       </c>
       <c r="F50" t="n">
-        <v>21.38571476044365</v>
+        <v>21.16506211696135</v>
       </c>
       <c r="G50" t="n">
-        <v>73.79120879120879</v>
+        <v>74.55342465753425</v>
       </c>
       <c r="H50" t="n">
-        <v>64.00498589453585</v>
+        <v>69.46672206549485</v>
       </c>
       <c r="I50" t="n">
-        <v>70.83310671837947</v>
+        <v>70.19596820569647</v>
       </c>
       <c r="J50" t="n">
-        <v>82.18378896152784</v>
+        <v>79.458519445234</v>
       </c>
       <c r="K50" t="n">
-        <v>81.0266730625541</v>
+        <v>82.17420296807123</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B51" t="n">
-        <v>23.3408219178082</v>
+        <v>23.35683060109289</v>
       </c>
       <c r="C51" t="n">
-        <v>19.87396127257845</v>
+        <v>19.53487869530306</v>
       </c>
       <c r="D51" t="n">
-        <v>26.57123643476949</v>
+        <v>26.51067292785461</v>
       </c>
       <c r="E51" t="n">
-        <v>26.74277510926523</v>
+        <v>26.48198668597029</v>
       </c>
       <c r="F51" t="n">
-        <v>21.16506211696135</v>
+        <v>21.91809850127133</v>
       </c>
       <c r="G51" t="n">
-        <v>74.55342465753425</v>
+        <v>76.52732240437159</v>
       </c>
       <c r="H51" t="n">
-        <v>69.46672206549485</v>
+        <v>70.52161233039006</v>
       </c>
       <c r="I51" t="n">
-        <v>70.19596820569647</v>
+        <v>72.32083481544721</v>
       </c>
       <c r="J51" t="n">
-        <v>79.458519445234</v>
+        <v>83.04846216788297</v>
       </c>
       <c r="K51" t="n">
-        <v>82.17420296807123</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B52" t="n">
-        <v>23.35683060109289</v>
-      </c>
-      <c r="C52" t="n">
-        <v>19.53487869530306</v>
-      </c>
-      <c r="D52" t="n">
-        <v>26.51067292785461</v>
-      </c>
-      <c r="E52" t="n">
-        <v>26.48198668597029</v>
-      </c>
-      <c r="F52" t="n">
-        <v>21.91809850127133</v>
-      </c>
-      <c r="G52" t="n">
-        <v>76.52732240437159</v>
-      </c>
-      <c r="H52" t="n">
-        <v>70.52161233039006</v>
-      </c>
-      <c r="I52" t="n">
-        <v>72.32083481544721</v>
-      </c>
-      <c r="J52" t="n">
-        <v>83.04846216788297</v>
-      </c>
-      <c r="K52" t="n">
         <v>83.38232829313121</v>
       </c>
     </row>

--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,41 @@
           <t>s4_RH</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ETOmean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>s1_ET0</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>s2_ET0</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>s3_ET0</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>s4_ET0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_PMT_G</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ET0_ET0_PMT_CF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -510,19 +545,40 @@
         <v>19.06521739130434</v>
       </c>
       <c r="G2" t="n">
-        <v>83.89577464788732</v>
+        <v>0.2363261257686967</v>
       </c>
       <c r="H2" t="n">
-        <v>79.14444444444445</v>
+        <v>0.8793827160493828</v>
       </c>
       <c r="I2" t="n">
-        <v>78.91208791208791</v>
+        <v>0.8671658012317353</v>
       </c>
       <c r="J2" t="n">
-        <v>88.13414634146342</v>
+        <v>1.074806662700774</v>
       </c>
       <c r="K2" t="n">
-        <v>89.69565217391305</v>
+        <v>0.974952741020794</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.072253744273802</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8793827160493828</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8671658012317353</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.074806662700774</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.974952741020794</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1064.550488501809</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1048.295449252114</v>
       </c>
     </row>
     <row r="3">
@@ -545,19 +601,40 @@
         <v>19.99962192816635</v>
       </c>
       <c r="G3" t="n">
-        <v>83.85439560439561</v>
+        <v>0.2303692186933945</v>
       </c>
       <c r="H3" t="n">
-        <v>80.96862026862027</v>
+        <v>0.880313897200344</v>
       </c>
       <c r="I3" t="n">
-        <v>78.9440888781548</v>
+        <v>0.8580928832026605</v>
       </c>
       <c r="J3" t="n">
-        <v>88.8570460704607</v>
+        <v>0.9765524452670001</v>
       </c>
       <c r="K3" t="n">
-        <v>90.3227788279773</v>
+        <v>0.9712872108625968</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.153036031946054</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.880313897200344</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8580928832026605</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9765524452670001</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9712872108625968</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1155.557243211799</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1137.739703939859</v>
       </c>
     </row>
     <row r="4">
@@ -580,19 +657,40 @@
         <v>19.52417166954028</v>
       </c>
       <c r="G4" t="n">
-        <v>80.48626373626374</v>
+        <v>0.2211161091655597</v>
       </c>
       <c r="H4" t="n">
-        <v>74.599651336318</v>
+        <v>0.8189975696169383</v>
       </c>
       <c r="I4" t="n">
-        <v>74.29608888877092</v>
+        <v>0.8070110002274125</v>
       </c>
       <c r="J4" t="n">
-        <v>88.92235919641804</v>
+        <v>0.9561645265176355</v>
       </c>
       <c r="K4" t="n">
-        <v>87.69585471239536</v>
+        <v>0.9529007713091249</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.161473151044455</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8189975696169383</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8070110002274125</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9561645265176355</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9529007713091249</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1272.859341689905</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1254.89175207869</v>
       </c>
     </row>
     <row r="5">
@@ -615,19 +713,40 @@
         <v>19.78243061511357</v>
       </c>
       <c r="G5" t="n">
-        <v>82.10704225352113</v>
+        <v>0.2312874429676652</v>
       </c>
       <c r="H5" t="n">
-        <v>73.32888501484798</v>
+        <v>0.8056566663666194</v>
       </c>
       <c r="I5" t="n">
-        <v>78.50874822954694</v>
+        <v>0.8538590763193126</v>
       </c>
       <c r="J5" t="n">
-        <v>90.76580399107131</v>
+        <v>0.9976489092008047</v>
       </c>
       <c r="K5" t="n">
-        <v>90.00828398467138</v>
+        <v>1.059233687751036</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.172651396133368</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8056566663666194</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8538590763193126</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9976489092008047</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.059233687751036</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1184.364920331448</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1166.689154759946</v>
       </c>
     </row>
     <row r="6">
@@ -650,19 +769,40 @@
         <v>18.29763511538167</v>
       </c>
       <c r="G6" t="n">
-        <v>84.04657534246576</v>
+        <v>0.2302645899793583</v>
       </c>
       <c r="H6" t="n">
-        <v>81.3592098334983</v>
+        <v>0.8950377353909095</v>
       </c>
       <c r="I6" t="n">
-        <v>81.08251371680821</v>
+        <v>0.8816391569950874</v>
       </c>
       <c r="J6" t="n">
-        <v>89.8670196085986</v>
+        <v>0.9662095520922968</v>
       </c>
       <c r="K6" t="n">
-        <v>87.40226395635511</v>
+        <v>0.9395155049253014</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.932999001835124</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8950377353909095</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8816391569950874</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9662095520922968</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9395155049253014</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1082.327252580537</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1065.816556165196</v>
       </c>
     </row>
     <row r="7">
@@ -685,19 +825,40 @@
         <v>20.19019168603675</v>
       </c>
       <c r="G7" t="n">
-        <v>81.21311475409836</v>
+        <v>0.2218937561587387</v>
       </c>
       <c r="H7" t="n">
-        <v>78.55339791025823</v>
+        <v>0.8535074311961587</v>
       </c>
       <c r="I7" t="n">
-        <v>74.03387377710779</v>
+        <v>0.8038741262114473</v>
       </c>
       <c r="J7" t="n">
-        <v>85.07464151748476</v>
+        <v>0.9142209604858332</v>
       </c>
       <c r="K7" t="n">
-        <v>90.77611156474299</v>
+        <v>0.9764815117562529</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.155304261341896</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8535074311961587</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8038741262114473</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9142209604858332</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9764815117562529</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1133.509609811914</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1118.428812496669</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +881,40 @@
         <v>19.08793686615258</v>
       </c>
       <c r="G8" t="n">
-        <v>84.57142857142857</v>
+        <v>0.2323390894819466</v>
       </c>
       <c r="H8" t="n">
-        <v>80.78149885292424</v>
+        <v>0.8978479368048474</v>
       </c>
       <c r="I8" t="n">
-        <v>83.92344916238581</v>
+        <v>0.9133925702362289</v>
       </c>
       <c r="J8" t="n">
-        <v>88.6747243643205</v>
+        <v>0.9539123606994903</v>
       </c>
       <c r="K8" t="n">
-        <v>88.34539251700808</v>
+        <v>0.9496664084961904</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.882475103954831</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8978479368048474</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9133925702362289</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9539123606994903</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9496664084961904</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1078.399279765718</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1061.64808433441</v>
       </c>
     </row>
     <row r="9">
@@ -755,19 +937,40 @@
         <v>20.40530366158861</v>
       </c>
       <c r="G9" t="n">
-        <v>81.6158940397351</v>
+        <v>0.2702513047673348</v>
       </c>
       <c r="H9" t="n">
-        <v>76.39757220947693</v>
+        <v>0.8389997343131858</v>
       </c>
       <c r="I9" t="n">
-        <v>81.64359387958206</v>
+        <v>0.8969028879716341</v>
       </c>
       <c r="J9" t="n">
-        <v>88.45582414547735</v>
+        <v>2.851059902623</v>
       </c>
       <c r="K9" t="n">
-        <v>88.17766730996748</v>
+        <v>0.9481273235359755</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.997876476071015</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8389997343131858</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8969028879716341</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.851059902623</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9481273235359755</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>938.3980709953667</v>
+      </c>
+      <c r="R9" t="n">
+        <v>925.2834054854596</v>
       </c>
     </row>
     <row r="10">
@@ -790,19 +993,40 @@
         <v>18.85005764849553</v>
       </c>
       <c r="G10" t="n">
-        <v>81.04518072289157</v>
+        <v>0.2441119901291915</v>
       </c>
       <c r="H10" t="n">
-        <v>72.17623003744876</v>
+        <v>1.201619936723445</v>
       </c>
       <c r="I10" t="n">
-        <v>79.6404843764398</v>
+        <v>0.8749255435664163</v>
       </c>
       <c r="J10" t="n">
-        <v>86.53248158401624</v>
+        <v>0.9405688998795584</v>
       </c>
       <c r="K10" t="n">
-        <v>86.31714855771703</v>
+        <v>0.9279239280864292</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.214599077210578</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.201619936723445</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8749255435664163</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9405688998795584</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9279239280864292</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1078.55279376197</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1063.368356855383</v>
       </c>
     </row>
     <row r="11">
@@ -825,19 +1049,40 @@
         <v>19.75923975704886</v>
       </c>
       <c r="G11" t="n">
-        <v>84.35081967213115</v>
+        <v>0.2765600644987907</v>
       </c>
       <c r="H11" t="n">
-        <v>79.13627050062414</v>
+        <v>1.299222672204645</v>
       </c>
       <c r="I11" t="n">
-        <v>84.28918826846622</v>
+        <v>1.360622124574998</v>
       </c>
       <c r="J11" t="n">
-        <v>87.19057045200017</v>
+        <v>0.9376111258152031</v>
       </c>
       <c r="K11" t="n">
-        <v>88.48170813649692</v>
+        <v>0.9516691781578551</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.807983157527949</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.299222672204645</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.360622124574998</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9376111258152031</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9516691781578551</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>883.2273373365568</v>
+      </c>
+      <c r="R11" t="n">
+        <v>869.5359429686431</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +1105,40 @@
         <v>19.1865134756201</v>
       </c>
       <c r="G12" t="n">
-        <v>82.24444444444444</v>
+        <v>0.2284567901234568</v>
       </c>
       <c r="H12" t="n">
-        <v>77.59040300556249</v>
+        <v>0.8525060768731116</v>
       </c>
       <c r="I12" t="n">
-        <v>76.8383427282249</v>
+        <v>0.8343630747644698</v>
       </c>
       <c r="J12" t="n">
-        <v>88.56540885577012</v>
+        <v>1.006597649772204</v>
       </c>
       <c r="K12" t="n">
-        <v>89.85306204496192</v>
+        <v>0.9663222671524289</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.893470549339876</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8525060768731116</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8343630747644698</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.006597649772204</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9663222671524289</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1096.518574536221</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1081.204989207021</v>
       </c>
     </row>
     <row r="13">
@@ -895,19 +1161,40 @@
         <v>19.65202732038717</v>
       </c>
       <c r="G13" t="n">
-        <v>83.88154269972452</v>
+        <v>0.2310786300267893</v>
       </c>
       <c r="H13" t="n">
-        <v>80.98416183152318</v>
+        <v>0.900246497421648</v>
       </c>
       <c r="I13" t="n">
-        <v>81.82239937063984</v>
+        <v>0.8899691297035097</v>
       </c>
       <c r="J13" t="n">
-        <v>88.59961987753594</v>
+        <v>0.963048737791302</v>
       </c>
       <c r="K13" t="n">
-        <v>87.67231589179306</v>
+        <v>0.9424582138784443</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.908901997519056</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.900246497421648</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8899691297035097</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.963048737791302</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9424582138784443</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1116.385377936771</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1099.220778538098</v>
       </c>
     </row>
     <row r="14">
@@ -930,19 +1217,40 @@
         <v>18.6494785578303</v>
       </c>
       <c r="G14" t="n">
-        <v>78.78356164383561</v>
+        <v>0.2158453743666729</v>
       </c>
       <c r="H14" t="n">
-        <v>72.65537957590581</v>
+        <v>0.7973950921601756</v>
       </c>
       <c r="I14" t="n">
-        <v>71.4925538392378</v>
+        <v>0.7758591920214593</v>
       </c>
       <c r="J14" t="n">
-        <v>87.06086543345147</v>
+        <v>0.9359597174784725</v>
       </c>
       <c r="K14" t="n">
-        <v>87.39861212925862</v>
+        <v>0.9397380030971029</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.930019979787257</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7973950921601756</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7758591920214593</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9359597174784725</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.9397380030971029</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1208.747353312004</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1194.493450911962</v>
       </c>
     </row>
     <row r="15">
@@ -965,19 +1273,40 @@
         <v>20.17010302780251</v>
       </c>
       <c r="G15" t="n">
-        <v>78.15300546448087</v>
+        <v>0.2135328018155215</v>
       </c>
       <c r="H15" t="n">
-        <v>69.53467450083414</v>
+        <v>0.7554398496669679</v>
       </c>
       <c r="I15" t="n">
-        <v>70.19222586636525</v>
+        <v>0.7628035091404445</v>
       </c>
       <c r="J15" t="n">
-        <v>88.6093572329723</v>
+        <v>0.9529697494940311</v>
       </c>
       <c r="K15" t="n">
-        <v>87.55868056662237</v>
+        <v>0.9415098934313678</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.955626625342365</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7554398496669679</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7628035091404445</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9529697494940311</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.9415098934313678</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1236.534627582791</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1222.548312702981</v>
       </c>
     </row>
     <row r="16">
@@ -1000,19 +1329,40 @@
         <v>20.17358807638916</v>
       </c>
       <c r="G16" t="n">
-        <v>81.47671232876712</v>
+        <v>0.2232238693938825</v>
       </c>
       <c r="H16" t="n">
-        <v>74.0614963833426</v>
+        <v>0.8144142518332923</v>
       </c>
       <c r="I16" t="n">
-        <v>78.45266182270731</v>
+        <v>0.8537329795325612</v>
       </c>
       <c r="J16" t="n">
-        <v>86.62618866557578</v>
+        <v>0.9312326287511218</v>
       </c>
       <c r="K16" t="n">
-        <v>90.00607261485459</v>
+        <v>0.9680932785790917</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.030354283032078</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8144142518332923</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8537329795325612</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9312326287511218</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9680932785790917</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1092.454362400442</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1078.116324181374</v>
       </c>
     </row>
     <row r="17">
@@ -1035,19 +1385,40 @@
         <v>19.42253900083031</v>
       </c>
       <c r="G17" t="n">
-        <v>81.67671232876712</v>
+        <v>0.223771814599362</v>
       </c>
       <c r="H17" t="n">
-        <v>77.66734995981493</v>
+        <v>0.8539277054631893</v>
       </c>
       <c r="I17" t="n">
-        <v>78.20277650354623</v>
+        <v>0.8500004507884956</v>
       </c>
       <c r="J17" t="n">
-        <v>86.28941509419104</v>
+        <v>0.9278037845733401</v>
       </c>
       <c r="K17" t="n">
-        <v>88.00006600668321</v>
+        <v>0.9460028465593785</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.045338640288852</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8539277054631893</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8500004507884956</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9278037845733401</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9460028465593785</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1113.158493252068</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1098.198681880781</v>
       </c>
     </row>
     <row r="18">
@@ -1070,19 +1441,40 @@
         <v>19.55894064131338</v>
       </c>
       <c r="G18" t="n">
-        <v>77.353591160221</v>
+        <v>0.2136839534812735</v>
       </c>
       <c r="H18" t="n">
-        <v>72.95019942482546</v>
+        <v>0.8283596152339099</v>
       </c>
       <c r="I18" t="n">
-        <v>67.68354699454447</v>
+        <v>0.7344342471260462</v>
       </c>
       <c r="J18" t="n">
-        <v>85.20966755537164</v>
+        <v>0.9161067821106537</v>
       </c>
       <c r="K18" t="n">
-        <v>86.81521810876829</v>
+        <v>0.9333584596935915</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.244663115172037</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8283596152339099</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.7344342471260462</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9161067821106537</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9333584596935915</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1188.301991318833</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1175.20969655975</v>
       </c>
     </row>
     <row r="19">
@@ -1105,19 +1497,40 @@
         <v>20.32020587653601</v>
       </c>
       <c r="G19" t="n">
-        <v>78.82786885245902</v>
+        <v>0.2153766908537132</v>
       </c>
       <c r="H19" t="n">
-        <v>72.87857362005303</v>
+        <v>0.792154131097118</v>
       </c>
       <c r="I19" t="n">
-        <v>73.29322579114884</v>
+        <v>0.7973353984116806</v>
       </c>
       <c r="J19" t="n">
-        <v>86.53488769081925</v>
+        <v>0.9306375362455235</v>
       </c>
       <c r="K19" t="n">
-        <v>85.87842628379096</v>
+        <v>0.9233144327102663</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.172090514505803</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.792154131097118</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.7973353984116806</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.9306375362455235</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9233144327102663</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1187.403994104189</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1172.982462964524</v>
       </c>
     </row>
     <row r="20">
@@ -1140,19 +1553,40 @@
         <v>19.89261093344061</v>
       </c>
       <c r="G20" t="n">
-        <v>78.57534246575342</v>
+        <v>0.2152749108650779</v>
       </c>
       <c r="H20" t="n">
-        <v>70.33198415133393</v>
+        <v>0.7725669326087774</v>
       </c>
       <c r="I20" t="n">
-        <v>75.25596951418845</v>
+        <v>0.8182341909670827</v>
       </c>
       <c r="J20" t="n">
-        <v>85.65798790968282</v>
+        <v>0.9209511622798022</v>
       </c>
       <c r="K20" t="n">
-        <v>86.3030263726499</v>
+        <v>0.9280391439547152</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.099174256665427</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7725669326087774</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8182341909670827</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9209511622798022</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9280391439547152</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1131.504524567627</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1118.232397530418</v>
       </c>
     </row>
     <row r="21">
@@ -1175,19 +1609,40 @@
         <v>20.17274577101566</v>
       </c>
       <c r="G21" t="n">
-        <v>77.91506849315068</v>
+        <v>0.2134659410771252</v>
       </c>
       <c r="H21" t="n">
-        <v>69.62591093501482</v>
+        <v>0.7650336502385936</v>
       </c>
       <c r="I21" t="n">
-        <v>75.62918647817789</v>
+        <v>0.8221009822715816</v>
       </c>
       <c r="J21" t="n">
-        <v>84.88758682510525</v>
+        <v>0.9126796964983789</v>
       </c>
       <c r="K21" t="n">
-        <v>84.76416333013751</v>
+        <v>0.911262764549144</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.105230628610899</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7650336502385936</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8221009822715816</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.9126796964983789</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.911262764549144</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1168.574830344288</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1155.036502391387</v>
       </c>
     </row>
     <row r="22">
@@ -1210,19 +1665,40 @@
         <v>20.36166028011973</v>
       </c>
       <c r="G22" t="n">
-        <v>77.93093922651934</v>
+        <v>0.2152788376423186</v>
       </c>
       <c r="H22" t="n">
-        <v>73.33665807880699</v>
+        <v>0.8244789557916113</v>
       </c>
       <c r="I22" t="n">
-        <v>70.75143540531309</v>
+        <v>0.7768916174052187</v>
       </c>
       <c r="J22" t="n">
-        <v>85.77051724809897</v>
+        <v>0.9223668099830455</v>
       </c>
       <c r="K22" t="n">
-        <v>84.93221916663192</v>
+        <v>0.9132692890789874</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.873890669703638</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8244789557916113</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.7768916174052187</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.9223668099830455</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.9132692890789874</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1150.155145178532</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1137.224466785314</v>
       </c>
     </row>
     <row r="23">
@@ -1245,19 +1721,40 @@
         <v>20.03871369869696</v>
       </c>
       <c r="G23" t="n">
-        <v>77.76584022038567</v>
+        <v>0.2142309647944509</v>
       </c>
       <c r="H23" t="n">
-        <v>69.26518929635007</v>
+        <v>0.777740764327969</v>
       </c>
       <c r="I23" t="n">
-        <v>75.8983674220364</v>
+        <v>0.8255979823230776</v>
       </c>
       <c r="J23" t="n">
-        <v>85.63880997008803</v>
+        <v>0.9208320376665859</v>
       </c>
       <c r="K23" t="n">
-        <v>83.29274151268079</v>
+        <v>0.8954292614944563</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.853519214062512</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.777740764327969</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8255979823230776</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9208320376665859</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8954292614944563</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1189.800503614895</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1175.757215875296</v>
       </c>
     </row>
     <row r="24">
@@ -1280,19 +1777,40 @@
         <v>19.97650775759453</v>
       </c>
       <c r="G24" t="n">
-        <v>75.87362637362638</v>
+        <v>0.2084440284989736</v>
       </c>
       <c r="H24" t="n">
-        <v>68.74739099218166</v>
+        <v>0.7554046593536208</v>
       </c>
       <c r="I24" t="n">
-        <v>69.52635568595645</v>
+        <v>0.7549602219517356</v>
       </c>
       <c r="J24" t="n">
-        <v>83.87515175791306</v>
+        <v>0.9114745600818339</v>
       </c>
       <c r="K24" t="n">
-        <v>84.62274719035523</v>
+        <v>0.9100774372946</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.053152009726675</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7554046593536208</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7549602219517356</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.9114745600818339</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.9100774372946</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1220.70006175905</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1207.864860876003</v>
       </c>
     </row>
     <row r="25">
@@ -1315,19 +1833,40 @@
         <v>20.51387508432169</v>
       </c>
       <c r="G25" t="n">
-        <v>77.64462809917356</v>
+        <v>0.2138970471051613</v>
       </c>
       <c r="H25" t="n">
-        <v>72.5653112612748</v>
+        <v>0.8158258528744</v>
       </c>
       <c r="I25" t="n">
-        <v>72.20358632621929</v>
+        <v>0.7851412824806124</v>
       </c>
       <c r="J25" t="n">
-        <v>83.98777338867296</v>
+        <v>0.9031086335727885</v>
       </c>
       <c r="K25" t="n">
-        <v>84.87633420859082</v>
+        <v>0.9126784117955217</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.912080252298433</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8158258528744</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.7851412824806124</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.9031086335727885</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.9126784117955217</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1179.697202834386</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1166.323652055001</v>
       </c>
     </row>
     <row r="26">
@@ -1350,19 +1889,40 @@
         <v>20.31075147158025</v>
       </c>
       <c r="G26" t="n">
-        <v>79.9608938547486</v>
+        <v>0.2233544521082363</v>
       </c>
       <c r="H26" t="n">
-        <v>69.58405901401416</v>
+        <v>0.7642982501052932</v>
       </c>
       <c r="I26" t="n">
-        <v>79.40883061896945</v>
+        <v>0.8640001378194035</v>
       </c>
       <c r="J26" t="n">
-        <v>87.02160623248558</v>
+        <v>0.9360707831561403</v>
       </c>
       <c r="K26" t="n">
-        <v>87.58678040245401</v>
+        <v>1.018811443378795</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.241477534447947</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7642982501052932</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.8640001378194035</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9360707831561403</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.018811443378795</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1155.707852323368</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1140.669819348982</v>
       </c>
     </row>
     <row r="27">
@@ -1385,19 +1945,40 @@
         <v>18.58900834968424</v>
       </c>
       <c r="G27" t="n">
-        <v>78.79889807162535</v>
+        <v>0.2170768541918054</v>
       </c>
       <c r="H27" t="n">
-        <v>74.62871176682238</v>
+        <v>0.8207116417592724</v>
       </c>
       <c r="I27" t="n">
-        <v>71.22427286394472</v>
+        <v>0.7731993720731576</v>
       </c>
       <c r="J27" t="n">
-        <v>85.16327832861397</v>
+        <v>0.9155170215953635</v>
       </c>
       <c r="K27" t="n">
-        <v>87.71763089336059</v>
+        <v>0.9639529396843677</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.308751820388364</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8207116417592724</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.7731993720731576</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.9155170215953635</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.9639529396843677</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1198.714067144729</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1183.881892611858</v>
       </c>
     </row>
     <row r="28">
@@ -1420,19 +2001,40 @@
         <v>20.21401096032265</v>
       </c>
       <c r="G28" t="n">
-        <v>78.70833333333333</v>
+        <v>0.2186342592592593</v>
       </c>
       <c r="H28" t="n">
-        <v>72.74578081553207</v>
+        <v>0.817125608424814</v>
       </c>
       <c r="I28" t="n">
-        <v>74.5025485552721</v>
+        <v>0.8375223656213937</v>
       </c>
       <c r="J28" t="n">
-        <v>86.18655737313711</v>
+        <v>0.9268567482303397</v>
       </c>
       <c r="K28" t="n">
-        <v>84.42084381405826</v>
+        <v>0.9073681418879589</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.183174595657786</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.817125608424814</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8375223656213937</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9268567482303397</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.9073681418879589</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1161.009066263049</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1146.740844035216</v>
       </c>
     </row>
     <row r="29">
@@ -1455,19 +2057,40 @@
         <v>19.9947175104383</v>
       </c>
       <c r="G29" t="n">
-        <v>79.14285714285714</v>
+        <v>0.2216886754701881</v>
       </c>
       <c r="H29" t="n">
-        <v>71.75569863006359</v>
+        <v>0.8152750859569856</v>
       </c>
       <c r="I29" t="n">
-        <v>75.6500283172808</v>
+        <v>0.8314614225142744</v>
       </c>
       <c r="J29" t="n">
-        <v>85.74075633378565</v>
+        <v>0.9633170011296784</v>
       </c>
       <c r="K29" t="n">
-        <v>86.68935699797889</v>
+        <v>0.9324087155177089</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.13471226117112</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8152750859569856</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8314614225142744</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9633170011296784</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.9324087155177089</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1156.474947134833</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1142.416144739825</v>
       </c>
     </row>
     <row r="30">
@@ -1490,19 +2113,40 @@
         <v>20.83701929787009</v>
       </c>
       <c r="G30" t="n">
-        <v>79.27914110429448</v>
+        <v>0.2431875493996763</v>
       </c>
       <c r="H30" t="n">
-        <v>74.24444605202318</v>
+        <v>0.8252512656338793</v>
       </c>
       <c r="I30" t="n">
-        <v>76.57243626047796</v>
+        <v>0.9694003059537335</v>
       </c>
       <c r="J30" t="n">
-        <v>86.43915366191122</v>
+        <v>1.217543534081863</v>
       </c>
       <c r="K30" t="n">
-        <v>84.6481950224492</v>
+        <v>0.9402767843347455</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.979474622042843</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8252512656338793</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.9694003059537335</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.217543534081863</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.9402767843347455</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1023.089168159178</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1010.518665076415</v>
       </c>
     </row>
     <row r="31">
@@ -1525,19 +2169,40 @@
         <v>21.01996760106381</v>
       </c>
       <c r="G31" t="n">
-        <v>78.48760330578513</v>
+        <v>0.2162192928534026</v>
       </c>
       <c r="H31" t="n">
-        <v>72.20048841815411</v>
+        <v>0.7845459788993641</v>
       </c>
       <c r="I31" t="n">
-        <v>74.55080484733864</v>
+        <v>0.8190085679390068</v>
       </c>
       <c r="J31" t="n">
-        <v>85.80487948513235</v>
+        <v>0.9428663633992694</v>
       </c>
       <c r="K31" t="n">
-        <v>84.89834994589619</v>
+        <v>0.9129182746673363</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.954497215184708</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7845459788993641</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8190085679390068</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9428663633992694</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9129182746673363</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1125.187272008697</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1111.96396435528</v>
       </c>
     </row>
     <row r="32">
@@ -1560,19 +2225,40 @@
         <v>21.36543443044634</v>
       </c>
       <c r="G32" t="n">
-        <v>77.03867403314918</v>
+        <v>0.212814016666158</v>
       </c>
       <c r="H32" t="n">
-        <v>68.89111653797949</v>
+        <v>0.7566400674048025</v>
       </c>
       <c r="I32" t="n">
-        <v>71.41068320053189</v>
+        <v>0.7930588320373613</v>
       </c>
       <c r="J32" t="n">
-        <v>85.59126241192453</v>
+        <v>0.9303155254635187</v>
       </c>
       <c r="K32" t="n">
-        <v>85.44454728202061</v>
+        <v>0.9188224147299937</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.089237717263803</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.7566400674048025</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.7930588320373613</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9303155254635187</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.9188224147299937</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1170.152854846459</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1157.144408599925</v>
       </c>
     </row>
     <row r="33">
@@ -1595,19 +2281,40 @@
         <v>20.91701559163527</v>
       </c>
       <c r="G33" t="n">
-        <v>78.71232876712328</v>
+        <v>0.2156502158003377</v>
       </c>
       <c r="H33" t="n">
-        <v>67.09879018375533</v>
+        <v>0.7371304493910377</v>
       </c>
       <c r="I33" t="n">
-        <v>78.12539212308276</v>
+        <v>0.849993123877797</v>
       </c>
       <c r="J33" t="n">
-        <v>86.93033980882527</v>
+        <v>0.9348925231008345</v>
       </c>
       <c r="K33" t="n">
-        <v>85.82004942697849</v>
+        <v>0.922840125521589</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.883032616529527</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7371304493910377</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.849993123877797</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.9348925231008345</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.922840125521589</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1201.994336979046</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1187.334315136629</v>
       </c>
     </row>
     <row r="34">
@@ -1630,19 +2337,40 @@
         <v>19.44909799556125</v>
       </c>
       <c r="G34" t="n">
-        <v>81.10164835164835</v>
+        <v>0.2228067262407922</v>
       </c>
       <c r="H34" t="n">
-        <v>74.39436842903096</v>
+        <v>0.827513840480923</v>
       </c>
       <c r="I34" t="n">
-        <v>79.52885046289101</v>
+        <v>0.8646117610341598</v>
       </c>
       <c r="J34" t="n">
-        <v>87.59706891096549</v>
+        <v>0.9419819107423323</v>
       </c>
       <c r="K34" t="n">
-        <v>86.10673966768455</v>
+        <v>0.9259124338522591</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.968011543538665</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.827513840480923</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8646117610341598</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.9419819107423323</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.9259124338522591</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1126.394350766067</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1111.256993512407</v>
       </c>
     </row>
     <row r="35">
@@ -1665,19 +2393,40 @@
         <v>20.71031628256044</v>
       </c>
       <c r="G35" t="n">
-        <v>80.29234972677595</v>
+        <v>0.2193780047179671</v>
       </c>
       <c r="H35" t="n">
-        <v>72.88345459812122</v>
+        <v>0.792033270600227</v>
       </c>
       <c r="I35" t="n">
-        <v>81.11570165343836</v>
+        <v>0.8818819721967195</v>
       </c>
       <c r="J35" t="n">
-        <v>85.81083770555396</v>
+        <v>0.9224884194128949</v>
       </c>
       <c r="K35" t="n">
-        <v>84.8489863007357</v>
+        <v>0.9122076928678936</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.086061783836779</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.792033270600227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8818819721967195</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.9224884194128949</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.9122076928678936</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1137.67126854095</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1122.710568679071</v>
       </c>
     </row>
     <row r="36">
@@ -1700,19 +2449,40 @@
         <v>19.8892425682887</v>
       </c>
       <c r="G36" t="n">
-        <v>81.30958904109589</v>
+        <v>0.2227659973728655</v>
       </c>
       <c r="H36" t="n">
-        <v>74.18759393997912</v>
+        <v>0.8154064238605678</v>
       </c>
       <c r="I36" t="n">
-        <v>79.80346924893888</v>
+        <v>0.8672722958546307</v>
       </c>
       <c r="J36" t="n">
-        <v>86.45446562723428</v>
+        <v>0.9296931106355639</v>
       </c>
       <c r="K36" t="n">
-        <v>88.15053245979061</v>
+        <v>0.9482410453323331</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.036118413138077</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8154064238605678</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.8672722958546307</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.9296931106355639</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.9482410453323331</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1112.742670718976</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1097.790137341208</v>
       </c>
     </row>
     <row r="37">
@@ -1735,19 +2505,40 @@
         <v>20.49662220182923</v>
       </c>
       <c r="G37" t="n">
-        <v>81.45205479452055</v>
+        <v>0.2231563145055357</v>
       </c>
       <c r="H37" t="n">
-        <v>76.15763993266644</v>
+        <v>0.8371377044967729</v>
       </c>
       <c r="I37" t="n">
-        <v>80.04179636537296</v>
+        <v>0.8700479739519206</v>
       </c>
       <c r="J37" t="n">
-        <v>86.01580940899167</v>
+        <v>0.9248499164828256</v>
       </c>
       <c r="K37" t="n">
-        <v>87.03424491804121</v>
+        <v>0.9357216730913673</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.102439103468822</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8371377044967729</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8700479739519206</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.9248499164828256</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.9357216730913673</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1137.30845978098</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1121.587148117834</v>
       </c>
     </row>
     <row r="38">
@@ -1770,19 +2561,40 @@
         <v>20.69996328480249</v>
       </c>
       <c r="G38" t="n">
-        <v>79.72054794520548</v>
+        <v>0.2184124601238506</v>
       </c>
       <c r="H38" t="n">
-        <v>77.60175155480739</v>
+        <v>0.8529428565067281</v>
       </c>
       <c r="I38" t="n">
-        <v>77.80265710291619</v>
+        <v>0.8454136031848754</v>
       </c>
       <c r="J38" t="n">
-        <v>83.93495445009773</v>
+        <v>0.9022831817009076</v>
       </c>
       <c r="K38" t="n">
-        <v>83.05472005345696</v>
+        <v>0.8925963754339664</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.230576499557208</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8529428565067281</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8454136031848754</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.9022831817009076</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8925963754339664</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1176.150147150221</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1160.662766646344</v>
       </c>
     </row>
     <row r="39">
@@ -1805,19 +2617,40 @@
         <v>19.59999960092177</v>
       </c>
       <c r="G39" t="n">
-        <v>78.20765027322405</v>
+        <v>0.2136821045716504</v>
       </c>
       <c r="H39" t="n">
-        <v>70.13848078631656</v>
+        <v>0.761484475649862</v>
       </c>
       <c r="I39" t="n">
-        <v>77.49233689124084</v>
+        <v>0.8422709109531682</v>
       </c>
       <c r="J39" t="n">
-        <v>83.45581472228368</v>
+        <v>0.8973183226821481</v>
       </c>
       <c r="K39" t="n">
-        <v>85.15276869623322</v>
+        <v>0.9158663275490824</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.248703930690103</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.761484475649862</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8422709109531682</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8973183226821481</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.9158663275490824</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1193.220187984015</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1178.854106656271</v>
       </c>
     </row>
     <row r="40">
@@ -1840,19 +2673,40 @@
         <v>20.97065216957523</v>
       </c>
       <c r="G40" t="n">
-        <v>78.30410958904109</v>
+        <v>0.2145318070932632</v>
       </c>
       <c r="H40" t="n">
-        <v>69.2904275642924</v>
+        <v>0.7613285783303272</v>
       </c>
       <c r="I40" t="n">
-        <v>76.86255315265099</v>
+        <v>0.8353873047833538</v>
       </c>
       <c r="J40" t="n">
-        <v>84.3853892904596</v>
+        <v>0.9074784166260258</v>
       </c>
       <c r="K40" t="n">
-        <v>85.90383444235036</v>
+        <v>0.9237849558515536</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.319395383260744</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7613285783303272</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8353873047833538</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.9074784166260258</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.9237849558515536</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1224.725525130694</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1209.696195065111</v>
       </c>
     </row>
     <row r="41">
@@ -1875,19 +2729,40 @@
         <v>20.82902882793016</v>
       </c>
       <c r="G41" t="n">
-        <v>78.7972602739726</v>
+        <v>0.2158829048601989</v>
       </c>
       <c r="H41" t="n">
-        <v>73.75878252849213</v>
+        <v>0.8110816455034975</v>
       </c>
       <c r="I41" t="n">
-        <v>77.08640168299615</v>
+        <v>0.8379223991431933</v>
       </c>
       <c r="J41" t="n">
-        <v>84.50418901402674</v>
+        <v>0.908661091495348</v>
       </c>
       <c r="K41" t="n">
-        <v>83.15112863524293</v>
+        <v>0.893776439621438</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.373982682823876</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8110816455034975</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8379223991431933</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.908661091495348</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.893776439621438</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1243.006307160838</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1227.380900733626</v>
       </c>
     </row>
     <row r="42">
@@ -1910,19 +2785,40 @@
         <v>20.49488074812968</v>
       </c>
       <c r="G42" t="n">
-        <v>75.64109589041095</v>
+        <v>0.2072358791518108</v>
       </c>
       <c r="H42" t="n">
-        <v>67.05287536142768</v>
+        <v>0.7360260594624078</v>
       </c>
       <c r="I42" t="n">
-        <v>75.24270771080216</v>
+        <v>0.8176353003742475</v>
       </c>
       <c r="J42" t="n">
-        <v>81.98374118493507</v>
+        <v>0.8812510232858572</v>
       </c>
       <c r="K42" t="n">
-        <v>81.55599052864395</v>
+        <v>0.8767596616776491</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.272129254517834</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7360260594624078</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8176353003742475</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.8812510232858572</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8767596616776491</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1217.855384836402</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1204.968472388634</v>
       </c>
     </row>
     <row r="43">
@@ -1945,19 +2841,40 @@
         <v>20.16950957334924</v>
       </c>
       <c r="G43" t="n">
-        <v>77.48087431693989</v>
+        <v>0.2116963779151363</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48409753144425</v>
+        <v>0.7885202301726196</v>
       </c>
       <c r="I43" t="n">
-        <v>74.80486491989893</v>
+        <v>0.8130440327617889</v>
       </c>
       <c r="J43" t="n">
-        <v>83.99982327374929</v>
+        <v>0.9034595050830915</v>
       </c>
       <c r="K43" t="n">
-        <v>81.87560859270266</v>
+        <v>0.8804202220772304</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.148593133579732</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7885202301726196</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8130440327617889</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.9034595050830915</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8804202220772304</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1148.554419742526</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1135.53636937916</v>
       </c>
     </row>
     <row r="44">
@@ -1980,19 +2897,40 @@
         <v>20.64423379971032</v>
       </c>
       <c r="G44" t="n">
-        <v>73.28650137741047</v>
+        <v>0.201891188367522</v>
       </c>
       <c r="H44" t="n">
-        <v>65.9276010836827</v>
+        <v>0.7236775950901447</v>
       </c>
       <c r="I44" t="n">
-        <v>72.95389961450438</v>
+        <v>0.7927560734250407</v>
       </c>
       <c r="J44" t="n">
-        <v>80.1111091474861</v>
+        <v>0.8798646246302572</v>
       </c>
       <c r="K44" t="n">
-        <v>77.54212618035547</v>
+        <v>0.8332798228050659</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.528252002592857</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7236775950901447</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7927560734250407</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.8798646246302572</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8332798228050659</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1255.540779161975</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1243.478474011509</v>
       </c>
     </row>
     <row r="45">
@@ -2015,19 +2953,40 @@
         <v>21.2949915802166</v>
       </c>
       <c r="G45" t="n">
-        <v>76.00824175824175</v>
+        <v>0.2088138509841806</v>
       </c>
       <c r="H45" t="n">
-        <v>64.15475112315204</v>
+        <v>0.7047807009376654</v>
       </c>
       <c r="I45" t="n">
-        <v>71.65883406169785</v>
+        <v>0.7787456534323662</v>
       </c>
       <c r="J45" t="n">
-        <v>85.8164250994292</v>
+        <v>0.9234262599981841</v>
       </c>
       <c r="K45" t="n">
-        <v>85.42353984813577</v>
+        <v>0.9294569834347066</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.511000834855032</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7047807009376654</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.7787456534323662</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.9234262599981841</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.9294569834347066</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1292.100580887829</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1277.788726334405</v>
       </c>
     </row>
     <row r="46">
@@ -2050,19 +3009,40 @@
         <v>20.45538034326322</v>
       </c>
       <c r="G46" t="n">
-        <v>81.09890109890109</v>
+        <v>0.2227991788431349</v>
       </c>
       <c r="H46" t="n">
-        <v>73.26838612359057</v>
+        <v>0.8062598494692514</v>
       </c>
       <c r="I46" t="n">
-        <v>82.06287593401886</v>
+        <v>0.9030591044016583</v>
       </c>
       <c r="J46" t="n">
-        <v>86.25887418586335</v>
+        <v>0.9275665673747635</v>
       </c>
       <c r="K46" t="n">
-        <v>85.99373412878408</v>
+        <v>0.9247317411369842</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.289932776205645</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8062598494692514</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.9030591044016583</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.9275665673747635</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.9247317411369842</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1154.677689443337</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1138.832321480688</v>
       </c>
     </row>
     <row r="47">
@@ -2085,19 +3065,40 @@
         <v>21.28973239503547</v>
       </c>
       <c r="G47" t="n">
-        <v>72.70218579234972</v>
+        <v>0.1986398518916659</v>
       </c>
       <c r="H47" t="n">
-        <v>68.93701523212738</v>
+        <v>0.7487992102221313</v>
       </c>
       <c r="I47" t="n">
-        <v>64.95673490037383</v>
+        <v>0.7040095470479895</v>
       </c>
       <c r="J47" t="n">
-        <v>79.58977037158547</v>
+        <v>0.8550245234602286</v>
       </c>
       <c r="K47" t="n">
-        <v>80.76080145792157</v>
+        <v>0.8677841129183763</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.558017503695215</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7487992102221313</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.7040095470479895</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.8550245234602286</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8677841129183763</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1292.864175492979</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1281.536433948466</v>
       </c>
     </row>
     <row r="48">
@@ -2120,19 +3121,40 @@
         <v>20.0857579608156</v>
       </c>
       <c r="G48" t="n">
-        <v>73.64109589041095</v>
+        <v>0.2017564270970163</v>
       </c>
       <c r="H48" t="n">
-        <v>69.4437446136903</v>
+        <v>0.7631788641000274</v>
       </c>
       <c r="I48" t="n">
-        <v>68.81271137253158</v>
+        <v>0.7484245875554942</v>
       </c>
       <c r="J48" t="n">
-        <v>79.90858446056072</v>
+        <v>0.8592692609314108</v>
       </c>
       <c r="K48" t="n">
-        <v>79.45392175497742</v>
+        <v>0.8541904281796926</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.488820837484625</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.7631788641000274</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.7484245875554942</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.8592692609314108</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8541904281796926</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1231.619462639461</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1220.019840704341</v>
       </c>
     </row>
     <row r="49">
@@ -2155,19 +3177,40 @@
         <v>21.38571476044365</v>
       </c>
       <c r="G49" t="n">
-        <v>73.79120879120879</v>
+        <v>0.2027231010747494</v>
       </c>
       <c r="H49" t="n">
-        <v>64.00498589453585</v>
+        <v>0.7104864510622523</v>
       </c>
       <c r="I49" t="n">
-        <v>70.83310671837947</v>
+        <v>0.7701664562960459</v>
       </c>
       <c r="J49" t="n">
-        <v>82.18378896152784</v>
+        <v>0.8839625790714711</v>
       </c>
       <c r="K49" t="n">
-        <v>81.0266730625541</v>
+        <v>0.8714383495307395</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.590485750055861</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7104864510622523</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.7701664562960459</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.8839625790714711</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8714383495307395</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1268.286089343386</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1256.001980504786</v>
       </c>
     </row>
     <row r="50">
@@ -2190,19 +3233,40 @@
         <v>21.16506211696135</v>
       </c>
       <c r="G50" t="n">
-        <v>74.55342465753425</v>
+        <v>0.2042559579658473</v>
       </c>
       <c r="H50" t="n">
-        <v>69.46672206549485</v>
+        <v>0.764038331660625</v>
       </c>
       <c r="I50" t="n">
-        <v>70.19596820569647</v>
+        <v>0.7629235800575167</v>
       </c>
       <c r="J50" t="n">
-        <v>79.458519445234</v>
+        <v>0.8540741921761663</v>
       </c>
       <c r="K50" t="n">
-        <v>82.17420296807123</v>
+        <v>0.8837277219222035</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.534074251727635</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.764038331660625</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.7629235800575167</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.8540741921761663</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8837277219222035</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1239.438191616681</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1227.560738498835</v>
       </c>
     </row>
     <row r="51">
@@ -2225,19 +3289,40 @@
         <v>21.91809850127133</v>
       </c>
       <c r="G51" t="n">
-        <v>76.52732240437159</v>
+        <v>0.2090910448206874</v>
       </c>
       <c r="H51" t="n">
-        <v>70.52161233039006</v>
+        <v>0.7666663492732353</v>
       </c>
       <c r="I51" t="n">
-        <v>72.32083481544721</v>
+        <v>0.7863498277478636</v>
       </c>
       <c r="J51" t="n">
-        <v>83.04846216788297</v>
+        <v>0.8934137611285652</v>
       </c>
       <c r="K51" t="n">
-        <v>83.38232829313121</v>
+        <v>0.896725393161853</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.302383047595657</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7666663492732353</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.7863498277478636</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.8934137611285652</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.896725393161853</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1231.777298246612</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1218.500729441681</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -563,22 +563,22 @@
         <v>3.072253744273802</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8793827160493828</v>
+        <v>3.699358639654039</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8671658012317353</v>
+        <v>3.844041820233113</v>
       </c>
       <c r="O2" t="n">
-        <v>1.074806662700774</v>
+        <v>2.818115620692633</v>
       </c>
       <c r="P2" t="n">
-        <v>0.974952741020794</v>
+        <v>1.984990373632038</v>
       </c>
       <c r="Q2" t="n">
-        <v>1064.550488501809</v>
+        <v>2.99873377042763</v>
       </c>
       <c r="R2" t="n">
-        <v>1048.295449252114</v>
+        <v>2.952944927470745</v>
       </c>
     </row>
     <row r="3">
@@ -619,22 +619,22 @@
         <v>3.153036031946054</v>
       </c>
       <c r="M3" t="n">
-        <v>0.880313897200344</v>
+        <v>3.990507698886901</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8580928832026605</v>
+        <v>3.408666838739039</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9765524452670001</v>
+        <v>3.104917385202422</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9712872108625968</v>
+        <v>2.237334244451061</v>
       </c>
       <c r="Q3" t="n">
-        <v>1155.557243211799</v>
+        <v>3.174607811021426</v>
       </c>
       <c r="R3" t="n">
-        <v>1137.739703939859</v>
+        <v>3.125658527307305</v>
       </c>
     </row>
     <row r="4">
@@ -675,22 +675,22 @@
         <v>3.161473151044455</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8189975696169383</v>
+        <v>3.836745623604937</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8070110002274125</v>
+        <v>3.411888573875737</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9561645265176355</v>
+        <v>3.214541816653041</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9529007713091249</v>
+        <v>2.303717149782941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1272.859341689905</v>
+        <v>3.496866323323916</v>
       </c>
       <c r="R4" t="n">
-        <v>1254.89175207869</v>
+        <v>3.447504813402996</v>
       </c>
     </row>
     <row r="5">
@@ -731,22 +731,22 @@
         <v>3.172651396133368</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8056566663666194</v>
+        <v>4.046201570521164</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8538590763193126</v>
+        <v>3.393611200512771</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9976489092008047</v>
+        <v>3.043872389727245</v>
       </c>
       <c r="P5" t="n">
-        <v>1.059233687751036</v>
+        <v>2.311574447647035</v>
       </c>
       <c r="Q5" t="n">
-        <v>1184.364920331448</v>
+        <v>3.336239212201261</v>
       </c>
       <c r="R5" t="n">
-        <v>1166.689154759946</v>
+        <v>3.286448323267455</v>
       </c>
     </row>
     <row r="6">
@@ -787,22 +787,22 @@
         <v>2.932999001835124</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8950377353909095</v>
+        <v>3.808065790735213</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8816391569950874</v>
+        <v>3.070688152315262</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9662095520922968</v>
+        <v>2.823202375599944</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9395155049253014</v>
+        <v>2.150923514866546</v>
       </c>
       <c r="Q6" t="n">
-        <v>1082.327252580537</v>
+        <v>2.965280144056265</v>
       </c>
       <c r="R6" t="n">
-        <v>1065.816556165196</v>
+        <v>2.9200453593567</v>
       </c>
     </row>
     <row r="7">
@@ -843,22 +843,22 @@
         <v>3.155304261341896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8535074311961587</v>
+        <v>4.008854125553483</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8038741262114473</v>
+        <v>3.789268273478889</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9142209604858332</v>
+        <v>2.748793429825918</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9764815117562529</v>
+        <v>2.188206336917732</v>
       </c>
       <c r="Q7" t="n">
-        <v>1133.509609811914</v>
+        <v>3.097020791835831</v>
       </c>
       <c r="R7" t="n">
-        <v>1118.428812496669</v>
+        <v>3.055816427586528</v>
       </c>
     </row>
     <row r="8">
@@ -899,22 +899,22 @@
         <v>2.882475103954831</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8978479368048474</v>
+        <v>3.539865240684654</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9133925702362289</v>
+        <v>3.231638431553856</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9539123606994903</v>
+        <v>2.551550895450022</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9496664084961904</v>
+        <v>2.323444839027414</v>
       </c>
       <c r="Q8" t="n">
-        <v>1078.399279765718</v>
+        <v>2.962635383971752</v>
       </c>
       <c r="R8" t="n">
-        <v>1061.64808433441</v>
+        <v>2.916615616303325</v>
       </c>
     </row>
     <row r="9">
@@ -955,22 +955,22 @@
         <v>2.997876476071015</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8389997343131858</v>
+        <v>3.730907143080788</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8969028879716341</v>
+        <v>3.366875641090505</v>
       </c>
       <c r="O9" t="n">
-        <v>2.851059902623</v>
+        <v>2.752211112920768</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9481273235359755</v>
+        <v>2.302568858935806</v>
       </c>
       <c r="Q9" t="n">
-        <v>938.3980709953667</v>
+        <v>3.10727838077936</v>
       </c>
       <c r="R9" t="n">
-        <v>925.2834054854596</v>
+        <v>3.063852336044568</v>
       </c>
     </row>
     <row r="10">
@@ -1011,22 +1011,22 @@
         <v>3.214599077210578</v>
       </c>
       <c r="M10" t="n">
-        <v>1.201619936723445</v>
+        <v>3.750835618660665</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8749255435664163</v>
+        <v>3.671765530186941</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9405688998795584</v>
+        <v>2.923299680891004</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9279239280864292</v>
+        <v>2.337669167520786</v>
       </c>
       <c r="Q10" t="n">
-        <v>1078.55279376197</v>
+        <v>3.248652993258945</v>
       </c>
       <c r="R10" t="n">
-        <v>1063.368356855383</v>
+        <v>3.202916737516214</v>
       </c>
     </row>
     <row r="11">
@@ -1067,22 +1067,22 @@
         <v>2.807983157527949</v>
       </c>
       <c r="M11" t="n">
-        <v>1.299222672204645</v>
+        <v>3.84104737676866</v>
       </c>
       <c r="N11" t="n">
-        <v>1.360622124574998</v>
+        <v>3.400316901143547</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9376111258152031</v>
+        <v>2.571034315483946</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9516691781578551</v>
+        <v>2.233546008233077</v>
       </c>
       <c r="Q11" t="n">
-        <v>883.2273373365568</v>
+        <v>2.895827335529694</v>
       </c>
       <c r="R11" t="n">
-        <v>869.5359429686431</v>
+        <v>2.850937517929977</v>
       </c>
     </row>
     <row r="12">
@@ -1123,22 +1123,22 @@
         <v>2.893470549339876</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8525060768731116</v>
+        <v>3.656251429649108</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8343630747644698</v>
+        <v>3.388223478690041</v>
       </c>
       <c r="O12" t="n">
-        <v>1.006597649772204</v>
+        <v>2.487666064108003</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9663222671524289</v>
+        <v>2.129604103149937</v>
       </c>
       <c r="Q12" t="n">
-        <v>1096.518574536221</v>
+        <v>3.04588492926728</v>
       </c>
       <c r="R12" t="n">
-        <v>1081.204989207021</v>
+        <v>3.003347192241725</v>
       </c>
     </row>
     <row r="13">
@@ -1179,22 +1179,22 @@
         <v>2.908901997519056</v>
       </c>
       <c r="M13" t="n">
-        <v>0.900246497421648</v>
+        <v>3.521503959662992</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8899691297035097</v>
+        <v>3.400889146099554</v>
       </c>
       <c r="O13" t="n">
-        <v>0.963048737791302</v>
+        <v>2.746685796100462</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9424582138784443</v>
+        <v>2.08563322339423</v>
       </c>
       <c r="Q13" t="n">
-        <v>1116.385377936771</v>
+        <v>3.075441812497992</v>
       </c>
       <c r="R13" t="n">
-        <v>1099.220778538098</v>
+        <v>3.028156414705505</v>
       </c>
     </row>
     <row r="14">
@@ -1235,22 +1235,22 @@
         <v>2.930019979787257</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7973950921601756</v>
+        <v>3.790171755989973</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7758591920214593</v>
+        <v>3.212083463130909</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9359597174784725</v>
+        <v>2.497976320415385</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9397380030971029</v>
+        <v>2.329874215896507</v>
       </c>
       <c r="Q14" t="n">
-        <v>1208.747353312004</v>
+        <v>3.31163658441645</v>
       </c>
       <c r="R14" t="n">
-        <v>1194.493450911962</v>
+        <v>3.272584797019075</v>
       </c>
     </row>
     <row r="15">
@@ -1291,22 +1291,22 @@
         <v>2.955626625342365</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7554398496669679</v>
+        <v>4.013493484056231</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7628035091404445</v>
+        <v>3.079194972921745</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9529697494940311</v>
+        <v>2.639858390359032</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9415098934313678</v>
+        <v>2.206978011715299</v>
       </c>
       <c r="Q15" t="n">
-        <v>1236.534627582791</v>
+        <v>3.378509911428389</v>
       </c>
       <c r="R15" t="n">
-        <v>1222.548312702981</v>
+        <v>3.340295936346942</v>
       </c>
     </row>
     <row r="16">
@@ -1347,22 +1347,22 @@
         <v>3.030354283032078</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8144142518332923</v>
+        <v>3.618210874834005</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8537329795325612</v>
+        <v>3.659614847459216</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9312326287511218</v>
+        <v>2.852359462088965</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9680932785790917</v>
+        <v>2.098824007385439</v>
       </c>
       <c r="Q16" t="n">
-        <v>1092.454362400442</v>
+        <v>2.993025650412171</v>
       </c>
       <c r="R16" t="n">
-        <v>1078.116324181374</v>
+        <v>2.953743353921573</v>
       </c>
     </row>
     <row r="17">
@@ -1403,22 +1403,22 @@
         <v>3.045338640288852</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8539277054631893</v>
+        <v>3.53917848789462</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8500004507884956</v>
+        <v>3.652961916436289</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9278037845733401</v>
+        <v>2.99336159871868</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9460028465593785</v>
+        <v>2.107831002392821</v>
       </c>
       <c r="Q17" t="n">
-        <v>1113.158493252068</v>
+        <v>3.049749296581009</v>
       </c>
       <c r="R17" t="n">
-        <v>1098.198681880781</v>
+        <v>3.008763512002139</v>
       </c>
     </row>
     <row r="18">
@@ -1459,22 +1459,22 @@
         <v>3.244663115172037</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8283596152339099</v>
+        <v>4.144040077836557</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7344342471260462</v>
+        <v>3.971675568932934</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9161067821106537</v>
+        <v>2.793535858744331</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9333584596935915</v>
+        <v>2.137974460335549</v>
       </c>
       <c r="Q18" t="n">
-        <v>1188.301991318833</v>
+        <v>3.282602185963626</v>
       </c>
       <c r="R18" t="n">
-        <v>1175.20969655975</v>
+        <v>3.246435625855662</v>
       </c>
     </row>
     <row r="19">
@@ -1515,22 +1515,22 @@
         <v>3.172090514505803</v>
       </c>
       <c r="M19" t="n">
-        <v>0.792154131097118</v>
+        <v>3.867602182846074</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7973353984116806</v>
+        <v>3.676633386380138</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9306375362455235</v>
+        <v>2.963869669884761</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9233144327102663</v>
+        <v>2.310445515897249</v>
       </c>
       <c r="Q19" t="n">
-        <v>1187.403994104189</v>
+        <v>3.244273207934943</v>
       </c>
       <c r="R19" t="n">
-        <v>1172.982462964524</v>
+        <v>3.204870117389411</v>
       </c>
     </row>
     <row r="20">
@@ -1571,22 +1571,22 @@
         <v>3.099174256665427</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7725669326087774</v>
+        <v>3.882172471245632</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8182341909670827</v>
+        <v>3.56913723899181</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9209511622798022</v>
+        <v>2.738025188960657</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9280391439547152</v>
+        <v>2.325959654451382</v>
       </c>
       <c r="Q20" t="n">
-        <v>1131.504524567627</v>
+        <v>3.100012396075689</v>
       </c>
       <c r="R20" t="n">
-        <v>1118.232397530418</v>
+        <v>3.063650404192925</v>
       </c>
     </row>
     <row r="21">
@@ -1627,22 +1627,22 @@
         <v>3.105230628610899</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7650336502385936</v>
+        <v>3.803663077307502</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8221009822715816</v>
+        <v>3.627903816482994</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9126796964983789</v>
+        <v>2.749450146530271</v>
       </c>
       <c r="P21" t="n">
-        <v>0.911262764549144</v>
+        <v>2.355781738151641</v>
       </c>
       <c r="Q21" t="n">
-        <v>1168.574830344288</v>
+        <v>3.201574877655584</v>
       </c>
       <c r="R21" t="n">
-        <v>1155.036502391387</v>
+        <v>3.164483568195582</v>
       </c>
     </row>
     <row r="22">
@@ -1683,22 +1683,22 @@
         <v>2.873890669703638</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8244789557916113</v>
+        <v>3.911247889051665</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7768916174052187</v>
+        <v>2.982149119543752</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9223668099830455</v>
+        <v>2.698855299693037</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9132692890789874</v>
+        <v>2.011455818606779</v>
       </c>
       <c r="Q22" t="n">
-        <v>1150.155145178532</v>
+        <v>3.177224157951746</v>
       </c>
       <c r="R22" t="n">
-        <v>1137.224466785314</v>
+        <v>3.141504051893132</v>
       </c>
     </row>
     <row r="23">
@@ -1739,22 +1739,22 @@
         <v>2.853519214062512</v>
       </c>
       <c r="M23" t="n">
-        <v>0.777740764327969</v>
+        <v>3.44615399220356</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8255979823230776</v>
+        <v>3.266982352640994</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9208320376665859</v>
+        <v>2.537883976944165</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8954292614944563</v>
+        <v>2.286305613204188</v>
       </c>
       <c r="Q23" t="n">
-        <v>1189.800503614895</v>
+        <v>3.277687337782079</v>
       </c>
       <c r="R23" t="n">
-        <v>1175.757215875296</v>
+        <v>3.239000594697786</v>
       </c>
     </row>
     <row r="24">
@@ -1795,22 +1795,22 @@
         <v>3.053152009726675</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7554046593536208</v>
+        <v>3.739939215884886</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7549602219517356</v>
+        <v>3.702961918815074</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9114745600818339</v>
+        <v>2.583453902287224</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9100774372946</v>
+        <v>2.284743354191739</v>
       </c>
       <c r="Q24" t="n">
-        <v>1220.70006175905</v>
+        <v>3.353571598239149</v>
       </c>
       <c r="R24" t="n">
-        <v>1207.864860876003</v>
+        <v>3.318310057351656</v>
       </c>
     </row>
     <row r="25">
@@ -1851,22 +1851,22 @@
         <v>2.912080252298433</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8158258528744</v>
+        <v>3.332346989929195</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7851412824806124</v>
+        <v>3.416846772401468</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9031086335727885</v>
+        <v>2.802905176120544</v>
       </c>
       <c r="P25" t="n">
-        <v>0.9126784117955217</v>
+        <v>2.223008075488638</v>
       </c>
       <c r="Q25" t="n">
-        <v>1179.697202834386</v>
+        <v>3.249854553262771</v>
       </c>
       <c r="R25" t="n">
-        <v>1166.323652055001</v>
+        <v>3.213012815578515</v>
       </c>
     </row>
     <row r="26">
@@ -1907,22 +1907,22 @@
         <v>3.241477534447947</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7642982501052932</v>
+        <v>4.123232707187996</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8640001378194035</v>
+        <v>3.281239179517446</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9360707831561403</v>
+        <v>3.143532646983822</v>
       </c>
       <c r="P26" t="n">
-        <v>1.018811443378795</v>
+        <v>2.521732315808477</v>
       </c>
       <c r="Q26" t="n">
-        <v>1155.707852323368</v>
+        <v>3.22823422436695</v>
       </c>
       <c r="R26" t="n">
-        <v>1140.669819348982</v>
+        <v>3.186228545667547</v>
       </c>
     </row>
     <row r="27">
@@ -1963,22 +1963,22 @@
         <v>3.308751820388364</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8207116417592724</v>
+        <v>4.440914215635487</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7731993720731576</v>
+        <v>4.010750631078241</v>
       </c>
       <c r="O27" t="n">
-        <v>0.9155170215953635</v>
+        <v>2.711277674768063</v>
       </c>
       <c r="P27" t="n">
-        <v>0.9639529396843677</v>
+        <v>2.18910450265912</v>
       </c>
       <c r="Q27" t="n">
-        <v>1198.714067144729</v>
+        <v>3.30224260921413</v>
       </c>
       <c r="R27" t="n">
-        <v>1183.881892611858</v>
+        <v>3.261382624275091</v>
       </c>
     </row>
     <row r="28">
@@ -2019,22 +2019,22 @@
         <v>3.183174595657786</v>
       </c>
       <c r="M28" t="n">
-        <v>0.817125608424814</v>
+        <v>3.970205932175025</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8375223656213937</v>
+        <v>3.811364124001153</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9268567482303397</v>
+        <v>2.843014217786706</v>
       </c>
       <c r="P28" t="n">
-        <v>0.9073681418879589</v>
+        <v>2.253449283178028</v>
       </c>
       <c r="Q28" t="n">
-        <v>1161.009066263049</v>
+        <v>3.225025184064025</v>
       </c>
       <c r="R28" t="n">
-        <v>1146.740844035216</v>
+        <v>3.185391233431155</v>
       </c>
     </row>
     <row r="29">
@@ -2075,22 +2075,22 @@
         <v>3.13471226117112</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8152750859569856</v>
+        <v>3.979115424260097</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8314614225142744</v>
+        <v>3.571622125816775</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9633170011296784</v>
+        <v>2.895723563018659</v>
       </c>
       <c r="P29" t="n">
-        <v>0.9324087155177089</v>
+        <v>2.216987106497932</v>
       </c>
       <c r="Q29" t="n">
-        <v>1156.474947134833</v>
+        <v>3.239425622226422</v>
       </c>
       <c r="R29" t="n">
-        <v>1142.416144739825</v>
+        <v>3.200045223360855</v>
       </c>
     </row>
     <row r="30">
@@ -2131,22 +2131,22 @@
         <v>2.979474622042843</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8252512656338793</v>
+        <v>3.714825523554825</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9694003059537335</v>
+        <v>3.599658683109998</v>
       </c>
       <c r="O30" t="n">
-        <v>1.217543534081863</v>
+        <v>2.859999733183987</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9402767843347455</v>
+        <v>2.072069529311493</v>
       </c>
       <c r="Q30" t="n">
-        <v>1023.089168159178</v>
+        <v>3.138310331776621</v>
       </c>
       <c r="R30" t="n">
-        <v>1010.518665076415</v>
+        <v>3.099750506369372</v>
       </c>
     </row>
     <row r="31">
@@ -2187,22 +2187,22 @@
         <v>2.954497215184708</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7845459788993641</v>
+        <v>3.732352578249035</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8190085679390068</v>
+        <v>3.303328525640401</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9428663633992694</v>
+        <v>2.85240257709904</v>
       </c>
       <c r="P31" t="n">
-        <v>0.9129182746673363</v>
+        <v>2.063360771300629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1125.187272008697</v>
+        <v>3.099689454569413</v>
       </c>
       <c r="R31" t="n">
-        <v>1111.96396435528</v>
+        <v>3.06326160979416</v>
       </c>
     </row>
     <row r="32">
@@ -2243,22 +2243,22 @@
         <v>3.089237717263803</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7566400674048025</v>
+        <v>3.863005315335224</v>
       </c>
       <c r="N32" t="n">
-        <v>0.7930588320373613</v>
+        <v>3.544668649480786</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9303155254635187</v>
+        <v>2.819871610371935</v>
       </c>
       <c r="P32" t="n">
-        <v>0.9188224147299937</v>
+        <v>2.253057586036756</v>
       </c>
       <c r="Q32" t="n">
-        <v>1170.152854846459</v>
+        <v>3.232466449852097</v>
       </c>
       <c r="R32" t="n">
-        <v>1157.144408599925</v>
+        <v>3.196531515469407</v>
       </c>
     </row>
     <row r="33">
@@ -2299,22 +2299,22 @@
         <v>2.883032616529527</v>
       </c>
       <c r="M33" t="n">
-        <v>0.7371304493910377</v>
+        <v>3.517593840254347</v>
       </c>
       <c r="N33" t="n">
-        <v>0.849993123877797</v>
+        <v>3.019522507293128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9348925231008345</v>
+        <v>2.803089151769291</v>
       </c>
       <c r="P33" t="n">
-        <v>0.922840125521589</v>
+        <v>2.314352126768095</v>
       </c>
       <c r="Q33" t="n">
-        <v>1201.994336979046</v>
+        <v>3.293135169805607</v>
       </c>
       <c r="R33" t="n">
-        <v>1187.334315136629</v>
+        <v>3.252970726401724</v>
       </c>
     </row>
     <row r="34">
@@ -2355,22 +2355,22 @@
         <v>2.968011543538665</v>
       </c>
       <c r="M34" t="n">
-        <v>0.827513840480923</v>
+        <v>3.648028748580339</v>
       </c>
       <c r="N34" t="n">
-        <v>0.8646117610341598</v>
+        <v>3.391077324673871</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9419819107423323</v>
+        <v>2.781624772907822</v>
       </c>
       <c r="P34" t="n">
-        <v>0.9259124338522591</v>
+        <v>2.149271307866971</v>
       </c>
       <c r="Q34" t="n">
-        <v>1126.394350766067</v>
+        <v>3.094489974632051</v>
       </c>
       <c r="R34" t="n">
-        <v>1111.256993512407</v>
+        <v>3.052903828330789</v>
       </c>
     </row>
     <row r="35">
@@ -2411,22 +2411,22 @@
         <v>3.086061783836779</v>
       </c>
       <c r="M35" t="n">
-        <v>0.792033270600227</v>
+        <v>3.476619216694736</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8818819721967195</v>
+        <v>3.752295257904458</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9224884194128949</v>
+        <v>2.929148378862371</v>
       </c>
       <c r="P35" t="n">
-        <v>0.9122076928678936</v>
+        <v>2.306109680205379</v>
       </c>
       <c r="Q35" t="n">
-        <v>1137.67126854095</v>
+        <v>3.108391444100955</v>
       </c>
       <c r="R35" t="n">
-        <v>1122.710568679071</v>
+        <v>3.067515214970141</v>
       </c>
     </row>
     <row r="36">
@@ -2467,22 +2467,22 @@
         <v>3.036118413138077</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8154064238605678</v>
+        <v>3.47792253988437</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8672722958546307</v>
+        <v>3.66925908130181</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9296931106355639</v>
+        <v>2.820744235135612</v>
       </c>
       <c r="P36" t="n">
-        <v>0.9482410453323331</v>
+        <v>2.293543986473282</v>
       </c>
       <c r="Q36" t="n">
-        <v>1112.742670718976</v>
+        <v>3.048610056764317</v>
       </c>
       <c r="R36" t="n">
-        <v>1097.790137341208</v>
+        <v>3.00764421189372</v>
       </c>
     </row>
     <row r="37">
@@ -2523,22 +2523,22 @@
         <v>3.102439103468822</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8371377044967729</v>
+        <v>3.574731177940508</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8700479739519206</v>
+        <v>3.562670679664481</v>
       </c>
       <c r="O37" t="n">
-        <v>0.9248499164828256</v>
+        <v>3.05675407837514</v>
       </c>
       <c r="P37" t="n">
-        <v>0.9357216730913673</v>
+        <v>2.331623895301316</v>
       </c>
       <c r="Q37" t="n">
-        <v>1137.30845978098</v>
+        <v>3.11591358844104</v>
       </c>
       <c r="R37" t="n">
-        <v>1121.587148117834</v>
+        <v>3.072841501692695</v>
       </c>
     </row>
     <row r="38">
@@ -2579,22 +2579,22 @@
         <v>3.230576499557208</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8529428565067281</v>
+        <v>3.838161133807642</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8454136031848754</v>
+        <v>3.878361267003789</v>
       </c>
       <c r="O38" t="n">
-        <v>0.9022831817009076</v>
+        <v>2.960766316145829</v>
       </c>
       <c r="P38" t="n">
-        <v>0.8925963754339664</v>
+        <v>2.359293405841554</v>
       </c>
       <c r="Q38" t="n">
-        <v>1176.150147150221</v>
+        <v>3.222329170274579</v>
       </c>
       <c r="R38" t="n">
-        <v>1160.662766646344</v>
+        <v>3.179897990811902</v>
       </c>
     </row>
     <row r="39">
@@ -2635,22 +2635,22 @@
         <v>3.248703930690103</v>
       </c>
       <c r="M39" t="n">
-        <v>0.761484475649862</v>
+        <v>3.905940539794564</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8422709109531682</v>
+        <v>3.971240670321139</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8973183226821481</v>
+        <v>2.775679713456294</v>
       </c>
       <c r="P39" t="n">
-        <v>0.9158663275490824</v>
+        <v>2.470051598903392</v>
       </c>
       <c r="Q39" t="n">
-        <v>1193.220187984015</v>
+        <v>3.260164448043757</v>
       </c>
       <c r="R39" t="n">
-        <v>1178.854106656271</v>
+        <v>3.220912859716587</v>
       </c>
     </row>
     <row r="40">
@@ -2691,22 +2691,22 @@
         <v>3.319395383260744</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7613285783303272</v>
+        <v>4.179090102435078</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8353873047833538</v>
+        <v>3.656895281474748</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9074784166260258</v>
+        <v>3.000783394266755</v>
       </c>
       <c r="P40" t="n">
-        <v>0.9237849558515536</v>
+        <v>2.563558702385204</v>
       </c>
       <c r="Q40" t="n">
-        <v>1224.725525130694</v>
+        <v>3.35541239761834</v>
       </c>
       <c r="R40" t="n">
-        <v>1209.696195065111</v>
+        <v>3.314236150863317</v>
       </c>
     </row>
     <row r="41">
@@ -2747,22 +2747,22 @@
         <v>3.373982682823876</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8110816455034975</v>
+        <v>3.940712225525014</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8379223991431933</v>
+        <v>3.957142186745301</v>
       </c>
       <c r="O41" t="n">
-        <v>0.908661091495348</v>
+        <v>3.065409782444831</v>
       </c>
       <c r="P41" t="n">
-        <v>0.893776439621438</v>
+        <v>2.659434561999215</v>
       </c>
       <c r="Q41" t="n">
-        <v>1243.006307160838</v>
+        <v>3.405496731947502</v>
       </c>
       <c r="R41" t="n">
-        <v>1227.380900733626</v>
+        <v>3.362687399270208</v>
       </c>
     </row>
     <row r="42">
@@ -2803,22 +2803,22 @@
         <v>3.272129254517834</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7360260594624078</v>
+        <v>3.837340984878234</v>
       </c>
       <c r="N42" t="n">
-        <v>0.8176353003742475</v>
+        <v>3.945599051841738</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8812510232858572</v>
+        <v>2.828356855778526</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8767596616776491</v>
+        <v>2.605987993351561</v>
       </c>
       <c r="Q42" t="n">
-        <v>1217.855384836402</v>
+        <v>3.336590095442196</v>
       </c>
       <c r="R42" t="n">
-        <v>1204.968472388634</v>
+        <v>3.301283485996257</v>
       </c>
     </row>
     <row r="43">
@@ -2859,22 +2859,22 @@
         <v>3.148593133579732</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7885202301726196</v>
+        <v>3.8026817893279</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8130440327617889</v>
+        <v>3.346400347572899</v>
       </c>
       <c r="O43" t="n">
-        <v>0.9034595050830915</v>
+        <v>3.096401381651126</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8804202220772304</v>
+        <v>2.484772411548417</v>
       </c>
       <c r="Q43" t="n">
-        <v>1148.554419742526</v>
+        <v>3.138126829897613</v>
       </c>
       <c r="R43" t="n">
-        <v>1135.53636937916</v>
+        <v>3.102558386281859</v>
       </c>
     </row>
     <row r="44">
@@ -2915,22 +2915,22 @@
         <v>3.528252002592857</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7236775950901447</v>
+        <v>4.054026374474362</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7927560734250407</v>
+        <v>3.978864301831649</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8798646246302572</v>
+        <v>3.466712083637529</v>
       </c>
       <c r="P44" t="n">
-        <v>0.8332798228050659</v>
+        <v>2.73816186028455</v>
       </c>
       <c r="Q44" t="n">
-        <v>1255.540779161975</v>
+        <v>3.458790025239599</v>
       </c>
       <c r="R44" t="n">
-        <v>1243.478474011509</v>
+        <v>3.425560534466967</v>
       </c>
     </row>
     <row r="45">
@@ -2971,22 +2971,22 @@
         <v>3.511000834855032</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7047807009376654</v>
+        <v>4.164489778051403</v>
       </c>
       <c r="N45" t="n">
-        <v>0.7787456534323662</v>
+        <v>4.062373148266188</v>
       </c>
       <c r="O45" t="n">
-        <v>0.9234262599981841</v>
+        <v>3.110935503433029</v>
       </c>
       <c r="P45" t="n">
-        <v>0.9294569834347066</v>
+        <v>2.834556724425119</v>
       </c>
       <c r="Q45" t="n">
-        <v>1292.100580887829</v>
+        <v>3.549726870570959</v>
       </c>
       <c r="R45" t="n">
-        <v>1277.788726334405</v>
+        <v>3.510408588830782</v>
       </c>
     </row>
     <row r="46">
@@ -3027,22 +3027,22 @@
         <v>3.289932776205645</v>
       </c>
       <c r="M46" t="n">
-        <v>0.8062598494692514</v>
+        <v>3.677328961240744</v>
       </c>
       <c r="N46" t="n">
-        <v>0.9030591044016583</v>
+        <v>3.915291381207167</v>
       </c>
       <c r="O46" t="n">
-        <v>0.9275665673747635</v>
+        <v>3.102659247699398</v>
       </c>
       <c r="P46" t="n">
-        <v>0.9247317411369842</v>
+        <v>2.605801684537977</v>
       </c>
       <c r="Q46" t="n">
-        <v>1154.677689443337</v>
+        <v>3.172191454514663</v>
       </c>
       <c r="R46" t="n">
-        <v>1138.832321480688</v>
+        <v>3.128660223848045</v>
       </c>
     </row>
     <row r="47">
@@ -3083,22 +3083,22 @@
         <v>3.558017503695215</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7487992102221313</v>
+        <v>4.423849816734999</v>
       </c>
       <c r="N47" t="n">
-        <v>0.7040095470479895</v>
+        <v>3.973733812366073</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8550245234602286</v>
+        <v>3.100986473923193</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8677841129183763</v>
+        <v>2.865582688162887</v>
       </c>
       <c r="Q47" t="n">
-        <v>1292.864175492979</v>
+        <v>3.532415780035461</v>
       </c>
       <c r="R47" t="n">
-        <v>1281.536433948466</v>
+        <v>3.501465666525863</v>
       </c>
     </row>
     <row r="48">
@@ -3139,22 +3139,22 @@
         <v>3.488820837484625</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7631788641000274</v>
+        <v>4.328790883143663</v>
       </c>
       <c r="N48" t="n">
-        <v>0.7484245875554942</v>
+        <v>3.994215889413212</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8592692609314108</v>
+        <v>3.073220921332516</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8541904281796926</v>
+        <v>2.693378128406479</v>
       </c>
       <c r="Q48" t="n">
-        <v>1231.619462639461</v>
+        <v>3.374299897642358</v>
       </c>
       <c r="R48" t="n">
-        <v>1220.019840704341</v>
+        <v>3.342520111518743</v>
       </c>
     </row>
     <row r="49">
@@ -3195,22 +3195,22 @@
         <v>3.590485750055861</v>
       </c>
       <c r="M49" t="n">
-        <v>0.7104864510622523</v>
+        <v>4.328685515776031</v>
       </c>
       <c r="N49" t="n">
-        <v>0.7701664562960459</v>
+        <v>4.024703981457222</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8839625790714711</v>
+        <v>3.279785086681038</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8714383495307395</v>
+        <v>2.870920308055243</v>
       </c>
       <c r="Q49" t="n">
-        <v>1268.286089343386</v>
+        <v>3.484302443251061</v>
       </c>
       <c r="R49" t="n">
-        <v>1256.001980504786</v>
+        <v>3.450554891496665</v>
       </c>
     </row>
     <row r="50">
@@ -3251,22 +3251,22 @@
         <v>3.534074251727635</v>
       </c>
       <c r="M50" t="n">
-        <v>0.764038331660625</v>
+        <v>4.359831360329322</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7629235800575167</v>
+        <v>4.133926617711299</v>
       </c>
       <c r="O50" t="n">
-        <v>0.8540741921761663</v>
+        <v>3.247957170064432</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8837277219222035</v>
+        <v>2.527237336855068</v>
       </c>
       <c r="Q50" t="n">
-        <v>1239.438191616681</v>
+        <v>3.395721072922413</v>
       </c>
       <c r="R50" t="n">
-        <v>1227.560738498835</v>
+        <v>3.36318010547626</v>
       </c>
     </row>
     <row r="51">
@@ -3307,22 +3307,22 @@
         <v>3.302383047595657</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7666663492732353</v>
+        <v>4.048587362994639</v>
       </c>
       <c r="N51" t="n">
-        <v>0.7863498277478636</v>
+        <v>3.843395628859939</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8934137611285652</v>
+        <v>3.021453499538698</v>
       </c>
       <c r="P51" t="n">
-        <v>0.896725393161853</v>
+        <v>2.438752134025587</v>
       </c>
       <c r="Q51" t="n">
-        <v>1231.777298246612</v>
+        <v>3.365511743843203</v>
       </c>
       <c r="R51" t="n">
-        <v>1218.500729441681</v>
+        <v>3.329236965687651</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,26 @@
           <t>ET0_ET0_PMT_CF</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>s11_ET0</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>s22_ET0</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>s33_ET0</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>s44_ET0</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +600,18 @@
       <c r="R2" t="n">
         <v>2.952944927470745</v>
       </c>
+      <c r="S2" t="n">
+        <v>3.699358639654039</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.844041820233113</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.818115620692633</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.984990373632038</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +668,18 @@
       <c r="R3" t="n">
         <v>3.125658527307305</v>
       </c>
+      <c r="S3" t="n">
+        <v>3.990507698886901</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.408666838739039</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.104917385202422</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.237334244451061</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +736,18 @@
       <c r="R4" t="n">
         <v>3.447504813402996</v>
       </c>
+      <c r="S4" t="n">
+        <v>3.836745623604937</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.411888573875737</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.214541816653041</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.303717149782941</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -748,6 +804,18 @@
       <c r="R5" t="n">
         <v>3.286448323267455</v>
       </c>
+      <c r="S5" t="n">
+        <v>4.046201570521164</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.393611200512771</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.043872389727245</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.311574447647035</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +872,18 @@
       <c r="R6" t="n">
         <v>2.9200453593567</v>
       </c>
+      <c r="S6" t="n">
+        <v>3.808065790735213</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.070688152315262</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.823202375599944</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.150923514866546</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -860,6 +940,18 @@
       <c r="R7" t="n">
         <v>3.055816427586528</v>
       </c>
+      <c r="S7" t="n">
+        <v>4.008854125553483</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.789268273478889</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.748793429825918</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.188206336917732</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -916,6 +1008,18 @@
       <c r="R8" t="n">
         <v>2.916615616303325</v>
       </c>
+      <c r="S8" t="n">
+        <v>3.539865240684654</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.231638431553856</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.551550895450022</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.323444839027414</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,6 +1076,18 @@
       <c r="R9" t="n">
         <v>3.063852336044568</v>
       </c>
+      <c r="S9" t="n">
+        <v>3.730907143080788</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.366875641090505</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.752211112920768</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.302568858935806</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1028,6 +1144,18 @@
       <c r="R10" t="n">
         <v>3.202916737516214</v>
       </c>
+      <c r="S10" t="n">
+        <v>3.750835618660665</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.671765530186941</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.923299680891004</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.337669167520786</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1084,6 +1212,18 @@
       <c r="R11" t="n">
         <v>2.850937517929977</v>
       </c>
+      <c r="S11" t="n">
+        <v>3.84104737676866</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.400316901143547</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.571034315483946</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.233546008233077</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1280,18 @@
       <c r="R12" t="n">
         <v>3.003347192241725</v>
       </c>
+      <c r="S12" t="n">
+        <v>3.656251429649108</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.388223478690041</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.487666064108003</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.129604103149937</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1196,6 +1348,18 @@
       <c r="R13" t="n">
         <v>3.028156414705505</v>
       </c>
+      <c r="S13" t="n">
+        <v>3.521503959662992</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.400889146099554</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.746685796100462</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.08563322339423</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1252,6 +1416,18 @@
       <c r="R14" t="n">
         <v>3.272584797019075</v>
       </c>
+      <c r="S14" t="n">
+        <v>3.790171755989973</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.212083463130909</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.497976320415385</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.329874215896507</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1308,6 +1484,18 @@
       <c r="R15" t="n">
         <v>3.340295936346942</v>
       </c>
+      <c r="S15" t="n">
+        <v>4.013493484056231</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.079194972921745</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.639858390359032</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.206978011715299</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1364,6 +1552,18 @@
       <c r="R16" t="n">
         <v>2.953743353921573</v>
       </c>
+      <c r="S16" t="n">
+        <v>3.618210874834005</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.659614847459216</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.852359462088965</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.098824007385439</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1420,6 +1620,18 @@
       <c r="R17" t="n">
         <v>3.008763512002139</v>
       </c>
+      <c r="S17" t="n">
+        <v>3.53917848789462</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.652961916436289</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.99336159871868</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.107831002392821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1476,6 +1688,18 @@
       <c r="R18" t="n">
         <v>3.246435625855662</v>
       </c>
+      <c r="S18" t="n">
+        <v>4.144040077836557</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.971675568932934</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.793535858744331</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.137974460335549</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1532,6 +1756,18 @@
       <c r="R19" t="n">
         <v>3.204870117389411</v>
       </c>
+      <c r="S19" t="n">
+        <v>3.867602182846074</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.676633386380138</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.963869669884761</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.310445515897249</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1588,6 +1824,18 @@
       <c r="R20" t="n">
         <v>3.063650404192925</v>
       </c>
+      <c r="S20" t="n">
+        <v>3.882172471245632</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.56913723899181</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.738025188960657</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.325959654451382</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1644,6 +1892,18 @@
       <c r="R21" t="n">
         <v>3.164483568195582</v>
       </c>
+      <c r="S21" t="n">
+        <v>3.803663077307502</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.627903816482994</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.749450146530271</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.355781738151641</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1700,6 +1960,18 @@
       <c r="R22" t="n">
         <v>3.141504051893132</v>
       </c>
+      <c r="S22" t="n">
+        <v>3.911247889051665</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.982149119543752</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.698855299693037</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.011455818606779</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1756,6 +2028,18 @@
       <c r="R23" t="n">
         <v>3.239000594697786</v>
       </c>
+      <c r="S23" t="n">
+        <v>3.44615399220356</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.266982352640994</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.537883976944165</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.286305613204188</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1812,6 +2096,18 @@
       <c r="R24" t="n">
         <v>3.318310057351656</v>
       </c>
+      <c r="S24" t="n">
+        <v>3.739939215884886</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.702961918815074</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.583453902287224</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.284743354191739</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1868,6 +2164,18 @@
       <c r="R25" t="n">
         <v>3.213012815578515</v>
       </c>
+      <c r="S25" t="n">
+        <v>3.332346989929195</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.416846772401468</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.802905176120544</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.223008075488638</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1924,6 +2232,18 @@
       <c r="R26" t="n">
         <v>3.186228545667547</v>
       </c>
+      <c r="S26" t="n">
+        <v>4.123232707187996</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.281239179517446</v>
+      </c>
+      <c r="U26" t="n">
+        <v>3.143532646983822</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.521732315808477</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1980,6 +2300,18 @@
       <c r="R27" t="n">
         <v>3.261382624275091</v>
       </c>
+      <c r="S27" t="n">
+        <v>4.440914215635487</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4.010750631078241</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.711277674768063</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.18910450265912</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2036,6 +2368,18 @@
       <c r="R28" t="n">
         <v>3.185391233431155</v>
       </c>
+      <c r="S28" t="n">
+        <v>3.970205932175025</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.811364124001153</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.843014217786706</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.253449283178028</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2092,6 +2436,18 @@
       <c r="R29" t="n">
         <v>3.200045223360855</v>
       </c>
+      <c r="S29" t="n">
+        <v>3.979115424260097</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.571622125816775</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.895723563018659</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.216987106497932</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2148,6 +2504,18 @@
       <c r="R30" t="n">
         <v>3.099750506369372</v>
       </c>
+      <c r="S30" t="n">
+        <v>3.714825523554825</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.599658683109998</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.859999733183987</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.072069529311493</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2204,6 +2572,18 @@
       <c r="R31" t="n">
         <v>3.06326160979416</v>
       </c>
+      <c r="S31" t="n">
+        <v>3.732352578249035</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.303328525640401</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.85240257709904</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.063360771300629</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2260,6 +2640,18 @@
       <c r="R32" t="n">
         <v>3.196531515469407</v>
       </c>
+      <c r="S32" t="n">
+        <v>3.863005315335224</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.544668649480786</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.819871610371935</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.253057586036756</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2316,6 +2708,18 @@
       <c r="R33" t="n">
         <v>3.252970726401724</v>
       </c>
+      <c r="S33" t="n">
+        <v>3.517593840254347</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.019522507293128</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.803089151769291</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.314352126768095</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2372,6 +2776,18 @@
       <c r="R34" t="n">
         <v>3.052903828330789</v>
       </c>
+      <c r="S34" t="n">
+        <v>3.648028748580339</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.391077324673871</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.781624772907822</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.149271307866971</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2428,6 +2844,18 @@
       <c r="R35" t="n">
         <v>3.067515214970141</v>
       </c>
+      <c r="S35" t="n">
+        <v>3.476619216694736</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.752295257904458</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.929148378862371</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.306109680205379</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2484,6 +2912,18 @@
       <c r="R36" t="n">
         <v>3.00764421189372</v>
       </c>
+      <c r="S36" t="n">
+        <v>3.47792253988437</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.66925908130181</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.820744235135612</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.293543986473282</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2540,6 +2980,18 @@
       <c r="R37" t="n">
         <v>3.072841501692695</v>
       </c>
+      <c r="S37" t="n">
+        <v>3.574731177940508</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.562670679664481</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3.05675407837514</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.331623895301316</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2596,6 +3048,18 @@
       <c r="R38" t="n">
         <v>3.179897990811902</v>
       </c>
+      <c r="S38" t="n">
+        <v>3.838161133807642</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.878361267003789</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.960766316145829</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.359293405841554</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2652,6 +3116,18 @@
       <c r="R39" t="n">
         <v>3.220912859716587</v>
       </c>
+      <c r="S39" t="n">
+        <v>3.905940539794564</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.971240670321139</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.775679713456294</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.470051598903392</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2708,6 +3184,18 @@
       <c r="R40" t="n">
         <v>3.314236150863317</v>
       </c>
+      <c r="S40" t="n">
+        <v>4.179090102435078</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.656895281474748</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3.000783394266755</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.563558702385204</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2764,6 +3252,18 @@
       <c r="R41" t="n">
         <v>3.362687399270208</v>
       </c>
+      <c r="S41" t="n">
+        <v>3.940712225525014</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.957142186745301</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.065409782444831</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.659434561999215</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2820,6 +3320,18 @@
       <c r="R42" t="n">
         <v>3.301283485996257</v>
       </c>
+      <c r="S42" t="n">
+        <v>3.837340984878234</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.945599051841738</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.828356855778526</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.605987993351561</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2876,6 +3388,18 @@
       <c r="R43" t="n">
         <v>3.102558386281859</v>
       </c>
+      <c r="S43" t="n">
+        <v>3.8026817893279</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.346400347572899</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3.096401381651126</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.484772411548417</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2932,6 +3456,18 @@
       <c r="R44" t="n">
         <v>3.425560534466967</v>
       </c>
+      <c r="S44" t="n">
+        <v>4.054026374474362</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.978864301831649</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3.466712083637529</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.73816186028455</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2988,6 +3524,18 @@
       <c r="R45" t="n">
         <v>3.510408588830782</v>
       </c>
+      <c r="S45" t="n">
+        <v>4.164489778051403</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4.062373148266188</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3.110935503433029</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.834556724425119</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3044,6 +3592,18 @@
       <c r="R46" t="n">
         <v>3.128660223848045</v>
       </c>
+      <c r="S46" t="n">
+        <v>3.677328961240744</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.915291381207167</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3.102659247699398</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.605801684537977</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3100,6 +3660,18 @@
       <c r="R47" t="n">
         <v>3.501465666525863</v>
       </c>
+      <c r="S47" t="n">
+        <v>4.423849816734999</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.973733812366073</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.100986473923193</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.865582688162887</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3156,6 +3728,18 @@
       <c r="R48" t="n">
         <v>3.342520111518743</v>
       </c>
+      <c r="S48" t="n">
+        <v>4.328790883143663</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.994215889413212</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3.073220921332516</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.693378128406479</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3212,6 +3796,18 @@
       <c r="R49" t="n">
         <v>3.450554891496665</v>
       </c>
+      <c r="S49" t="n">
+        <v>4.328685515776031</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.024703981457222</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3.279785086681038</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.870920308055243</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3268,6 +3864,18 @@
       <c r="R50" t="n">
         <v>3.36318010547626</v>
       </c>
+      <c r="S50" t="n">
+        <v>4.359831360329322</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4.133926617711299</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3.247957170064432</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.527237336855068</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3323,6 +3931,18 @@
       </c>
       <c r="R51" t="n">
         <v>3.329236965687651</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.048587362994639</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.843395628859939</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.021453499538698</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.438752134025587</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -601,16 +601,16 @@
         <v>2.952944927470745</v>
       </c>
       <c r="S2" t="n">
-        <v>3.699358639654039</v>
+        <v>225.3588207125744</v>
       </c>
       <c r="T2" t="n">
-        <v>3.844041820233113</v>
+        <v>361.9257312092618</v>
       </c>
       <c r="U2" t="n">
-        <v>2.818115620692633</v>
+        <v>291.4974244086102</v>
       </c>
       <c r="V2" t="n">
-        <v>1.984990373632038</v>
+        <v>211.8681028867535</v>
       </c>
     </row>
     <row r="3">
@@ -669,16 +669,16 @@
         <v>3.125658527307305</v>
       </c>
       <c r="S3" t="n">
-        <v>3.990507698886901</v>
+        <v>472.8290385983364</v>
       </c>
       <c r="T3" t="n">
-        <v>3.408666838739039</v>
+        <v>716.4510320394493</v>
       </c>
       <c r="U3" t="n">
-        <v>3.104917385202422</v>
+        <v>611.485610480439</v>
       </c>
       <c r="V3" t="n">
-        <v>2.237334244451061</v>
+        <v>437.5895137273391</v>
       </c>
     </row>
     <row r="4">
@@ -737,16 +737,16 @@
         <v>3.447504813402996</v>
       </c>
       <c r="S4" t="n">
-        <v>3.836745623604937</v>
+        <v>716.4089037984537</v>
       </c>
       <c r="T4" t="n">
-        <v>3.411888573875737</v>
+        <v>1079.379424419534</v>
       </c>
       <c r="U4" t="n">
-        <v>3.214541816653041</v>
+        <v>934.4157214992254</v>
       </c>
       <c r="V4" t="n">
-        <v>2.303717149782941</v>
+        <v>658.9273721085334</v>
       </c>
     </row>
     <row r="5">
@@ -805,16 +805,16 @@
         <v>3.286448323267455</v>
       </c>
       <c r="S5" t="n">
-        <v>4.046201570521164</v>
+        <v>998.178686837478</v>
       </c>
       <c r="T5" t="n">
-        <v>3.393611200512771</v>
+        <v>1442.676444720926</v>
       </c>
       <c r="U5" t="n">
-        <v>3.043872389727245</v>
+        <v>1227.754995194134</v>
       </c>
       <c r="V5" t="n">
-        <v>2.311574447647035</v>
+        <v>846.812540700554</v>
       </c>
     </row>
     <row r="6">
@@ -873,16 +873,16 @@
         <v>2.9200453593567</v>
       </c>
       <c r="S6" t="n">
-        <v>3.808065790735213</v>
+        <v>1238.783917049627</v>
       </c>
       <c r="T6" t="n">
-        <v>3.070688152315262</v>
+        <v>1794.271935076984</v>
       </c>
       <c r="U6" t="n">
-        <v>2.823202375599944</v>
+        <v>1506.681569591642</v>
       </c>
       <c r="V6" t="n">
-        <v>2.150923514866546</v>
+        <v>1046.229881404658</v>
       </c>
     </row>
     <row r="7">
@@ -941,16 +941,16 @@
         <v>3.055816427586528</v>
       </c>
       <c r="S7" t="n">
-        <v>4.008854125553483</v>
+        <v>1479.844092965762</v>
       </c>
       <c r="T7" t="n">
-        <v>3.789268273478889</v>
+        <v>2189.822120348723</v>
       </c>
       <c r="U7" t="n">
-        <v>2.748793429825918</v>
+        <v>1832.031567244578</v>
       </c>
       <c r="V7" t="n">
-        <v>2.188206336917732</v>
+        <v>1239.110882214983</v>
       </c>
     </row>
     <row r="8">
@@ -1009,16 +1009,16 @@
         <v>2.916615616303325</v>
       </c>
       <c r="S8" t="n">
-        <v>3.539865240684654</v>
+        <v>1731.320835953851</v>
       </c>
       <c r="T8" t="n">
-        <v>3.231638431553856</v>
+        <v>2506.886587060691</v>
       </c>
       <c r="U8" t="n">
-        <v>2.551550895450022</v>
+        <v>2127.667387827219</v>
       </c>
       <c r="V8" t="n">
-        <v>2.323444839027414</v>
+        <v>1424.154789771845</v>
       </c>
     </row>
     <row r="9">
@@ -1077,16 +1077,16 @@
         <v>3.063852336044568</v>
       </c>
       <c r="S9" t="n">
-        <v>3.730907143080788</v>
+        <v>1972.224121211145</v>
       </c>
       <c r="T9" t="n">
-        <v>3.366875641090505</v>
+        <v>2844.449768490197</v>
       </c>
       <c r="U9" t="n">
-        <v>2.752211112920768</v>
+        <v>2224.235873854376</v>
       </c>
       <c r="V9" t="n">
-        <v>2.302568858935806</v>
+        <v>1654.478532831335</v>
       </c>
     </row>
     <row r="10">
@@ -1145,16 +1145,16 @@
         <v>3.202916737516214</v>
       </c>
       <c r="S10" t="n">
-        <v>3.750835618660665</v>
+        <v>2171.079237983507</v>
       </c>
       <c r="T10" t="n">
-        <v>3.671765530186941</v>
+        <v>3185.729358921948</v>
       </c>
       <c r="U10" t="n">
-        <v>2.923299680891004</v>
+        <v>2542.519266283521</v>
       </c>
       <c r="V10" t="n">
-        <v>2.337669167520786</v>
+        <v>1863.307326831993</v>
       </c>
     </row>
     <row r="11">
@@ -1213,16 +1213,16 @@
         <v>2.850937517929977</v>
       </c>
       <c r="S11" t="n">
-        <v>3.84104737676866</v>
+        <v>2317.855042455075</v>
       </c>
       <c r="T11" t="n">
-        <v>3.400316901143547</v>
+        <v>3407.271135413656</v>
       </c>
       <c r="U11" t="n">
-        <v>2.571034315483946</v>
+        <v>2836.846581375431</v>
       </c>
       <c r="V11" t="n">
-        <v>2.233546008233077</v>
+        <v>2057.097293822832</v>
       </c>
     </row>
     <row r="12">
@@ -1281,16 +1281,16 @@
         <v>3.003347192241725</v>
       </c>
       <c r="S12" t="n">
-        <v>3.656251429649108</v>
+        <v>2545.248548051915</v>
       </c>
       <c r="T12" t="n">
-        <v>3.388223478690041</v>
+        <v>3781.637672238893</v>
       </c>
       <c r="U12" t="n">
-        <v>2.487666064108003</v>
+        <v>3087.896239613021</v>
       </c>
       <c r="V12" t="n">
-        <v>2.129604103149937</v>
+        <v>2245.936990925515</v>
       </c>
     </row>
     <row r="13">
@@ -1349,16 +1349,16 @@
         <v>3.028156414705505</v>
       </c>
       <c r="S13" t="n">
-        <v>3.521503959662992</v>
+        <v>2773.762394980361</v>
       </c>
       <c r="T13" t="n">
-        <v>3.400889146099554</v>
+        <v>4100.005343082175</v>
       </c>
       <c r="U13" t="n">
-        <v>2.746685796100462</v>
+        <v>3385.290753229416</v>
       </c>
       <c r="V13" t="n">
-        <v>2.08563322339423</v>
+        <v>2457.59238463681</v>
       </c>
     </row>
     <row r="14">
@@ -1417,16 +1417,16 @@
         <v>3.272584797019075</v>
       </c>
       <c r="S14" t="n">
-        <v>3.790171755989973</v>
+        <v>3024.97256069832</v>
       </c>
       <c r="T14" t="n">
-        <v>3.212083463130909</v>
+        <v>4445.555004534282</v>
       </c>
       <c r="U14" t="n">
-        <v>2.497976320415385</v>
+        <v>3673.735778532792</v>
       </c>
       <c r="V14" t="n">
-        <v>2.329874215896507</v>
+        <v>2641.844824785721</v>
       </c>
     </row>
     <row r="15">
@@ -1485,16 +1485,16 @@
         <v>3.340295936346942</v>
       </c>
       <c r="S15" t="n">
-        <v>4.013493484056231</v>
+        <v>3284.879747389581</v>
       </c>
       <c r="T15" t="n">
-        <v>3.079194972921745</v>
+        <v>4797.780590289591</v>
       </c>
       <c r="U15" t="n">
-        <v>2.639858390359032</v>
+        <v>3944.19754050346</v>
       </c>
       <c r="V15" t="n">
-        <v>2.206978011715299</v>
+        <v>2841.009635243792</v>
       </c>
     </row>
     <row r="16">
@@ -1553,16 +1553,16 @@
         <v>2.953743353921573</v>
       </c>
       <c r="S16" t="n">
-        <v>3.618210874834005</v>
+        <v>3534.682582830501</v>
       </c>
       <c r="T16" t="n">
-        <v>3.659614847459216</v>
+        <v>5122.98453879739</v>
       </c>
       <c r="U16" t="n">
-        <v>2.852359462088965</v>
+        <v>4284.325999922396</v>
       </c>
       <c r="V16" t="n">
-        <v>2.098824007385439</v>
+        <v>3031.953705182844</v>
       </c>
     </row>
     <row r="17">
@@ -1621,16 +1621,16 @@
         <v>3.008763512002139</v>
       </c>
       <c r="S17" t="n">
-        <v>3.53917848789462</v>
+        <v>3779.589259991949</v>
       </c>
       <c r="T17" t="n">
-        <v>3.652961916436289</v>
+        <v>5450.997620007047</v>
       </c>
       <c r="U17" t="n">
-        <v>2.99336159871868</v>
+        <v>4610.369869714394</v>
       </c>
       <c r="V17" t="n">
-        <v>2.107831002392821</v>
+        <v>3244.538680725175</v>
       </c>
     </row>
     <row r="18">
@@ -1689,16 +1689,16 @@
         <v>3.246435625855662</v>
       </c>
       <c r="S18" t="n">
-        <v>4.144040077836557</v>
+        <v>4012.981411303076</v>
       </c>
       <c r="T18" t="n">
-        <v>3.971675568932934</v>
+        <v>5852.968454229524</v>
       </c>
       <c r="U18" t="n">
-        <v>2.793535858744331</v>
+        <v>4944.286972734667</v>
       </c>
       <c r="V18" t="n">
-        <v>2.137974460335549</v>
+        <v>3449.826639863575</v>
       </c>
     </row>
     <row r="19">
@@ -1757,16 +1757,16 @@
         <v>3.204870117389411</v>
       </c>
       <c r="S19" t="n">
-        <v>3.867602182846074</v>
+        <v>4270.703238920557</v>
       </c>
       <c r="T19" t="n">
-        <v>3.676633386380138</v>
+        <v>6216.115337591741</v>
       </c>
       <c r="U19" t="n">
-        <v>2.963869669884761</v>
+        <v>5265.971401215016</v>
       </c>
       <c r="V19" t="n">
-        <v>2.310445515897249</v>
+        <v>3668.258628712655</v>
       </c>
     </row>
     <row r="20">
@@ -1825,16 +1825,16 @@
         <v>3.063650404192925</v>
       </c>
       <c r="S20" t="n">
-        <v>3.882172471245632</v>
+        <v>4516.677802003444</v>
       </c>
       <c r="T20" t="n">
-        <v>3.56913723899181</v>
+        <v>6581.199041021559</v>
       </c>
       <c r="U20" t="n">
-        <v>2.738025188960657</v>
+        <v>5577.280747700001</v>
       </c>
       <c r="V20" t="n">
-        <v>2.325959654451382</v>
+        <v>3877.089619397844</v>
       </c>
     </row>
     <row r="21">
@@ -1893,16 +1893,16 @@
         <v>3.164483568195582</v>
       </c>
       <c r="S21" t="n">
-        <v>3.803663077307502</v>
+        <v>4772.566364028735</v>
       </c>
       <c r="T21" t="n">
-        <v>3.627903816482994</v>
+        <v>6939.672772184138</v>
       </c>
       <c r="U21" t="n">
-        <v>2.749450146530271</v>
+        <v>5892.917482206134</v>
       </c>
       <c r="V21" t="n">
-        <v>2.355781738151641</v>
+        <v>4080.49977114682</v>
       </c>
     </row>
     <row r="22">
@@ -1961,16 +1961,16 @@
         <v>3.141504051893132</v>
       </c>
       <c r="S22" t="n">
-        <v>3.911247889051665</v>
+        <v>5002.629754830175</v>
       </c>
       <c r="T22" t="n">
-        <v>2.982149119543752</v>
+        <v>7286.446411352328</v>
       </c>
       <c r="U22" t="n">
-        <v>2.698855299693037</v>
+        <v>6150.418917640794</v>
       </c>
       <c r="V22" t="n">
-        <v>2.011455818606779</v>
+        <v>4286.50972817524</v>
       </c>
     </row>
     <row r="23">
@@ -2029,16 +2029,16 @@
         <v>3.239000594697786</v>
       </c>
       <c r="S23" t="n">
-        <v>3.44615399220356</v>
+        <v>5233.039871181814</v>
       </c>
       <c r="T23" t="n">
-        <v>3.266982352640994</v>
+        <v>7623.059747481491</v>
       </c>
       <c r="U23" t="n">
-        <v>2.537883976944165</v>
+        <v>6419.087874397761</v>
       </c>
       <c r="V23" t="n">
-        <v>2.286305613204188</v>
+        <v>4486.644793642165</v>
       </c>
     </row>
     <row r="24">
@@ -2097,16 +2097,16 @@
         <v>3.318310057351656</v>
       </c>
       <c r="S24" t="n">
-        <v>3.739939215884886</v>
+        <v>5473.508183668153</v>
       </c>
       <c r="T24" t="n">
-        <v>3.702961918815074</v>
+        <v>7984.025002536089</v>
       </c>
       <c r="U24" t="n">
-        <v>2.583453902287224</v>
+        <v>6736.319620136603</v>
       </c>
       <c r="V24" t="n">
-        <v>2.284743354191739</v>
+        <v>4679.326811902892</v>
       </c>
     </row>
     <row r="25">
@@ -2165,16 +2165,16 @@
         <v>3.213012815578515</v>
       </c>
       <c r="S25" t="n">
-        <v>3.332346989929195</v>
+        <v>5696.073475628142</v>
       </c>
       <c r="T25" t="n">
-        <v>3.416846772401468</v>
+        <v>8294.835193448695</v>
       </c>
       <c r="U25" t="n">
-        <v>2.802905176120544</v>
+        <v>7043.816729610042</v>
       </c>
       <c r="V25" t="n">
-        <v>2.223008075488638</v>
+        <v>4895.539351141197</v>
       </c>
     </row>
     <row r="26">
@@ -2233,16 +2233,16 @@
         <v>3.186228545667547</v>
       </c>
       <c r="S26" t="n">
-        <v>4.123232707187996</v>
+        <v>5976.18369311993</v>
       </c>
       <c r="T26" t="n">
-        <v>3.281239179517446</v>
+        <v>8650.792337014933</v>
       </c>
       <c r="U26" t="n">
-        <v>3.143532646983822</v>
+        <v>7362.119212756003</v>
       </c>
       <c r="V26" t="n">
-        <v>2.521732315808477</v>
+        <v>5101.618464269575</v>
       </c>
     </row>
     <row r="27">
@@ -2301,16 +2301,16 @@
         <v>3.261382624275091</v>
       </c>
       <c r="S27" t="n">
-        <v>4.440914215635487</v>
+        <v>6244.814879661901</v>
       </c>
       <c r="T27" t="n">
-        <v>4.010750631078241</v>
+        <v>9053.657609840246</v>
       </c>
       <c r="U27" t="n">
-        <v>2.711277674768063</v>
+        <v>7711.368594553724</v>
       </c>
       <c r="V27" t="n">
-        <v>2.18910450265912</v>
+        <v>5281.949533905545</v>
       </c>
     </row>
     <row r="28">
@@ -2369,16 +2369,16 @@
         <v>3.185391233431155</v>
       </c>
       <c r="S28" t="n">
-        <v>3.970205932175025</v>
+        <v>6492.252920743477</v>
       </c>
       <c r="T28" t="n">
-        <v>3.811364124001153</v>
+        <v>9422.598262201267</v>
       </c>
       <c r="U28" t="n">
-        <v>2.843014217786706</v>
+        <v>8032.516946772381</v>
       </c>
       <c r="V28" t="n">
-        <v>2.253449283178028</v>
+        <v>5490.365342681091</v>
       </c>
     </row>
     <row r="29">
@@ -2437,16 +2437,16 @@
         <v>3.200045223360855</v>
       </c>
       <c r="S29" t="n">
-        <v>3.979115424260097</v>
+        <v>6721.223221528341</v>
       </c>
       <c r="T29" t="n">
-        <v>3.571622125816775</v>
+        <v>9793.692413905914</v>
       </c>
       <c r="U29" t="n">
-        <v>2.895723563018659</v>
+        <v>8345.8843141209</v>
       </c>
       <c r="V29" t="n">
-        <v>2.216987106497932</v>
+        <v>5696.025800081154</v>
       </c>
     </row>
     <row r="30">
@@ -2505,16 +2505,16 @@
         <v>3.099750506369372</v>
       </c>
       <c r="S30" t="n">
-        <v>3.714825523554825</v>
+        <v>6947.021159797669</v>
       </c>
       <c r="T30" t="n">
-        <v>3.599658683109998</v>
+        <v>10096.56174592036</v>
       </c>
       <c r="U30" t="n">
-        <v>2.859999733183987</v>
+        <v>8586.386313491115</v>
       </c>
       <c r="V30" t="n">
-        <v>2.072069529311493</v>
+        <v>5898.165257213125</v>
       </c>
     </row>
     <row r="31">
@@ -2573,16 +2573,16 @@
         <v>3.06326160979416</v>
       </c>
       <c r="S31" t="n">
-        <v>3.732352578249035</v>
+        <v>7180.431591727521</v>
       </c>
       <c r="T31" t="n">
-        <v>3.303328525640401</v>
+        <v>10441.41033529848</v>
       </c>
       <c r="U31" t="n">
-        <v>2.85240257709904</v>
+        <v>8874.725545571731</v>
       </c>
       <c r="V31" t="n">
-        <v>2.063360771300629</v>
+        <v>6104.049492936591</v>
       </c>
     </row>
     <row r="32">
@@ -2641,16 +2641,16 @@
         <v>3.196531515469407</v>
       </c>
       <c r="S32" t="n">
-        <v>3.863005315335224</v>
+        <v>7420.753589004809</v>
       </c>
       <c r="T32" t="n">
-        <v>3.544668649480786</v>
+        <v>10801.44369687892</v>
       </c>
       <c r="U32" t="n">
-        <v>2.819871610371935</v>
+        <v>9170.115306631296</v>
       </c>
       <c r="V32" t="n">
-        <v>2.253057586036756</v>
+        <v>6326.6084266688</v>
       </c>
     </row>
     <row r="33">
@@ -2709,16 +2709,16 @@
         <v>3.252970726401724</v>
       </c>
       <c r="S33" t="n">
-        <v>3.517593840254347</v>
+        <v>7660.633612912131</v>
       </c>
       <c r="T33" t="n">
-        <v>3.019522507293128</v>
+        <v>11129.86900472933</v>
       </c>
       <c r="U33" t="n">
-        <v>2.803089151769291</v>
+        <v>9438.816553271776</v>
       </c>
       <c r="V33" t="n">
-        <v>2.314352126768095</v>
+        <v>6541.908753303868</v>
       </c>
     </row>
     <row r="34">
@@ -2777,16 +2777,16 @@
         <v>3.052903828330789</v>
       </c>
       <c r="S34" t="n">
-        <v>3.648028748580339</v>
+        <v>7898.399897712057</v>
       </c>
       <c r="T34" t="n">
-        <v>3.391077324673871</v>
+        <v>11481.97715165079</v>
       </c>
       <c r="U34" t="n">
-        <v>2.781624772907822</v>
+        <v>9725.370420622801</v>
       </c>
       <c r="V34" t="n">
-        <v>2.149271307866971</v>
+        <v>6745.836656079542</v>
       </c>
     </row>
     <row r="35">
@@ -2845,16 +2845,16 @@
         <v>3.067515214970141</v>
       </c>
       <c r="S35" t="n">
-        <v>3.476619216694736</v>
+        <v>8134.790198256261</v>
       </c>
       <c r="T35" t="n">
-        <v>3.752295257904458</v>
+        <v>11815.3884372107</v>
       </c>
       <c r="U35" t="n">
-        <v>2.929148378862371</v>
+        <v>10057.54497796809</v>
       </c>
       <c r="V35" t="n">
-        <v>2.306109680205379</v>
+        <v>6973.359125514411</v>
       </c>
     </row>
     <row r="36">
@@ -2913,16 +2913,16 @@
         <v>3.00764421189372</v>
       </c>
       <c r="S36" t="n">
-        <v>3.47792253988437</v>
+        <v>8369.255425866786</v>
       </c>
       <c r="T36" t="n">
-        <v>3.66925908130181</v>
+        <v>12150.71862011089</v>
       </c>
       <c r="U36" t="n">
-        <v>2.820744235135612</v>
+        <v>10393.38246869325</v>
       </c>
       <c r="V36" t="n">
-        <v>2.293543986473282</v>
+        <v>7175.909445073933</v>
       </c>
     </row>
     <row r="37">
@@ -2981,16 +2981,16 @@
         <v>3.072841501692695</v>
       </c>
       <c r="S37" t="n">
-        <v>3.574731177940508</v>
+        <v>8610.480923299116</v>
       </c>
       <c r="T37" t="n">
-        <v>3.562670679664481</v>
+        <v>12498.15663863902</v>
       </c>
       <c r="U37" t="n">
-        <v>3.05675407837514</v>
+        <v>10714.20416680199</v>
       </c>
       <c r="V37" t="n">
-        <v>2.331623895301316</v>
+        <v>7398.814503770839</v>
       </c>
     </row>
     <row r="38">
@@ -3049,16 +3049,16 @@
         <v>3.179897990811902</v>
       </c>
       <c r="S38" t="n">
-        <v>3.838161133807642</v>
+        <v>8869.403279979089</v>
       </c>
       <c r="T38" t="n">
-        <v>3.878361267003789</v>
+        <v>12851.7929566943</v>
       </c>
       <c r="U38" t="n">
-        <v>2.960766316145829</v>
+        <v>11059.92001127257</v>
       </c>
       <c r="V38" t="n">
-        <v>2.359293405841554</v>
+        <v>7619.700406903379</v>
       </c>
     </row>
     <row r="39">
@@ -3117,16 +3117,16 @@
         <v>3.220912859716587</v>
       </c>
       <c r="S39" t="n">
-        <v>3.905940539794564</v>
+        <v>9134.872280788404</v>
       </c>
       <c r="T39" t="n">
-        <v>3.971240670321139</v>
+        <v>13225.47665783617</v>
       </c>
       <c r="U39" t="n">
-        <v>2.775679713456294</v>
+        <v>11392.40556303508</v>
       </c>
       <c r="V39" t="n">
-        <v>2.470051598903392</v>
+        <v>7837.087791822256</v>
       </c>
     </row>
     <row r="40">
@@ -3185,16 +3185,16 @@
         <v>3.314236150863317</v>
       </c>
       <c r="S40" t="n">
-        <v>4.179090102435078</v>
+        <v>9416.409548490414</v>
       </c>
       <c r="T40" t="n">
-        <v>3.656895281474748</v>
+        <v>13604.53941114086</v>
       </c>
       <c r="U40" t="n">
-        <v>3.000783394266755</v>
+        <v>11715.25216165445</v>
       </c>
       <c r="V40" t="n">
-        <v>2.563558702385204</v>
+        <v>8065.220487086358</v>
       </c>
     </row>
     <row r="41">
@@ -3253,16 +3253,16 @@
         <v>3.362687399270208</v>
       </c>
       <c r="S41" t="n">
-        <v>3.940712225525014</v>
+        <v>9697.101673024381</v>
       </c>
       <c r="T41" t="n">
-        <v>3.957142186745301</v>
+        <v>13985.18791699425</v>
       </c>
       <c r="U41" t="n">
-        <v>3.065409782444831</v>
+        <v>12045.12708630818</v>
       </c>
       <c r="V41" t="n">
-        <v>2.659434561999215</v>
+        <v>8305.508611275985</v>
       </c>
     </row>
     <row r="42">
@@ -3321,16 +3321,16 @@
         <v>3.301283485996257</v>
       </c>
       <c r="S42" t="n">
-        <v>3.837340984878234</v>
+        <v>9973.208855665847</v>
       </c>
       <c r="T42" t="n">
-        <v>3.945599051841738</v>
+        <v>14356.36664485933</v>
       </c>
       <c r="U42" t="n">
-        <v>2.828356855778526</v>
+        <v>12368.80491420142</v>
       </c>
       <c r="V42" t="n">
-        <v>2.605987993351561</v>
+        <v>8528.87205077519</v>
       </c>
     </row>
     <row r="43">
@@ -3389,16 +3389,16 @@
         <v>3.102558386281859</v>
       </c>
       <c r="S43" t="n">
-        <v>3.8026817893279</v>
+        <v>10234.35337536975</v>
       </c>
       <c r="T43" t="n">
-        <v>3.346400347572899</v>
+        <v>14706.231341755</v>
       </c>
       <c r="U43" t="n">
-        <v>3.096401381651126</v>
+        <v>12682.75393702671</v>
       </c>
       <c r="V43" t="n">
-        <v>2.484772411548417</v>
+        <v>8756.298898240495</v>
       </c>
     </row>
     <row r="44">
@@ -3457,16 +3457,16 @@
         <v>3.425560534466967</v>
       </c>
       <c r="S44" t="n">
-        <v>4.054026374474362</v>
+        <v>10515.2210396999</v>
       </c>
       <c r="T44" t="n">
-        <v>3.978864301831649</v>
+        <v>15094.01177594661</v>
       </c>
       <c r="U44" t="n">
-        <v>3.466712083637529</v>
+        <v>13031.98642429359</v>
       </c>
       <c r="V44" t="n">
-        <v>2.73816186028455</v>
+        <v>9019.173789393082</v>
       </c>
     </row>
     <row r="45">
@@ -3525,16 +3525,16 @@
         <v>3.510408588830782</v>
       </c>
       <c r="S45" t="n">
-        <v>4.164489778051403</v>
+        <v>10797.81558266021</v>
       </c>
       <c r="T45" t="n">
-        <v>4.062373148266188</v>
+        <v>15504.33058597363</v>
       </c>
       <c r="U45" t="n">
-        <v>3.110935503433029</v>
+        <v>13378.84461020204</v>
       </c>
       <c r="V45" t="n">
-        <v>2.834556724425119</v>
+        <v>9257.406554384523</v>
       </c>
     </row>
     <row r="46">
@@ -3593,16 +3593,16 @@
         <v>3.128660223848045</v>
       </c>
       <c r="S46" t="n">
-        <v>3.677328961240744</v>
+        <v>11068.33482224033</v>
       </c>
       <c r="T46" t="n">
-        <v>3.915291381207167</v>
+        <v>15848.95537568752</v>
       </c>
       <c r="U46" t="n">
-        <v>3.102659247699398</v>
+        <v>13731.69383009397</v>
       </c>
       <c r="V46" t="n">
-        <v>2.605801684537977</v>
+        <v>9486.948835737447</v>
       </c>
     </row>
     <row r="47">
@@ -3661,16 +3661,16 @@
         <v>3.501465666525863</v>
       </c>
       <c r="S47" t="n">
-        <v>4.423849816734999</v>
+        <v>11366.72039134735</v>
       </c>
       <c r="T47" t="n">
-        <v>3.973733812366073</v>
+        <v>16270.86669788201</v>
       </c>
       <c r="U47" t="n">
-        <v>3.100986473923193</v>
+        <v>14061.482885288</v>
       </c>
       <c r="V47" t="n">
-        <v>2.865582688162887</v>
+        <v>9739.09729559434</v>
       </c>
     </row>
     <row r="48">
@@ -3729,16 +3729,16 @@
         <v>3.342520111518743</v>
       </c>
       <c r="S48" t="n">
-        <v>4.328790883143663</v>
+        <v>11662.70322345256</v>
       </c>
       <c r="T48" t="n">
-        <v>3.994215889413212</v>
+        <v>16680.54809823562</v>
       </c>
       <c r="U48" t="n">
-        <v>3.073220921332516</v>
+        <v>14399.39246774692</v>
       </c>
       <c r="V48" t="n">
-        <v>2.693378128406479</v>
+        <v>9968.943086358489</v>
       </c>
     </row>
     <row r="49">
@@ -3797,16 +3797,16 @@
         <v>3.450554891496665</v>
       </c>
       <c r="S49" t="n">
-        <v>4.328685515776031</v>
+        <v>11955.84308574781</v>
       </c>
       <c r="T49" t="n">
-        <v>4.024703981457222</v>
+        <v>17096.30501884779</v>
       </c>
       <c r="U49" t="n">
-        <v>3.279785086681038</v>
+        <v>14750.06392512457</v>
       </c>
       <c r="V49" t="n">
-        <v>2.870920308055243</v>
+        <v>10216.31165909376</v>
       </c>
     </row>
     <row r="50">
@@ -3865,16 +3865,16 @@
         <v>3.36318010547626</v>
       </c>
       <c r="S50" t="n">
-        <v>4.359831360329322</v>
+        <v>12243.29586799014</v>
       </c>
       <c r="T50" t="n">
-        <v>4.133926617711299</v>
+        <v>17509.51444037089</v>
       </c>
       <c r="U50" t="n">
-        <v>3.247957170064432</v>
+        <v>15102.9667900261</v>
       </c>
       <c r="V50" t="n">
-        <v>2.527237336855068</v>
+        <v>10452.68369230739</v>
       </c>
     </row>
     <row r="51">
@@ -3933,16 +3933,16 @@
         <v>3.329236965687651</v>
       </c>
       <c r="S51" t="n">
-        <v>4.048587362994639</v>
+        <v>12509.17041843258</v>
       </c>
       <c r="T51" t="n">
-        <v>3.843395628859939</v>
+        <v>17884.01054419506</v>
       </c>
       <c r="U51" t="n">
-        <v>3.021453499538698</v>
+        <v>15438.28804713258</v>
       </c>
       <c r="V51" t="n">
-        <v>2.438752134025587</v>
+        <v>10685.66397635429</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/YearMeanER56959_景洪.xlsx
+++ b/my_work/data1/YearMeanER56959_景洪.xlsx
@@ -601,16 +601,16 @@
         <v>2.952944927470745</v>
       </c>
       <c r="S2" t="n">
-        <v>225.3588207125744</v>
+        <v>2.503986896806383</v>
       </c>
       <c r="T2" t="n">
-        <v>361.9257312092618</v>
+        <v>3.977205837464416</v>
       </c>
       <c r="U2" t="n">
-        <v>291.4974244086102</v>
+        <v>3.554846639129393</v>
       </c>
       <c r="V2" t="n">
-        <v>211.8681028867535</v>
+        <v>2.302914161812538</v>
       </c>
     </row>
     <row r="3">
@@ -669,16 +669,16 @@
         <v>3.125658527307305</v>
       </c>
       <c r="S3" t="n">
-        <v>472.8290385983364</v>
+        <v>2.746969283324926</v>
       </c>
       <c r="T3" t="n">
-        <v>716.4510320394493</v>
+        <v>3.93958798535881</v>
       </c>
       <c r="U3" t="n">
-        <v>611.485610480439</v>
+        <v>3.594922585677312</v>
       </c>
       <c r="V3" t="n">
-        <v>437.5895137273391</v>
+        <v>2.478525271765199</v>
       </c>
     </row>
     <row r="4">
@@ -737,16 +737,16 @@
         <v>3.447504813402996</v>
       </c>
       <c r="S4" t="n">
-        <v>716.4089037984537</v>
+        <v>2.736964827593796</v>
       </c>
       <c r="T4" t="n">
-        <v>1079.379424419534</v>
+        <v>4.031516267752123</v>
       </c>
       <c r="U4" t="n">
-        <v>934.4157214992254</v>
+        <v>3.549185147874604</v>
       </c>
       <c r="V4" t="n">
-        <v>658.9273721085334</v>
+        <v>2.459520699483069</v>
       </c>
     </row>
     <row r="5">
@@ -805,16 +805,16 @@
         <v>3.286448323267455</v>
       </c>
       <c r="S5" t="n">
-        <v>998.178686837478</v>
+        <v>3.161186087406869</v>
       </c>
       <c r="T5" t="n">
-        <v>1442.676444720926</v>
+        <v>4.036577324935661</v>
       </c>
       <c r="U5" t="n">
-        <v>1227.754995194134</v>
+        <v>3.298760653808698</v>
       </c>
       <c r="V5" t="n">
-        <v>846.812540700554</v>
+        <v>2.266008205851229</v>
       </c>
     </row>
     <row r="6">
@@ -873,16 +873,16 @@
         <v>2.9200453593567</v>
       </c>
       <c r="S6" t="n">
-        <v>1238.783917049627</v>
+        <v>2.708515736661738</v>
       </c>
       <c r="T6" t="n">
-        <v>1794.271935076984</v>
+        <v>3.908044699791148</v>
       </c>
       <c r="U6" t="n">
-        <v>1506.681569591642</v>
+        <v>3.067666685340396</v>
       </c>
       <c r="V6" t="n">
-        <v>1046.229881404658</v>
+        <v>2.192210314238639</v>
       </c>
     </row>
     <row r="7">
@@ -941,16 +941,16 @@
         <v>3.055816427586528</v>
       </c>
       <c r="S7" t="n">
-        <v>1479.844092965762</v>
+        <v>2.678776831349416</v>
       </c>
       <c r="T7" t="n">
-        <v>2189.822120348723</v>
+        <v>4.389650878808014</v>
       </c>
       <c r="U7" t="n">
-        <v>1832.031567244578</v>
+        <v>3.569757221068211</v>
       </c>
       <c r="V7" t="n">
-        <v>1239.110882214983</v>
+        <v>2.120360990484386</v>
       </c>
     </row>
     <row r="8">
@@ -1009,16 +1009,16 @@
         <v>2.916615616303325</v>
       </c>
       <c r="S8" t="n">
-        <v>1731.320835953851</v>
+        <v>2.855679997971217</v>
       </c>
       <c r="T8" t="n">
-        <v>2506.886587060691</v>
+        <v>3.532462830667848</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.667387827219</v>
+        <v>3.252234541344669</v>
       </c>
       <c r="V8" t="n">
-        <v>1424.154789771845</v>
+        <v>2.034394223340724</v>
       </c>
     </row>
     <row r="9">
@@ -1077,16 +1077,16 @@
         <v>3.063852336044568</v>
       </c>
       <c r="S9" t="n">
-        <v>1972.224121211145</v>
+        <v>2.708432947280715</v>
       </c>
       <c r="T9" t="n">
-        <v>2844.449768490197</v>
+        <v>3.78995160289081</v>
       </c>
       <c r="U9" t="n">
-        <v>2224.235873854376</v>
+        <v>3.327357352283413</v>
       </c>
       <c r="V9" t="n">
-        <v>1654.478532831335</v>
+        <v>2.525631926987289</v>
       </c>
     </row>
     <row r="10">
@@ -1145,16 +1145,16 @@
         <v>3.202916737516214</v>
       </c>
       <c r="S10" t="n">
-        <v>2171.079237983507</v>
+        <v>3.416331351180383</v>
       </c>
       <c r="T10" t="n">
-        <v>3185.729358921948</v>
+        <v>3.834106022607104</v>
       </c>
       <c r="U10" t="n">
-        <v>2542.519266283521</v>
+        <v>3.53418406353215</v>
       </c>
       <c r="V10" t="n">
-        <v>1863.307326831993</v>
+        <v>2.297330716604857</v>
       </c>
     </row>
     <row r="11">
@@ -1213,16 +1213,16 @@
         <v>2.850937517929977</v>
       </c>
       <c r="S11" t="n">
-        <v>2317.855042455075</v>
+        <v>2.503202263712481</v>
       </c>
       <c r="T11" t="n">
-        <v>3407.271135413656</v>
+        <v>3.694686598595318</v>
       </c>
       <c r="U11" t="n">
-        <v>2836.846581375431</v>
+        <v>3.237624990820023</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.097293822832</v>
+        <v>2.131383670733083</v>
       </c>
     </row>
     <row r="12">
@@ -1281,16 +1281,16 @@
         <v>3.003347192241725</v>
       </c>
       <c r="S12" t="n">
-        <v>2545.248548051915</v>
+        <v>2.554407865117268</v>
       </c>
       <c r="T12" t="n">
-        <v>3781.637672238893</v>
+        <v>4.154518938723453</v>
       </c>
       <c r="U12" t="n">
-        <v>3087.896239613021</v>
+        <v>2.922842335958754</v>
       </c>
       <c r="V12" t="n">
-        <v>2245.936990925515</v>
+        <v>2.075772617102348</v>
       </c>
     </row>
     <row r="13">
@@ -1349,16 +1349,16 @@
         <v>3.028156414705505</v>
       </c>
       <c r="S13" t="n">
-        <v>2773.762394980361</v>
+        <v>2.596272525770374</v>
       </c>
       <c r="T13" t="n">
-        <v>4100.005343082175</v>
+        <v>3.544199887714317</v>
       </c>
       <c r="U13" t="n">
-        <v>3385.290753229416</v>
+        <v>3.300190724751154</v>
       </c>
       <c r="V13" t="n">
-        <v>2457.59238463681</v>
+        <v>2.323164851395628</v>
       </c>
     </row>
     <row r="14">
@@ -1417,16 +1417,16 @@
         <v>3.272584797019075</v>
       </c>
       <c r="S14" t="n">
-        <v>3024.97256069832</v>
+        <v>2.820071536041429</v>
       </c>
       <c r="T14" t="n">
-        <v>4445.555004534282</v>
+        <v>3.836196278459561</v>
       </c>
       <c r="U14" t="n">
-        <v>3673.735778532792</v>
+        <v>3.171143652479635</v>
       </c>
       <c r="V14" t="n">
-        <v>2641.844824785721</v>
+        <v>2.027995706525066</v>
       </c>
     </row>
     <row r="15">
@@ -1485,16 +1485,16 @@
         <v>3.340295936346942</v>
       </c>
       <c r="S15" t="n">
-        <v>3284.879747389581</v>
+        <v>2.887112727772544</v>
       </c>
       <c r="T15" t="n">
-        <v>4797.780590289591</v>
+        <v>3.912766835535907</v>
       </c>
       <c r="U15" t="n">
-        <v>3944.19754050346</v>
+        <v>2.974270713295094</v>
       </c>
       <c r="V15" t="n">
-        <v>2841.009635243792</v>
+        <v>2.186878327876016</v>
       </c>
     </row>
     <row r="16">
@@ -1553,16 +1553,16 @@
         <v>2.953743353921573</v>
       </c>
       <c r="S16" t="n">
-        <v>3534.682582830501</v>
+        <v>2.807666090763273</v>
       </c>
       <c r="T16" t="n">
-        <v>5122.98453879739</v>
+        <v>3.616667201575095</v>
       </c>
       <c r="U16" t="n">
-        <v>4284.325999922396</v>
+        <v>3.729377501437306</v>
       </c>
       <c r="V16" t="n">
-        <v>3031.953705182844</v>
+        <v>2.099249437684003</v>
       </c>
     </row>
     <row r="17">
@@ -1621,16 +1621,16 @@
         <v>3.008763512002139</v>
       </c>
       <c r="S17" t="n">
-        <v>3779.589259991949</v>
+        <v>2.752381591691224</v>
       </c>
       <c r="T17" t="n">
-        <v>5450.997620007047</v>
+        <v>3.644282949573946</v>
       </c>
       <c r="U17" t="n">
-        <v>4610.369869714394</v>
+        <v>3.584491818406922</v>
       </c>
       <c r="V17" t="n">
-        <v>3244.538680725175</v>
+        <v>2.333524184565366</v>
       </c>
     </row>
     <row r="18">
@@ -1689,16 +1689,16 @@
         <v>3.246435625855662</v>
       </c>
       <c r="S18" t="n">
-        <v>4012.981411303076</v>
+        <v>2.714304975894447</v>
       </c>
       <c r="T18" t="n">
-        <v>5852.968454229524</v>
+        <v>4.457308979912641</v>
       </c>
       <c r="U18" t="n">
-        <v>4944.286972734667</v>
+        <v>3.668495596072617</v>
       </c>
       <c r="V18" t="n">
-        <v>3449.826639863575</v>
+        <v>2.256755253510513</v>
       </c>
     </row>
     <row r="19">
@@ -1757,16 +1757,16 @@
         <v>3.204870117389411</v>
       </c>
       <c r="S19" t="n">
-        <v>4270.703238920557</v>
+        <v>2.861935523004153</v>
       </c>
       <c r="T19" t="n">
-        <v>6216.115337591741</v>
+        <v>4.039606509254163</v>
       </c>
       <c r="U19" t="n">
-        <v>5265.971401215016</v>
+        <v>3.536444826917597</v>
       </c>
       <c r="V19" t="n">
-        <v>3668.258628712655</v>
+        <v>2.398790696767279</v>
       </c>
     </row>
     <row r="20">
@@ -1825,16 +1825,16 @@
         <v>3.063650404192925</v>
       </c>
       <c r="S20" t="n">
-        <v>4516.677802003444</v>
+        <v>2.764849984509918</v>
       </c>
       <c r="T20" t="n">
-        <v>6581.199041021559</v>
+        <v>4.056300109220533</v>
       </c>
       <c r="U20" t="n">
-        <v>5577.280747700001</v>
+        <v>3.422236862085954</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.089619397844</v>
+        <v>2.295975884586464</v>
       </c>
     </row>
     <row r="21">
@@ -1893,16 +1893,16 @@
         <v>3.164483568195582</v>
       </c>
       <c r="S21" t="n">
-        <v>4772.566364028735</v>
+        <v>2.873926800108904</v>
       </c>
       <c r="T21" t="n">
-        <v>6939.672772184138</v>
+        <v>3.98384649749225</v>
       </c>
       <c r="U21" t="n">
-        <v>5892.917482206134</v>
+        <v>3.468032297480661</v>
       </c>
       <c r="V21" t="n">
-        <v>4080.49977114682</v>
+        <v>2.235936169930045</v>
       </c>
     </row>
     <row r="22">
@@ -1961,16 +1961,16 @@
         <v>3.141504051893132</v>
       </c>
       <c r="S22" t="n">
-        <v>5002.629754830175</v>
+        <v>2.647014972744878</v>
       </c>
       <c r="T22" t="n">
-        <v>7286.446411352328</v>
+        <v>3.897305396285415</v>
       </c>
       <c r="U22" t="n">
-        <v>6150.418917640794</v>
+        <v>2.836624649262415</v>
       </c>
       <c r="V22" t="n">
-        <v>4286.50972817524</v>
+        <v>2.263542317373374</v>
       </c>
     </row>
     <row r="23">
@@ -2029,16 +2029,16 @@
         <v>3.239000594697786</v>
       </c>
       <c r="S23" t="n">
-        <v>5233.039871181814</v>
+        <v>2.6483764923225</v>
       </c>
       <c r="T23" t="n">
-        <v>7623.059747481491</v>
+        <v>3.741875181598334</v>
       </c>
       <c r="U23" t="n">
-        <v>6419.087874397761</v>
+        <v>2.951147623980766</v>
       </c>
       <c r="V23" t="n">
-        <v>4486.644793642165</v>
+        <v>2.199984867220651</v>
       </c>
     </row>
     <row r="24">
@@ -2097,16 +2097,16 @@
         <v>3.318310057351656</v>
       </c>
       <c r="S24" t="n">
-        <v>5473.508183668153</v>
+        <v>2.701296544207364</v>
       </c>
       <c r="T24" t="n">
-        <v>7984.025002536089</v>
+        <v>4.007770661936271</v>
       </c>
       <c r="U24" t="n">
-        <v>6736.319620136603</v>
+        <v>3.518493333657412</v>
       </c>
       <c r="V24" t="n">
-        <v>4679.326811902892</v>
+        <v>2.118282642695048</v>
       </c>
     </row>
     <row r="25">
@@ -2165,16 +2165,16 @@
         <v>3.213012815578515</v>
       </c>
       <c r="S25" t="n">
-        <v>5696.073475628142</v>
+        <v>2.559847596638557</v>
       </c>
       <c r="T25" t="n">
-        <v>8294.835193448695</v>
+        <v>3.459538039280647</v>
       </c>
       <c r="U25" t="n">
-        <v>7043.816729610042</v>
+        <v>3.380604378337998</v>
       </c>
       <c r="V25" t="n">
-        <v>4895.539351141197</v>
+        <v>2.373161107402165</v>
       </c>
     </row>
     <row r="26">
@@ -2233,16 +2233,16 @@
         <v>3.186228545667547</v>
       </c>
       <c r="S26" t="n">
-        <v>5976.18369311993</v>
+        <v>3.140778500982485</v>
       </c>
       <c r="T26" t="n">
-        <v>8650.792337014933</v>
+        <v>3.949633863796856</v>
       </c>
       <c r="U26" t="n">
-        <v>7362.119212756003</v>
+        <v>3.496555299177194</v>
       </c>
       <c r="V26" t="n">
-        <v>5101.618464269575</v>
+        <v>2.452379696891579</v>
       </c>
     </row>
     <row r="27">
@@ -2301,16 +2301,16 @@
         <v>3.261382624275091</v>
       </c>
       <c r="S27" t="n">
-        <v>6244.814879661901</v>
+        <v>3.01968850047729</v>
       </c>
       <c r="T27" t="n">
-        <v>9053.657609840246</v>
+        <v>4.470493480100089</v>
       </c>
       <c r="U27" t="n">
-        <v>7711.368594553724</v>
+        <v>3.834194968444555</v>
       </c>
       <c r="V27" t="n">
-        <v>5281.949533905545</v>
+        <v>2.030927214809565</v>
       </c>
     </row>
     <row r="28">
@@ -2369,16 +2369,16 @@
         <v>3.185391233431155</v>
       </c>
       <c r="S28" t="n">
-        <v>6492.252920743477</v>
+        <v>2.846110563432418</v>
       </c>
       <c r="T28" t="n">
-        <v>9422.598262201267</v>
+        <v>4.243308475467261</v>
       </c>
       <c r="U28" t="n">
-        <v>8032.516946772381</v>
+        <v>3.532418991164186</v>
       </c>
       <c r="V28" t="n">
-        <v>5490.365342681091</v>
+        <v>2.287464521634315</v>
       </c>
     </row>
     <row r="29">
@@ -2437,16 +2437,16 @@
         <v>3.200045223360855</v>
       </c>
       <c r="S29" t="n">
-        <v>6721.223221528341</v>
+        <v>2.664556452279262</v>
       </c>
       <c r="T29" t="n">
-        <v>9793.692413905914</v>
+        <v>4.170416224223456</v>
       </c>
       <c r="U29" t="n">
-        <v>8345.8843141209</v>
+        <v>3.601133935678231</v>
       </c>
       <c r="V29" t="n">
-        <v>5696.025800081154</v>
+        <v>2.260303499148883</v>
       </c>
     </row>
     <row r="30">
@@ -2505,16 +2505,16 @@
         <v>3.099750506369372</v>
       </c>
       <c r="S30" t="n">
-        <v>6947.021159797669</v>
+        <v>2.566994322714693</v>
       </c>
       <c r="T30" t="n">
-        <v>10096.56174592036</v>
+        <v>3.936407028700998</v>
       </c>
       <c r="U30" t="n">
-        <v>8586.386313491115</v>
+        <v>3.487187618655603</v>
       </c>
       <c r="V30" t="n">
-        <v>5898.165257213125</v>
+        <v>2.29662652394516</v>
       </c>
     </row>
     <row r="31">
@@ -2573,16 +2573,16 @@
         <v>3.06326160979416</v>
       </c>
       <c r="S31" t="n">
-        <v>7180.431591727521</v>
+        <v>2.593158530247939</v>
       </c>
       <c r="T31" t="n">
-        <v>10441.41033529848</v>
+        <v>3.875388848964635</v>
       </c>
       <c r="U31" t="n">
-        <v>8874.725545571731</v>
+        <v>3.24251577443638</v>
       </c>
       <c r="V31" t="n">
-        <v>6104.049492936591</v>
+        <v>2.262835459210998</v>
       </c>
     </row>
     <row r="32">
@@ -2641,16 +2641,16 @@
         <v>3.196531515469407</v>
       </c>
       <c r="S32" t="n">
-        <v>7420.753589004809</v>
+        <v>2.699057286750391</v>
       </c>
       <c r="T32" t="n">
-        <v>10801.44369687892</v>
+        <v>4.088862364375285</v>
       </c>
       <c r="U32" t="n">
-        <v>9170.115306631296</v>
+        <v>3.281673371802205</v>
       </c>
       <c r="V32" t="n">
-        <v>6326.6084266688</v>
+        <v>2.44371488251543</v>
       </c>
     </row>
     <row r="33">
@@ -2709,16 +2709,16 @@
         <v>3.252970726401724</v>
       </c>
       <c r="S33" t="n">
-        <v>7660.633612912131</v>
+        <v>2.695323124378577</v>
       </c>
       <c r="T33" t="n">
-        <v>11129.86900472933</v>
+        <v>3.654001870492083</v>
       </c>
       <c r="U33" t="n">
-        <v>9438.816553271776</v>
+        <v>2.956336087090048</v>
       </c>
       <c r="V33" t="n">
-        <v>6541.908753303868</v>
+        <v>2.366783059973744</v>
       </c>
     </row>
     <row r="34">
@@ -2777,16 +2777,16 @@
         <v>3.052903828330789</v>
       </c>
       <c r="S34" t="n">
-        <v>7898.399897712057</v>
+        <v>2.701815819374227</v>
       </c>
       <c r="T34" t="n">
-        <v>11481.97715165079</v>
+        <v>3.909474162548836</v>
       </c>
       <c r="U34" t="n">
-        <v>9725.370420622801</v>
+        <v>3.14685003737078</v>
       </c>
       <c r="V34" t="n">
-        <v>6745.836656079542</v>
+        <v>2.242333541691816</v>
       </c>
     </row>
     <row r="35">
@@ -2845,16 +2845,16 @@
         <v>3.067515214970141</v>
       </c>
       <c r="S35" t="n">
-        <v>8134.790198256261</v>
+        <v>2.627385894105276</v>
       </c>
       <c r="T35" t="n">
-        <v>11815.3884372107</v>
+        <v>3.706821535411507</v>
       </c>
       <c r="U35" t="n">
-        <v>10057.54497796809</v>
+        <v>3.644797906333286</v>
       </c>
       <c r="V35" t="n">
-        <v>6973.359125514411</v>
+        <v>2.49744351061476</v>
       </c>
     </row>
     <row r="36">
@@ -2913,16 +2913,16 @@
         <v>3.00764421189372</v>
       </c>
       <c r="S36" t="n">
-        <v>8369.255425866786</v>
+        <v>2.634362372273717</v>
       </c>
       <c r="T36" t="n">
-        <v>12150.71862011089</v>
+        <v>3.725681367424194</v>
       </c>
       <c r="U36" t="n">
-        <v>10393.38246869325</v>
+        <v>3.690024876429228</v>
       </c>
       <c r="V36" t="n">
-        <v>7175.909445073933</v>
+        <v>2.22878003337106</v>
       </c>
     </row>
     <row r="37">
@@ -2981,16 +2981,16 @@
         <v>3.072841501692695</v>
       </c>
       <c r="S37" t="n">
-        <v>8610.480923299116</v>
+        <v>2.709553997829017</v>
       </c>
       <c r="T37" t="n">
-        <v>12498.15663863902</v>
+        <v>3.858941757094035</v>
       </c>
       <c r="U37" t="n">
-        <v>10714.20416680199</v>
+        <v>3.527301336795354</v>
       </c>
       <c r="V37" t="n">
-        <v>7398.814503770839</v>
+        <v>2.447106942720406</v>
       </c>
     </row>
     <row r="38">
@@ -3049,16 +3049,16 @@
         <v>3.179897990811902</v>
       </c>
       <c r="S38" t="n">
-        <v>8869.403279979089</v>
+        <v>2.907021229753306</v>
       </c>
       <c r="T38" t="n">
-        <v>12851.7929566943</v>
+        <v>3.928519338597608</v>
       </c>
       <c r="U38" t="n">
-        <v>11059.92001127257</v>
+        <v>3.796121150080235</v>
       </c>
       <c r="V38" t="n">
-        <v>7619.700406903379</v>
+        <v>2.427532718209328</v>
       </c>
     </row>
     <row r="39">
@@ -3117,16 +3117,16 @@
         <v>3.220912859716587</v>
       </c>
       <c r="S39" t="n">
-        <v>9134.872280788404</v>
+        <v>2.949187055374427</v>
       </c>
       <c r="T39" t="n">
-        <v>13225.47665783617</v>
+        <v>4.149584840444648</v>
       </c>
       <c r="U39" t="n">
-        <v>11392.40556303508</v>
+        <v>3.655235575136908</v>
       </c>
       <c r="V39" t="n">
-        <v>7837.087791822256</v>
+        <v>2.38929258301181</v>
       </c>
     </row>
     <row r="40">
@@ -3185,16 +3185,16 @@
         <v>3.314236150863317</v>
       </c>
       <c r="S40" t="n">
-        <v>9416.409548490414</v>
+        <v>3.160960608415292</v>
       </c>
       <c r="T40" t="n">
-        <v>13604.53941114086</v>
+        <v>4.2111245950016</v>
       </c>
       <c r="U40" t="n">
-        <v>11715.25216165445</v>
+        <v>3.548932980375055</v>
       </c>
       <c r="V40" t="n">
-        <v>8065.220487086358</v>
+        <v>2.505673780946878</v>
       </c>
     </row>
     <row r="41">
@@ -3253,16 +3253,16 @@
         <v>3.362687399270208</v>
       </c>
       <c r="S41" t="n">
-        <v>9697.101673024381</v>
+        <v>3.153923168248697</v>
       </c>
       <c r="T41" t="n">
-        <v>13985.18791699425</v>
+        <v>4.229226708224024</v>
       </c>
       <c r="U41" t="n">
-        <v>12045.12708630818</v>
+        <v>3.62417236558811</v>
       </c>
       <c r="V41" t="n">
-        <v>8305.508611275985</v>
+        <v>2.639063021419348</v>
       </c>
     </row>
     <row r="42">
@@ -3321,16 +3321,16 @@
         <v>3.301283485996257</v>
       </c>
       <c r="S42" t="n">
-        <v>9973.208855665847</v>
+        <v>3.10290117566349</v>
       </c>
       <c r="T42" t="n">
-        <v>14356.36664485933</v>
+        <v>4.125362138168226</v>
       </c>
       <c r="U42" t="n">
-        <v>12368.80491420142</v>
+        <v>3.557630437596043</v>
       </c>
       <c r="V42" t="n">
-        <v>8528.87205077519</v>
+        <v>2.456548940441642</v>
       </c>
     </row>
     <row r="43">
@@ -3389,16 +3389,16 @@
         <v>3.102558386281859</v>
       </c>
       <c r="S43" t="n">
-        <v>10234.35337536975</v>
+        <v>2.903817811863471</v>
       </c>
       <c r="T43" t="n">
-        <v>14706.231341755</v>
+        <v>3.890000648723551</v>
       </c>
       <c r="U43" t="n">
-        <v>12682.75393702671</v>
+        <v>3.451159274596639</v>
       </c>
       <c r="V43" t="n">
-        <v>8756.298898240495</v>
+        <v>2.498732569627625</v>
       </c>
     </row>
     <row r="44">
@@ -3457,16 +3457,16 @@
         <v>3.425560534466967</v>
       </c>
       <c r="S44" t="n">
-        <v>10515.2210396999</v>
+        <v>3.15301646824457</v>
       </c>
       <c r="T44" t="n">
-        <v>15094.01177594661</v>
+        <v>4.304070712531094</v>
       </c>
       <c r="U44" t="n">
-        <v>13031.98642429359</v>
+        <v>3.918707183794035</v>
       </c>
       <c r="V44" t="n">
-        <v>9019.173789393082</v>
+        <v>2.884495910024078</v>
       </c>
     </row>
     <row r="45">
@@ -3525,16 +3525,16 @@
         <v>3.510408588830782</v>
       </c>
       <c r="S45" t="n">
-        <v>10797.81558266021</v>
+        <v>3.174972882539512</v>
       </c>
       <c r="T45" t="n">
-        <v>15504.33058597363</v>
+        <v>4.556295392742395</v>
       </c>
       <c r="U45" t="n">
-        <v>13378.84461020204</v>
+        <v>3.812792316220085</v>
       </c>
       <c r="V45" t="n">
-        <v>9257.406554384523</v>
+        <v>2.649640229686411</v>
       </c>
     </row>
     <row r="46">
@@ -3593,16 +3593,16 @@
         <v>3.128660223848045</v>
       </c>
       <c r="S46" t="n">
-        <v>11068.33482224033</v>
+        <v>3.041046805140577</v>
       </c>
       <c r="T46" t="n">
-        <v>15848.95537568752</v>
+        <v>3.879789834518066</v>
       </c>
       <c r="U46" t="n">
-        <v>13731.69383009397</v>
+        <v>3.876761002262599</v>
       </c>
       <c r="V46" t="n">
-        <v>9486.948835737447</v>
+        <v>2.523825234593539</v>
       </c>
     </row>
     <row r="47">
@@ -3661,16 +3661,16 @@
         <v>3.501465666525863</v>
       </c>
       <c r="S47" t="n">
-        <v>11366.72039134735</v>
+        <v>3.312380394639288</v>
       </c>
       <c r="T47" t="n">
-        <v>16270.86669788201</v>
+        <v>4.679023209110036</v>
       </c>
       <c r="U47" t="n">
-        <v>14061.482885288</v>
+        <v>3.626802349959573</v>
       </c>
       <c r="V47" t="n">
-        <v>9739.09729559434</v>
+        <v>2.768177011864044</v>
       </c>
     </row>
     <row r="48">
@@ -3729,16 +3729,16 @@
         <v>3.342520111518743</v>
       </c>
       <c r="S48" t="n">
-        <v>11662.70322345256</v>
+        <v>3.325502361109439</v>
       </c>
       <c r="T48" t="n">
-        <v>16680.54809823562</v>
+        <v>4.553411247941928</v>
       </c>
       <c r="U48" t="n">
-        <v>14399.39246774692</v>
+        <v>3.712352008792195</v>
       </c>
       <c r="V48" t="n">
-        <v>9968.943086358489</v>
+        <v>2.528412693217539</v>
       </c>
     </row>
     <row r="49">
@@ -3797,16 +3797,16 @@
         <v>3.450554891496665</v>
       </c>
       <c r="S49" t="n">
-        <v>11955.84308574781</v>
+        <v>3.331071512992702</v>
       </c>
       <c r="T49" t="n">
-        <v>17096.30501884779</v>
+        <v>4.618794855605679</v>
       </c>
       <c r="U49" t="n">
-        <v>14750.06392512457</v>
+        <v>3.851997928113398</v>
       </c>
       <c r="V49" t="n">
-        <v>10216.31165909376</v>
+        <v>2.71627158074451</v>
       </c>
     </row>
     <row r="50">
@@ -3865,16 +3865,16 @@
         <v>3.36318010547626</v>
       </c>
       <c r="S50" t="n">
-        <v>12243.29586799014</v>
+        <v>3.230931708392509</v>
       </c>
       <c r="T50" t="n">
-        <v>17509.51444037089</v>
+        <v>4.591518861304332</v>
       </c>
       <c r="U50" t="n">
-        <v>15102.9667900261</v>
+        <v>3.877770248148293</v>
       </c>
       <c r="V50" t="n">
-        <v>10452.68369230739</v>
+        <v>2.59878592167805</v>
       </c>
     </row>
     <row r="51">
@@ -3933,16 +3933,16 @@
         <v>3.329236965687651</v>
       </c>
       <c r="S51" t="n">
-        <v>12509.17041843258</v>
+        <v>2.957203100558572</v>
       </c>
       <c r="T51" t="n">
-        <v>17884.01054419506</v>
+        <v>4.165798051488948</v>
       </c>
       <c r="U51" t="n">
-        <v>15438.28804713258</v>
+        <v>3.686945949506882</v>
       </c>
       <c r="V51" t="n">
-        <v>10685.66397635429</v>
+        <v>2.560642064875832</v>
       </c>
     </row>
   </sheetData>
